--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>17</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-52.94117647058824</v>
+      </c>
       <c r="L12" t="n">
         <v>207.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>18</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-37.5</v>
+      </c>
       <c r="L13" t="n">
         <v>206.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>21</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L14" t="n">
         <v>206.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>22</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L15" t="n">
         <v>206.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L16" t="n">
         <v>205.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>25</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5.88235294117647</v>
+      </c>
       <c r="L17" t="n">
         <v>205.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>25</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>205.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>25</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L19" t="n">
         <v>205.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>29</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L20" t="n">
         <v>206</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>33</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>25</v>
+      </c>
       <c r="L21" t="n">
         <v>206.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>33</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>206.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>33</v>
       </c>
       <c r="K23" t="n">
-        <v>-15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>207.1</v>
@@ -1466,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>207</v>
@@ -1515,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L25" t="n">
         <v>207.5</v>
@@ -1564,7 +1586,7 @@
         <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>5.555555555555555</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>208.2</v>
@@ -1613,7 +1635,7 @@
         <v>44</v>
       </c>
       <c r="K27" t="n">
-        <v>2.702702702702703</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L27" t="n">
         <v>208.3</v>
@@ -1662,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="K28" t="n">
-        <v>15</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L28" t="n">
         <v>208.8</v>
@@ -1711,7 +1733,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.976744186046512</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>208.7</v>
@@ -1760,7 +1782,7 @@
         <v>55</v>
       </c>
       <c r="K30" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>208.3</v>
@@ -1809,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="K31" t="n">
-        <v>17.07317073170732</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
         <v>208.6</v>
@@ -1860,7 +1882,7 @@
         <v>59</v>
       </c>
       <c r="K32" t="n">
-        <v>19.04761904761905</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L32" t="n">
         <v>209</v>
@@ -1911,7 +1933,7 @@
         <v>59</v>
       </c>
       <c r="K33" t="n">
-        <v>17.07317073170732</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>209.4</v>
@@ -1962,7 +1984,7 @@
         <v>64</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.325581395348837</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>209.4</v>
@@ -2013,7 +2035,7 @@
         <v>64</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L35" t="n">
         <v>208.9</v>
@@ -2064,7 +2086,7 @@
         <v>64</v>
       </c>
       <c r="K36" t="n">
-        <v>2.439024390243902</v>
+        <v>-10</v>
       </c>
       <c r="L36" t="n">
         <v>208.3</v>
@@ -2115,7 +2137,7 @@
         <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L37" t="n">
         <v>208.2</v>
@@ -2166,7 +2188,7 @@
         <v>65</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L38" t="n">
         <v>207.7</v>
@@ -2268,7 +2290,7 @@
         <v>66</v>
       </c>
       <c r="K40" t="n">
-        <v>-13.51351351351351</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>207.7</v>
@@ -2319,7 +2341,7 @@
         <v>66</v>
       </c>
       <c r="K41" t="n">
-        <v>-3.03030303030303</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L41" t="n">
         <v>207.3</v>
@@ -2370,7 +2392,7 @@
         <v>66</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.03030303030303</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>206.8</v>
@@ -2421,7 +2443,7 @@
         <v>67</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>206.2</v>
@@ -2472,7 +2494,7 @@
         <v>68</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L44" t="n">
         <v>206</v>
@@ -2523,7 +2545,7 @@
         <v>68</v>
       </c>
       <c r="K45" t="n">
-        <v>-24.13793103448276</v>
+        <v>-50</v>
       </c>
       <c r="L45" t="n">
         <v>205.8</v>
@@ -2574,7 +2596,7 @@
         <v>68</v>
       </c>
       <c r="K46" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L46" t="n">
         <v>205.6</v>
@@ -2625,7 +2647,7 @@
         <v>68</v>
       </c>
       <c r="K47" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L47" t="n">
         <v>205.3</v>
@@ -2676,7 +2698,7 @@
         <v>70</v>
       </c>
       <c r="K48" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L48" t="n">
         <v>205.2</v>
@@ -2778,7 +2800,7 @@
         <v>70</v>
       </c>
       <c r="K50" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>205.1</v>
@@ -2829,7 +2851,7 @@
         <v>70</v>
       </c>
       <c r="K51" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>205.1</v>
@@ -2880,7 +2902,7 @@
         <v>71</v>
       </c>
       <c r="K52" t="n">
-        <v>-33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L52" t="n">
         <v>205.2</v>
@@ -2931,7 +2953,7 @@
         <v>73</v>
       </c>
       <c r="K53" t="n">
-        <v>-42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>205.2</v>
@@ -2982,7 +3004,7 @@
         <v>74</v>
       </c>
       <c r="K54" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>205.2</v>
@@ -3033,7 +3055,7 @@
         <v>76</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L55" t="n">
         <v>205.4</v>
@@ -3084,7 +3106,7 @@
         <v>79</v>
       </c>
       <c r="K56" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>205.3</v>
@@ -3135,7 +3157,7 @@
         <v>80</v>
       </c>
       <c r="K57" t="n">
-        <v>-33.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L57" t="n">
         <v>205.1</v>
@@ -3186,7 +3208,7 @@
         <v>82</v>
       </c>
       <c r="K58" t="n">
-        <v>-41.17647058823529</v>
+        <v>-50</v>
       </c>
       <c r="L58" t="n">
         <v>204.5</v>
@@ -3288,7 +3310,7 @@
         <v>89</v>
       </c>
       <c r="K60" t="n">
-        <v>-30.43478260869566</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L60" t="n">
         <v>203.5</v>
@@ -3339,7 +3361,7 @@
         <v>90</v>
       </c>
       <c r="K61" t="n">
-        <v>-25</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L61" t="n">
         <v>202.9</v>
@@ -3390,7 +3412,7 @@
         <v>96</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L62" t="n">
         <v>202.8</v>
@@ -3441,7 +3463,7 @@
         <v>97</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L63" t="n">
         <v>202.8</v>
@@ -3492,7 +3514,7 @@
         <v>97</v>
       </c>
       <c r="K64" t="n">
-        <v>3.448275862068965</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L64" t="n">
         <v>202.9</v>
@@ -3543,7 +3565,7 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>-6.25</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L65" t="n">
         <v>202.5</v>
@@ -3594,7 +3616,7 @@
         <v>104</v>
       </c>
       <c r="K66" t="n">
-        <v>5.555555555555555</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>202.8</v>
@@ -3645,7 +3667,7 @@
         <v>108</v>
       </c>
       <c r="K67" t="n">
-        <v>-5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L67" t="n">
         <v>202.8</v>
@@ -3696,7 +3718,7 @@
         <v>108</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.52631578947368</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L68" t="n">
         <v>203</v>
@@ -3747,7 +3769,7 @@
         <v>109</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>203</v>
@@ -3798,7 +3820,7 @@
         <v>109</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.692307692307693</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L70" t="n">
         <v>203.4</v>
@@ -3849,7 +3871,7 @@
         <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>-10</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>203.6</v>
@@ -3900,7 +3922,7 @@
         <v>110</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.82051282051282</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L72" t="n">
         <v>203.2</v>
@@ -3951,7 +3973,7 @@
         <v>110</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.108108108108109</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L73" t="n">
         <v>202.9</v>
@@ -4002,7 +4024,7 @@
         <v>111</v>
       </c>
       <c r="K74" t="n">
-        <v>-2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L74" t="n">
         <v>202.7</v>
@@ -4053,7 +4075,7 @@
         <v>115</v>
       </c>
       <c r="K75" t="n">
-        <v>-17.94871794871795</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L75" t="n">
         <v>202.4</v>
@@ -4104,7 +4126,7 @@
         <v>115</v>
       </c>
       <c r="K76" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L76" t="n">
         <v>201.7</v>
@@ -4155,7 +4177,7 @@
         <v>115</v>
       </c>
       <c r="K77" t="n">
-        <v>-8.571428571428571</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L77" t="n">
         <v>201.4</v>
@@ -4206,7 +4228,7 @@
         <v>119</v>
       </c>
       <c r="K78" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>201.5</v>
@@ -4257,7 +4279,7 @@
         <v>122</v>
       </c>
       <c r="K79" t="n">
-        <v>-8.108108108108109</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L79" t="n">
         <v>201.2</v>
@@ -4308,7 +4330,7 @@
         <v>125</v>
       </c>
       <c r="K80" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L80" t="n">
         <v>201.2</v>
@@ -4359,7 +4381,7 @@
         <v>128</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L81" t="n">
         <v>201</v>
@@ -4410,7 +4432,7 @@
         <v>131</v>
       </c>
       <c r="K82" t="n">
-        <v>-8.571428571428571</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L82" t="n">
         <v>201.1</v>
@@ -4461,7 +4483,7 @@
         <v>131</v>
       </c>
       <c r="K83" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>201.2</v>
@@ -4512,7 +4534,7 @@
         <v>135</v>
       </c>
       <c r="K84" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>200.8</v>
@@ -4563,7 +4585,7 @@
         <v>139</v>
       </c>
       <c r="K85" t="n">
-        <v>2.564102564102564</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>201.2</v>
@@ -4614,7 +4636,7 @@
         <v>139</v>
       </c>
       <c r="K86" t="n">
-        <v>-8.571428571428571</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L86" t="n">
         <v>201.6</v>
@@ -4665,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="K87" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>202</v>
@@ -4716,7 +4738,7 @@
         <v>139</v>
       </c>
       <c r="K88" t="n">
-        <v>3.225806451612903</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L88" t="n">
         <v>202</v>
@@ -4767,7 +4789,7 @@
         <v>141</v>
       </c>
       <c r="K89" t="n">
-        <v>-6.25</v>
+        <v>-12.5</v>
       </c>
       <c r="L89" t="n">
         <v>202.1</v>
@@ -4818,7 +4840,7 @@
         <v>141</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L90" t="n">
         <v>201.9</v>
@@ -4869,7 +4891,7 @@
         <v>141</v>
       </c>
       <c r="K91" t="n">
-        <v>-3.225806451612903</v>
+        <v>-20</v>
       </c>
       <c r="L91" t="n">
         <v>202</v>
@@ -4920,7 +4942,7 @@
         <v>141</v>
       </c>
       <c r="K92" t="n">
-        <v>-3.225806451612903</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>201.8</v>
@@ -4971,7 +4993,7 @@
         <v>141</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.225806451612903</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>201.6</v>
@@ -5022,7 +5044,7 @@
         <v>142</v>
       </c>
       <c r="K94" t="n">
-        <v>-3.225806451612903</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>201.9</v>
@@ -5073,7 +5095,7 @@
         <v>142</v>
       </c>
       <c r="K95" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>201.8</v>
@@ -5124,7 +5146,7 @@
         <v>144</v>
       </c>
       <c r="K96" t="n">
-        <v>17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>201.9</v>
@@ -5175,7 +5197,7 @@
         <v>144</v>
       </c>
       <c r="K97" t="n">
-        <v>17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>202</v>
@@ -5226,7 +5248,7 @@
         <v>144</v>
       </c>
       <c r="K98" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>202.1</v>
@@ -5277,7 +5299,7 @@
         <v>145</v>
       </c>
       <c r="K99" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>202.5</v>
@@ -5328,7 +5350,7 @@
         <v>145</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>202.9</v>
@@ -5379,7 +5401,7 @@
         <v>145</v>
       </c>
       <c r="K101" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>203.3</v>
@@ -5430,7 +5452,7 @@
         <v>145</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>203.7</v>
@@ -5481,7 +5503,7 @@
         <v>145</v>
       </c>
       <c r="K103" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>204.1</v>
@@ -5532,7 +5554,7 @@
         <v>147</v>
       </c>
       <c r="K104" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>204.6</v>
@@ -5583,7 +5605,7 @@
         <v>152</v>
       </c>
       <c r="K105" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L105" t="n">
         <v>204.6</v>
@@ -5634,7 +5656,7 @@
         <v>157</v>
       </c>
       <c r="K106" t="n">
-        <v>22.22222222222222</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L106" t="n">
         <v>204.9</v>
@@ -5685,7 +5707,7 @@
         <v>158</v>
       </c>
       <c r="K107" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>205.1</v>
@@ -5736,7 +5758,7 @@
         <v>158</v>
       </c>
       <c r="K108" t="n">
-        <v>15.78947368421053</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L108" t="n">
         <v>205.3</v>
@@ -5787,7 +5809,7 @@
         <v>158</v>
       </c>
       <c r="K109" t="n">
-        <v>29.41176470588236</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>205.4</v>
@@ -5838,7 +5860,7 @@
         <v>159</v>
       </c>
       <c r="K110" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>205.4</v>
@@ -5889,7 +5911,7 @@
         <v>160</v>
       </c>
       <c r="K111" t="n">
-        <v>26.31578947368421</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L111" t="n">
         <v>205.5</v>
@@ -5940,7 +5962,7 @@
         <v>160</v>
       </c>
       <c r="K112" t="n">
-        <v>26.31578947368421</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L112" t="n">
         <v>205.6</v>
@@ -5991,7 +6013,7 @@
         <v>162</v>
       </c>
       <c r="K113" t="n">
-        <v>33.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L113" t="n">
         <v>205.9</v>
@@ -6042,7 +6064,7 @@
         <v>163</v>
       </c>
       <c r="K114" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L114" t="n">
         <v>206.1</v>
@@ -6093,7 +6115,7 @@
         <v>164</v>
       </c>
       <c r="K115" t="n">
-        <v>36.36363636363637</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L115" t="n">
         <v>206.9</v>
@@ -6144,7 +6166,7 @@
         <v>164</v>
       </c>
       <c r="K116" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L116" t="n">
         <v>207.2</v>
@@ -6195,7 +6217,7 @@
         <v>164</v>
       </c>
       <c r="K117" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L117" t="n">
         <v>207.6</v>
@@ -6246,7 +6268,7 @@
         <v>164</v>
       </c>
       <c r="K118" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L118" t="n">
         <v>208</v>
@@ -6297,7 +6319,7 @@
         <v>165</v>
       </c>
       <c r="K119" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>208.5</v>
@@ -6348,7 +6370,7 @@
         <v>166</v>
       </c>
       <c r="K120" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>209.2</v>
@@ -6399,7 +6421,7 @@
         <v>166</v>
       </c>
       <c r="K121" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
         <v>209.8</v>
@@ -6450,7 +6472,7 @@
         <v>166</v>
       </c>
       <c r="K122" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>210.4</v>
@@ -6501,7 +6523,7 @@
         <v>167</v>
       </c>
       <c r="K123" t="n">
-        <v>36.36363636363637</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
         <v>210.9</v>
@@ -6552,7 +6574,7 @@
         <v>168</v>
       </c>
       <c r="K124" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>211.4</v>
@@ -6603,7 +6625,7 @@
         <v>168</v>
       </c>
       <c r="K125" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>211.8</v>
@@ -6654,7 +6676,7 @@
         <v>170</v>
       </c>
       <c r="K126" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>212.4</v>
@@ -6705,7 +6727,7 @@
         <v>171</v>
       </c>
       <c r="K127" t="n">
-        <v>69.23076923076923</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L127" t="n">
         <v>212.9</v>
@@ -6756,7 +6778,7 @@
         <v>171</v>
       </c>
       <c r="K128" t="n">
-        <v>69.23076923076923</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L128" t="n">
         <v>213.4</v>
@@ -6807,7 +6829,7 @@
         <v>171</v>
       </c>
       <c r="K129" t="n">
-        <v>69.23076923076923</v>
+        <v>60</v>
       </c>
       <c r="L129" t="n">
         <v>213.8</v>
@@ -6858,7 +6880,7 @@
         <v>172</v>
       </c>
       <c r="K130" t="n">
-        <v>69.23076923076923</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>214</v>
@@ -6909,7 +6931,7 @@
         <v>173</v>
       </c>
       <c r="K131" t="n">
-        <v>53.84615384615385</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L131" t="n">
         <v>214.1</v>
@@ -6960,7 +6982,7 @@
         <v>174</v>
       </c>
       <c r="K132" t="n">
-        <v>57.14285714285714</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>214.3</v>
@@ -7011,7 +7033,7 @@
         <v>175</v>
       </c>
       <c r="K133" t="n">
-        <v>38.46153846153847</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>214.3</v>
@@ -7062,7 +7084,7 @@
         <v>177</v>
       </c>
       <c r="K134" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>214</v>
@@ -7113,7 +7135,7 @@
         <v>180</v>
       </c>
       <c r="K135" t="n">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="L135" t="n">
         <v>214</v>
@@ -7164,7 +7186,7 @@
         <v>180</v>
       </c>
       <c r="K136" t="n">
-        <v>25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L136" t="n">
         <v>213.8</v>
@@ -7215,7 +7237,7 @@
         <v>181</v>
       </c>
       <c r="K137" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L137" t="n">
         <v>213.6</v>
@@ -7266,7 +7288,7 @@
         <v>183</v>
       </c>
       <c r="K138" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>213.6</v>
@@ -7317,7 +7339,7 @@
         <v>184</v>
       </c>
       <c r="K139" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>213.5</v>
@@ -7368,7 +7390,7 @@
         <v>184</v>
       </c>
       <c r="K140" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L140" t="n">
         <v>213.5</v>
@@ -7419,7 +7441,7 @@
         <v>184</v>
       </c>
       <c r="K141" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>213.6</v>
@@ -7470,7 +7492,7 @@
         <v>185</v>
       </c>
       <c r="K142" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>213.7</v>
@@ -7521,7 +7543,7 @@
         <v>186</v>
       </c>
       <c r="K143" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>213.8</v>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>208.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>207.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>206.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>21</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L14" t="n">
-        <v>206.6</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>22</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L15" t="n">
-        <v>206.1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L17" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L18" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L19" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>29</v>
-      </c>
-      <c r="K20" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L20" t="n">
-        <v>206</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>33</v>
-      </c>
-      <c r="K21" t="n">
-        <v>25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>206.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>33</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>206.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>207.25</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>33</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>207.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>207</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>34</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>39</v>
-      </c>
-      <c r="K25" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>207.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,24 +1296,10 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>40</v>
-      </c>
-      <c r="K26" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>208.2</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>206.9</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>44</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L27" t="n">
-        <v>208.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>206.95</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,24 +1366,10 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>48</v>
-      </c>
-      <c r="K28" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L28" t="n">
-        <v>208.8</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>207.25</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>54</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L29" t="n">
-        <v>208.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>55</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>208.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>207.15</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>58</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12</v>
-      </c>
-      <c r="L31" t="n">
-        <v>208.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>207.8666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>59</v>
-      </c>
-      <c r="K32" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L32" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="N32" t="n">
-        <v>207.8333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>59</v>
-      </c>
-      <c r="K33" t="n">
-        <v>20</v>
-      </c>
-      <c r="L33" t="n">
-        <v>209.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>64</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>209.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>208.2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>207.6666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>64</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>208.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>208.2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>64</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L36" t="n">
-        <v>208.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N36" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>65</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L37" t="n">
-        <v>208.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N37" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>65</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L38" t="n">
-        <v>207.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>65</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>207.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N39" t="n">
-        <v>207.3333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>66</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L40" t="n">
-        <v>207.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>208</v>
-      </c>
-      <c r="N40" t="n">
-        <v>207.3333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>66</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L41" t="n">
-        <v>207.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>207.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>207.4333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>66</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L42" t="n">
-        <v>206.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="N42" t="n">
-        <v>207.5333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>67</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>206.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="N43" t="n">
-        <v>207.5666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>68</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L44" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>207.7</v>
-      </c>
-      <c r="N44" t="n">
-        <v>207.4666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>68</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L45" t="n">
-        <v>205.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>207.35</v>
-      </c>
-      <c r="N45" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>68</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L46" t="n">
-        <v>205.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>206.95</v>
-      </c>
-      <c r="N46" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>68</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L47" t="n">
-        <v>205.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>206.75</v>
-      </c>
-      <c r="N47" t="n">
-        <v>207.2666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>70</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L48" t="n">
-        <v>205.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>206.45</v>
-      </c>
-      <c r="N48" t="n">
-        <v>207.2333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>70</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>205.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>206.45</v>
-      </c>
-      <c r="N49" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>70</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>205.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="N50" t="n">
-        <v>207.0333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>70</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>205.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="N51" t="n">
-        <v>207</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>71</v>
-      </c>
-      <c r="K52" t="n">
-        <v>50</v>
-      </c>
-      <c r="L52" t="n">
-        <v>205.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>206</v>
-      </c>
-      <c r="N52" t="n">
-        <v>207</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>73</v>
-      </c>
-      <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>205.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="N53" t="n">
-        <v>206.9333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>74</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>205.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="N54" t="n">
-        <v>206.8666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>76</v>
-      </c>
-      <c r="K55" t="n">
-        <v>25</v>
-      </c>
-      <c r="L55" t="n">
-        <v>205.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="N55" t="n">
-        <v>206.7</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>79</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L56" t="n">
-        <v>205.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>205.45</v>
-      </c>
-      <c r="N56" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>80</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L57" t="n">
-        <v>205.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="N57" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>82</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L58" t="n">
-        <v>204.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>204.85</v>
-      </c>
-      <c r="N58" t="n">
-        <v>205.8</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>85</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L59" t="n">
-        <v>204.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>204.65</v>
-      </c>
-      <c r="N59" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>89</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-36.84210526315789</v>
-      </c>
-      <c r="L60" t="n">
-        <v>203.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>204.3</v>
-      </c>
-      <c r="N60" t="n">
-        <v>205.4333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>90</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-36.84210526315789</v>
-      </c>
-      <c r="L61" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>204</v>
-      </c>
-      <c r="N61" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>96</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L62" t="n">
-        <v>202.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>204</v>
-      </c>
-      <c r="N62" t="n">
-        <v>204.9333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>97</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L63" t="n">
-        <v>202.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>204</v>
-      </c>
-      <c r="N63" t="n">
-        <v>204.7333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>97</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L64" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>204.05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>204.7</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>100</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L65" t="n">
-        <v>202.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>203.95</v>
-      </c>
-      <c r="N65" t="n">
-        <v>204.5666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>104</v>
-      </c>
-      <c r="K66" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L66" t="n">
-        <v>202.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>204.05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>204.5666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>108</v>
-      </c>
-      <c r="K67" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L67" t="n">
-        <v>202.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>203.95</v>
-      </c>
-      <c r="N67" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>108</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L68" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>203.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>204.2333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>109</v>
-      </c>
-      <c r="K69" t="n">
-        <v>20</v>
-      </c>
-      <c r="L69" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="N69" t="n">
-        <v>204.1</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>109</v>
-      </c>
-      <c r="K70" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L70" t="n">
-        <v>203.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>203.45</v>
-      </c>
-      <c r="N70" t="n">
-        <v>204</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>110</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L71" t="n">
-        <v>203.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>203.25</v>
-      </c>
-      <c r="N71" t="n">
-        <v>203.8666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J72" t="n">
-        <v>110</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L72" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>203</v>
-      </c>
-      <c r="N72" t="n">
-        <v>203.7333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>110</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L73" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>202.85</v>
-      </c>
-      <c r="N73" t="n">
-        <v>203.6333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +2971,19 @@
         <v>205.5333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="K74" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L74" t="n">
-        <v>202.7</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="N74" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3010,23 @@
         <v>205.4166666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="K75" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L75" t="n">
-        <v>202.4</v>
+        <v>203</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>202.45</v>
-      </c>
-      <c r="N75" t="n">
-        <v>203.4333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3053,23 @@
         <v>205.3166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="K76" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L76" t="n">
-        <v>201.7</v>
+        <v>203</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>202.25</v>
-      </c>
-      <c r="N76" t="n">
-        <v>203.2666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3096,23 @@
         <v>205.1833333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="K77" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L77" t="n">
-        <v>201.4</v>
+        <v>203</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>202.1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>203.1</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3139,23 @@
         <v>205.1166666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>201.5</v>
+        <v>203</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>202.25</v>
-      </c>
-      <c r="N78" t="n">
-        <v>203</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3182,23 @@
         <v>205</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="K79" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L79" t="n">
-        <v>201.2</v>
+        <v>203</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>202.1</v>
-      </c>
-      <c r="N79" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3225,23 @@
         <v>204.8666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K80" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L80" t="n">
-        <v>201.2</v>
+        <v>203</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>202.3</v>
-      </c>
-      <c r="N80" t="n">
-        <v>202.7</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3268,23 @@
         <v>204.75</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L81" t="n">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>202.3</v>
-      </c>
-      <c r="N81" t="n">
-        <v>202.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3311,23 @@
         <v>204.6833333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="K82" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L82" t="n">
-        <v>201.1</v>
+        <v>203</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>202.15</v>
-      </c>
-      <c r="N82" t="n">
-        <v>202.3666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3354,23 @@
         <v>204.6166666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>201.2</v>
+        <v>203</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>202.05</v>
-      </c>
-      <c r="N83" t="n">
-        <v>202.3</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3397,23 @@
         <v>204.5</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>200.8</v>
+        <v>203</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>201.75</v>
-      </c>
-      <c r="N84" t="n">
-        <v>202.1333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3440,23 @@
         <v>204.3666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="K85" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L85" t="n">
-        <v>201.2</v>
+        <v>203</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="N85" t="n">
-        <v>202.0333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3483,23 @@
         <v>204.2166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="K86" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L86" t="n">
-        <v>201.6</v>
+        <v>203</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>201.65</v>
-      </c>
-      <c r="N86" t="n">
-        <v>202.0333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,32 +3526,24 @@
         <v>204.1333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>201.7</v>
-      </c>
-      <c r="N87" t="n">
-        <v>202.0666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="88">
@@ -4729,31 +3569,23 @@
         <v>203.9833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="K88" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L88" t="n">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>201.75</v>
-      </c>
-      <c r="N88" t="n">
-        <v>202.1666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3612,23 @@
         <v>203.9</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="K89" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L89" t="n">
-        <v>202.1</v>
+        <v>203</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>201.65</v>
-      </c>
-      <c r="N89" t="n">
-        <v>202.1</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3655,19 @@
         <v>203.8</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L90" t="n">
-        <v>201.9</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>201.55</v>
-      </c>
-      <c r="N90" t="n">
-        <v>202.1666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3694,23 @@
         <v>203.65</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="K91" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L91" t="n">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>201.5</v>
-      </c>
-      <c r="N91" t="n">
-        <v>202.2</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3737,23 @@
         <v>203.4833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="K92" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L92" t="n">
-        <v>201.8</v>
+        <v>201</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>201.45</v>
-      </c>
-      <c r="N92" t="n">
-        <v>202.0333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3780,19 @@
         <v>203.3166666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="K93" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L93" t="n">
-        <v>201.6</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>201.4</v>
-      </c>
-      <c r="N93" t="n">
-        <v>201.9</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3819,23 @@
         <v>203.25</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>201.9</v>
+        <v>201</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>201.35</v>
-      </c>
-      <c r="N94" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3862,23 @@
         <v>203.1833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="K95" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>201.8</v>
+        <v>201</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>201.5</v>
-      </c>
-      <c r="N95" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3905,19 @@
         <v>203.15</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
-      </c>
-      <c r="L96" t="n">
-        <v>201.9</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>201.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>201.7333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +3944,23 @@
         <v>203.1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="K97" t="n">
-        <v>20</v>
-      </c>
-      <c r="L97" t="n">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>202</v>
-      </c>
-      <c r="N97" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +3987,23 @@
         <v>203.05</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="K98" t="n">
-        <v>100</v>
-      </c>
-      <c r="L98" t="n">
-        <v>202.1</v>
+        <v>204</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>202.05</v>
-      </c>
-      <c r="N98" t="n">
-        <v>201.8666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4030,19 @@
         <v>203.0166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K99" t="n">
-        <v>100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>202.5</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>202.3</v>
-      </c>
-      <c r="N99" t="n">
-        <v>201.9333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +4069,23 @@
         <v>203</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>202.9</v>
+        <v>205</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>202.4</v>
-      </c>
-      <c r="N100" t="n">
-        <v>202</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +4112,23 @@
         <v>202.9833333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K101" t="n">
-        <v>100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>203.3</v>
+        <v>205</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>202.65</v>
-      </c>
-      <c r="N101" t="n">
-        <v>202.1</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4158,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>145</v>
-      </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>203.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>202.75</v>
-      </c>
-      <c r="N102" t="n">
-        <v>202.2</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4193,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J103" t="n">
-        <v>145</v>
-      </c>
-      <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
-        <v>204.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>202.85</v>
-      </c>
-      <c r="N103" t="n">
-        <v>202.3</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4228,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>147</v>
-      </c>
-      <c r="K104" t="n">
-        <v>100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>204.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>203.25</v>
-      </c>
-      <c r="N104" t="n">
-        <v>202.4333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4263,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J105" t="n">
-        <v>152</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L105" t="n">
-        <v>204.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="N105" t="n">
-        <v>202.5333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4298,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>157</v>
-      </c>
-      <c r="K106" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L106" t="n">
-        <v>204.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>203.4</v>
-      </c>
-      <c r="N106" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4333,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>158</v>
-      </c>
-      <c r="K107" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L107" t="n">
-        <v>205.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>203.55</v>
-      </c>
-      <c r="N107" t="n">
-        <v>203.0333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4368,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>158</v>
-      </c>
-      <c r="K108" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L108" t="n">
-        <v>205.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>203.7</v>
-      </c>
-      <c r="N108" t="n">
-        <v>203.1333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4403,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>158</v>
-      </c>
-      <c r="K109" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L109" t="n">
-        <v>205.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>203.95</v>
-      </c>
-      <c r="N109" t="n">
-        <v>203.3333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4438,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J110" t="n">
-        <v>159</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>205.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>204.15</v>
-      </c>
-      <c r="N110" t="n">
-        <v>203.4</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4473,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>160</v>
-      </c>
-      <c r="K111" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L111" t="n">
-        <v>205.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="N111" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4508,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J112" t="n">
-        <v>160</v>
-      </c>
-      <c r="K112" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L112" t="n">
-        <v>205.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>204.65</v>
-      </c>
-      <c r="N112" t="n">
-        <v>203.7</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4543,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J113" t="n">
-        <v>162</v>
-      </c>
-      <c r="K113" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L113" t="n">
-        <v>205.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>205</v>
-      </c>
-      <c r="N113" t="n">
-        <v>203.8666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4578,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>163</v>
-      </c>
-      <c r="K114" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L114" t="n">
-        <v>206.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>205.35</v>
-      </c>
-      <c r="N114" t="n">
-        <v>204.2</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4613,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>164</v>
-      </c>
-      <c r="K115" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L115" t="n">
-        <v>206.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>205.75</v>
-      </c>
-      <c r="N115" t="n">
-        <v>204.4333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4648,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>164</v>
-      </c>
-      <c r="K116" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L116" t="n">
-        <v>207.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>206.05</v>
-      </c>
-      <c r="N116" t="n">
-        <v>204.6666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4683,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>164</v>
-      </c>
-      <c r="K117" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L117" t="n">
-        <v>207.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>206.35</v>
-      </c>
-      <c r="N117" t="n">
-        <v>204.9</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4718,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>164</v>
-      </c>
-      <c r="K118" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L118" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="N118" t="n">
-        <v>205.1333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4753,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>165</v>
-      </c>
-      <c r="K119" t="n">
-        <v>100</v>
-      </c>
-      <c r="L119" t="n">
-        <v>208.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>206.95</v>
-      </c>
-      <c r="N119" t="n">
-        <v>205.4666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4788,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>166</v>
-      </c>
-      <c r="K120" t="n">
-        <v>100</v>
-      </c>
-      <c r="L120" t="n">
-        <v>209.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>207.3</v>
-      </c>
-      <c r="N120" t="n">
-        <v>205.8333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4823,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>166</v>
-      </c>
-      <c r="K121" t="n">
-        <v>100</v>
-      </c>
-      <c r="L121" t="n">
-        <v>209.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>207.65</v>
-      </c>
-      <c r="N121" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,1099 +4858,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>166</v>
-      </c>
-      <c r="K122" t="n">
-        <v>100</v>
-      </c>
-      <c r="L122" t="n">
-        <v>210.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>208</v>
-      </c>
-      <c r="N122" t="n">
-        <v>206.5666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>213</v>
-      </c>
-      <c r="C123" t="n">
-        <v>213</v>
-      </c>
-      <c r="D123" t="n">
-        <v>213</v>
-      </c>
-      <c r="E123" t="n">
-        <v>213</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>204.4333333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>167</v>
-      </c>
-      <c r="K123" t="n">
-        <v>100</v>
-      </c>
-      <c r="L123" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="M123" t="n">
-        <v>208.4</v>
-      </c>
-      <c r="N123" t="n">
-        <v>206.9666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>214</v>
-      </c>
-      <c r="C124" t="n">
-        <v>214</v>
-      </c>
-      <c r="D124" t="n">
-        <v>214</v>
-      </c>
-      <c r="E124" t="n">
-        <v>214</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1518.4957</v>
-      </c>
-      <c r="G124" t="n">
-        <v>204.5833333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2</v>
-      </c>
-      <c r="J124" t="n">
-        <v>168</v>
-      </c>
-      <c r="K124" t="n">
-        <v>100</v>
-      </c>
-      <c r="L124" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="M124" t="n">
-        <v>208.75</v>
-      </c>
-      <c r="N124" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>214</v>
-      </c>
-      <c r="C125" t="n">
-        <v>214</v>
-      </c>
-      <c r="D125" t="n">
-        <v>214</v>
-      </c>
-      <c r="E125" t="n">
-        <v>214</v>
-      </c>
-      <c r="F125" t="n">
-        <v>900.5802</v>
-      </c>
-      <c r="G125" t="n">
-        <v>204.7833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2</v>
-      </c>
-      <c r="J125" t="n">
-        <v>168</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100</v>
-      </c>
-      <c r="L125" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="M125" t="n">
-        <v>209.35</v>
-      </c>
-      <c r="N125" t="n">
-        <v>207.7666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>215</v>
-      </c>
-      <c r="C126" t="n">
-        <v>216</v>
-      </c>
-      <c r="D126" t="n">
-        <v>216</v>
-      </c>
-      <c r="E126" t="n">
-        <v>215</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5857.5168</v>
-      </c>
-      <c r="G126" t="n">
-        <v>204.95</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>170</v>
-      </c>
-      <c r="K126" t="n">
-        <v>100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>212.4</v>
-      </c>
-      <c r="M126" t="n">
-        <v>209.8</v>
-      </c>
-      <c r="N126" t="n">
-        <v>208.1666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>217</v>
-      </c>
-      <c r="C127" t="n">
-        <v>215</v>
-      </c>
-      <c r="D127" t="n">
-        <v>217</v>
-      </c>
-      <c r="E127" t="n">
-        <v>215</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3502.8982</v>
-      </c>
-      <c r="G127" t="n">
-        <v>205.1666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3</v>
-      </c>
-      <c r="J127" t="n">
-        <v>171</v>
-      </c>
-      <c r="K127" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L127" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="M127" t="n">
-        <v>210.25</v>
-      </c>
-      <c r="N127" t="n">
-        <v>208.5333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>215</v>
-      </c>
-      <c r="C128" t="n">
-        <v>215</v>
-      </c>
-      <c r="D128" t="n">
-        <v>215</v>
-      </c>
-      <c r="E128" t="n">
-        <v>215</v>
-      </c>
-      <c r="F128" t="n">
-        <v>851.9963</v>
-      </c>
-      <c r="G128" t="n">
-        <v>205.3833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>171</v>
-      </c>
-      <c r="K128" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L128" t="n">
-        <v>213.4</v>
-      </c>
-      <c r="M128" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="N128" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>215</v>
-      </c>
-      <c r="C129" t="n">
-        <v>215</v>
-      </c>
-      <c r="D129" t="n">
-        <v>215</v>
-      </c>
-      <c r="E129" t="n">
-        <v>215</v>
-      </c>
-      <c r="F129" t="n">
-        <v>32.2255</v>
-      </c>
-      <c r="G129" t="n">
-        <v>205.5833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3</v>
-      </c>
-      <c r="J129" t="n">
-        <v>171</v>
-      </c>
-      <c r="K129" t="n">
-        <v>60</v>
-      </c>
-      <c r="L129" t="n">
-        <v>213.8</v>
-      </c>
-      <c r="M129" t="n">
-        <v>211.15</v>
-      </c>
-      <c r="N129" t="n">
-        <v>209.2333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>214</v>
-      </c>
-      <c r="C130" t="n">
-        <v>214</v>
-      </c>
-      <c r="D130" t="n">
-        <v>214</v>
-      </c>
-      <c r="E130" t="n">
-        <v>214</v>
-      </c>
-      <c r="F130" t="n">
-        <v>64.813</v>
-      </c>
-      <c r="G130" t="n">
-        <v>205.7666666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2</v>
-      </c>
-      <c r="J130" t="n">
-        <v>172</v>
-      </c>
-      <c r="K130" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L130" t="n">
-        <v>214</v>
-      </c>
-      <c r="M130" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="N130" t="n">
-        <v>209.5333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>213</v>
-      </c>
-      <c r="C131" t="n">
-        <v>213</v>
-      </c>
-      <c r="D131" t="n">
-        <v>213</v>
-      </c>
-      <c r="E131" t="n">
-        <v>213</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2211.2715</v>
-      </c>
-      <c r="G131" t="n">
-        <v>205.95</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>173</v>
-      </c>
-      <c r="K131" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L131" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="M131" t="n">
-        <v>211.95</v>
-      </c>
-      <c r="N131" t="n">
-        <v>209.8</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>214</v>
-      </c>
-      <c r="C132" t="n">
-        <v>214</v>
-      </c>
-      <c r="D132" t="n">
-        <v>214</v>
-      </c>
-      <c r="E132" t="n">
-        <v>214</v>
-      </c>
-      <c r="F132" t="n">
-        <v>583.4672</v>
-      </c>
-      <c r="G132" t="n">
-        <v>206.15</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2</v>
-      </c>
-      <c r="J132" t="n">
-        <v>174</v>
-      </c>
-      <c r="K132" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L132" t="n">
-        <v>214.3</v>
-      </c>
-      <c r="M132" t="n">
-        <v>212.35</v>
-      </c>
-      <c r="N132" t="n">
-        <v>210.1</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>213</v>
-      </c>
-      <c r="C133" t="n">
-        <v>213</v>
-      </c>
-      <c r="D133" t="n">
-        <v>213</v>
-      </c>
-      <c r="E133" t="n">
-        <v>213</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1169.0064</v>
-      </c>
-      <c r="G133" t="n">
-        <v>206.3333333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>175</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L133" t="n">
-        <v>214.3</v>
-      </c>
-      <c r="M133" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="N133" t="n">
-        <v>210.3666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>211</v>
-      </c>
-      <c r="C134" t="n">
-        <v>211</v>
-      </c>
-      <c r="D134" t="n">
-        <v>211</v>
-      </c>
-      <c r="E134" t="n">
-        <v>211</v>
-      </c>
-      <c r="F134" t="n">
-        <v>122.6203</v>
-      </c>
-      <c r="G134" t="n">
-        <v>206.4666666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>177</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L134" t="n">
-        <v>214</v>
-      </c>
-      <c r="M134" t="n">
-        <v>212.7</v>
-      </c>
-      <c r="N134" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>214</v>
-      </c>
-      <c r="C135" t="n">
-        <v>214</v>
-      </c>
-      <c r="D135" t="n">
-        <v>214</v>
-      </c>
-      <c r="E135" t="n">
-        <v>214</v>
-      </c>
-      <c r="F135" t="n">
-        <v>128.927</v>
-      </c>
-      <c r="G135" t="n">
-        <v>206.7166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2</v>
-      </c>
-      <c r="J135" t="n">
-        <v>180</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L135" t="n">
-        <v>214</v>
-      </c>
-      <c r="M135" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="N135" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>214</v>
-      </c>
-      <c r="C136" t="n">
-        <v>214</v>
-      </c>
-      <c r="D136" t="n">
-        <v>214</v>
-      </c>
-      <c r="E136" t="n">
-        <v>214</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1.073</v>
-      </c>
-      <c r="G136" t="n">
-        <v>206.9666666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
-      <c r="J136" t="n">
-        <v>180</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L136" t="n">
-        <v>213.8</v>
-      </c>
-      <c r="M136" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>211.1333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>213</v>
-      </c>
-      <c r="C137" t="n">
-        <v>213</v>
-      </c>
-      <c r="D137" t="n">
-        <v>213</v>
-      </c>
-      <c r="E137" t="n">
-        <v>213</v>
-      </c>
-      <c r="F137" t="n">
-        <v>641.595</v>
-      </c>
-      <c r="G137" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>181</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L137" t="n">
-        <v>213.6</v>
-      </c>
-      <c r="M137" t="n">
-        <v>213.25</v>
-      </c>
-      <c r="N137" t="n">
-        <v>211.3666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>215</v>
-      </c>
-      <c r="C138" t="n">
-        <v>215</v>
-      </c>
-      <c r="D138" t="n">
-        <v>215</v>
-      </c>
-      <c r="E138" t="n">
-        <v>215</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3387.3441</v>
-      </c>
-      <c r="G138" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3</v>
-      </c>
-      <c r="J138" t="n">
-        <v>183</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>213.6</v>
-      </c>
-      <c r="M138" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>211.6666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>214</v>
-      </c>
-      <c r="C139" t="n">
-        <v>214</v>
-      </c>
-      <c r="D139" t="n">
-        <v>214</v>
-      </c>
-      <c r="E139" t="n">
-        <v>214</v>
-      </c>
-      <c r="F139" t="n">
-        <v>57</v>
-      </c>
-      <c r="G139" t="n">
-        <v>207.6333333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
-      <c r="J139" t="n">
-        <v>184</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="M139" t="n">
-        <v>213.65</v>
-      </c>
-      <c r="N139" t="n">
-        <v>211.9333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>214</v>
-      </c>
-      <c r="C140" t="n">
-        <v>214</v>
-      </c>
-      <c r="D140" t="n">
-        <v>214</v>
-      </c>
-      <c r="E140" t="n">
-        <v>214</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.0057</v>
-      </c>
-      <c r="G140" t="n">
-        <v>207.8166666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
-      <c r="J140" t="n">
-        <v>184</v>
-      </c>
-      <c r="K140" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L140" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="M140" t="n">
-        <v>213.75</v>
-      </c>
-      <c r="N140" t="n">
-        <v>212.2333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>214</v>
-      </c>
-      <c r="C141" t="n">
-        <v>214</v>
-      </c>
-      <c r="D141" t="n">
-        <v>214</v>
-      </c>
-      <c r="E141" t="n">
-        <v>214</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2289</v>
-      </c>
-      <c r="G141" t="n">
-        <v>208.05</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
-      <c r="J141" t="n">
-        <v>184</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>213.6</v>
-      </c>
-      <c r="M141" t="n">
-        <v>213.85</v>
-      </c>
-      <c r="N141" t="n">
-        <v>212.5</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>215</v>
-      </c>
-      <c r="C142" t="n">
-        <v>215</v>
-      </c>
-      <c r="D142" t="n">
-        <v>215</v>
-      </c>
-      <c r="E142" t="n">
-        <v>215</v>
-      </c>
-      <c r="F142" t="n">
-        <v>20</v>
-      </c>
-      <c r="G142" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3</v>
-      </c>
-      <c r="J142" t="n">
-        <v>185</v>
-      </c>
-      <c r="K142" t="n">
-        <v>20</v>
-      </c>
-      <c r="L142" t="n">
-        <v>213.7</v>
-      </c>
-      <c r="M142" t="n">
-        <v>214</v>
-      </c>
-      <c r="N142" t="n">
-        <v>212.8</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>214</v>
-      </c>
-      <c r="C143" t="n">
-        <v>214</v>
-      </c>
-      <c r="D143" t="n">
-        <v>214</v>
-      </c>
-      <c r="E143" t="n">
-        <v>214</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1466.0877</v>
-      </c>
-      <c r="G143" t="n">
-        <v>208.4333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>186</v>
-      </c>
-      <c r="K143" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L143" t="n">
-        <v>213.8</v>
-      </c>
-      <c r="M143" t="n">
-        <v>214.05</v>
-      </c>
-      <c r="N143" t="n">
-        <v>213</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -2971,17 +2971,13 @@
         <v>205.5333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>203</v>
-      </c>
-      <c r="K74" t="n">
-        <v>203</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3010,22 +3006,14 @@
         <v>205.4166666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>202</v>
-      </c>
-      <c r="K75" t="n">
-        <v>203</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3053,22 +3041,14 @@
         <v>205.3166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>199</v>
-      </c>
-      <c r="K76" t="n">
-        <v>203</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3096,22 +3076,14 @@
         <v>205.1833333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>199</v>
-      </c>
-      <c r="K77" t="n">
-        <v>203</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3139,22 +3111,14 @@
         <v>205.1166666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>203</v>
-      </c>
-      <c r="K78" t="n">
-        <v>203</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3182,22 +3146,14 @@
         <v>205</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>200</v>
-      </c>
-      <c r="K79" t="n">
-        <v>203</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3233,12 +3189,10 @@
       <c r="J80" t="n">
         <v>200</v>
       </c>
-      <c r="K80" t="n">
-        <v>203</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3274,11 +3228,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>200</v>
-      </c>
-      <c r="K81" t="n">
-        <v>203</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,11 +3269,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>203</v>
-      </c>
-      <c r="K82" t="n">
-        <v>203</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,11 +3310,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>200</v>
-      </c>
-      <c r="K83" t="n">
-        <v>203</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,17 +3345,13 @@
         <v>204.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>199</v>
-      </c>
-      <c r="K84" t="n">
-        <v>203</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3440,17 +3384,13 @@
         <v>204.3666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>203</v>
-      </c>
-      <c r="K85" t="n">
-        <v>203</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,17 +3423,13 @@
         <v>204.2166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>203</v>
-      </c>
-      <c r="K86" t="n">
-        <v>203</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,24 +3462,20 @@
         <v>204.1333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>203</v>
-      </c>
-      <c r="K87" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3569,20 +3501,16 @@
         <v>203.9833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>203</v>
-      </c>
-      <c r="K88" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3612,20 +3540,16 @@
         <v>203.9</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>201</v>
-      </c>
-      <c r="K89" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3655,18 +3579,18 @@
         <v>203.8</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>201</v>
-      </c>
-      <c r="K90" t="n">
-        <v>201</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3694,20 +3618,16 @@
         <v>203.65</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>201</v>
-      </c>
-      <c r="K91" t="n">
-        <v>201</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -3737,20 +3657,16 @@
         <v>203.4833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>201</v>
-      </c>
-      <c r="K92" t="n">
-        <v>201</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3780,18 +3696,18 @@
         <v>203.3166666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>201</v>
-      </c>
-      <c r="K93" t="n">
-        <v>201</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3819,20 +3735,16 @@
         <v>203.25</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>202</v>
-      </c>
-      <c r="K94" t="n">
-        <v>201</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -3862,20 +3774,16 @@
         <v>203.1833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>202</v>
-      </c>
-      <c r="K95" t="n">
-        <v>201</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3905,18 +3813,18 @@
         <v>203.15</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>204</v>
-      </c>
-      <c r="K96" t="n">
-        <v>204</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3944,20 +3852,16 @@
         <v>203.1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>204</v>
-      </c>
-      <c r="K97" t="n">
-        <v>204</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3987,20 +3891,16 @@
         <v>203.05</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>204</v>
-      </c>
-      <c r="K98" t="n">
-        <v>204</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -4030,18 +3930,18 @@
         <v>203.0166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>205</v>
-      </c>
-      <c r="K99" t="n">
-        <v>205</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4069,20 +3969,16 @@
         <v>203</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>205</v>
-      </c>
-      <c r="K100" t="n">
-        <v>205</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4112,20 +4008,16 @@
         <v>202.9833333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>205</v>
-      </c>
-      <c r="K101" t="n">
-        <v>205</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4162,7 +4054,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4197,7 +4093,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4232,7 +4132,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4267,7 +4171,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4302,7 +4210,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4337,7 +4249,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4372,7 +4288,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4407,7 +4327,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +4362,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4473,11 +4401,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4440,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4483,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4582,7 +4522,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4617,7 +4561,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4652,7 +4600,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4687,7 +4639,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4722,7 +4678,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4757,7 +4717,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4788,11 +4752,15 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4823,11 +4791,15 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4862,10 +4834,12 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C2" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D2" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E2" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>388.7981</v>
       </c>
       <c r="G2" t="n">
-        <v>212.8833333333333</v>
+        <v>212.9666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" t="n">
         <v>212</v>
@@ -480,10 +480,10 @@
         <v>212</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>212.8333333333333</v>
+        <v>212.8833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>216</v>
+      </c>
+      <c r="C4" t="n">
         <v>212</v>
       </c>
-      <c r="C4" t="n">
-        <v>210</v>
-      </c>
       <c r="D4" t="n">
+        <v>216</v>
+      </c>
+      <c r="E4" t="n">
         <v>212</v>
       </c>
-      <c r="E4" t="n">
-        <v>210</v>
-      </c>
       <c r="F4" t="n">
-        <v>3174.1389</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7166666666667</v>
+        <v>212.8333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" t="n">
-        <v>703.7910000000001</v>
+        <v>3174.1389</v>
       </c>
       <c r="G5" t="n">
-        <v>212.6333333333333</v>
+        <v>212.7166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>955.2521</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>212.6</v>
+        <v>212.6333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>210</v>
+      </c>
+      <c r="C7" t="n">
+        <v>210</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210</v>
+      </c>
+      <c r="E7" t="n">
         <v>209</v>
       </c>
-      <c r="C7" t="n">
-        <v>207</v>
-      </c>
-      <c r="D7" t="n">
-        <v>209</v>
-      </c>
-      <c r="E7" t="n">
-        <v>207</v>
-      </c>
       <c r="F7" t="n">
-        <v>1563.8437</v>
+        <v>955.2521</v>
       </c>
       <c r="G7" t="n">
-        <v>212.5166666666667</v>
+        <v>212.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C8" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E8" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" t="n">
-        <v>7400.9711</v>
+        <v>1563.8437</v>
       </c>
       <c r="G8" t="n">
-        <v>212.4</v>
+        <v>212.5166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D9" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E9" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F9" t="n">
-        <v>2468.675</v>
+        <v>7400.9711</v>
       </c>
       <c r="G9" t="n">
-        <v>212.3666666666667</v>
+        <v>212.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="n">
-        <v>3613.9235</v>
+        <v>2468.675</v>
       </c>
       <c r="G10" t="n">
-        <v>212.2833333333333</v>
+        <v>212.3666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F11" t="n">
-        <v>18859.0455</v>
+        <v>3613.9235</v>
       </c>
       <c r="G11" t="n">
-        <v>212.1333333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C12" t="n">
         <v>203</v>
       </c>
       <c r="D12" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E12" t="n">
         <v>203</v>
       </c>
       <c r="F12" t="n">
-        <v>479.1129</v>
+        <v>18859.0455</v>
       </c>
       <c r="G12" t="n">
-        <v>211.9166666666667</v>
+        <v>212.1333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" t="n">
-        <v>457.6118</v>
+        <v>479.1129</v>
       </c>
       <c r="G13" t="n">
-        <v>211.75</v>
+        <v>211.9166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" t="n">
-        <v>1.3031</v>
+        <v>457.6118</v>
       </c>
       <c r="G14" t="n">
-        <v>211.7333333333333</v>
+        <v>211.75</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" t="n">
-        <v>494.9174</v>
+        <v>1.3031</v>
       </c>
       <c r="G15" t="n">
-        <v>211.7</v>
+        <v>211.7333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" t="n">
-        <v>2275.1185</v>
+        <v>494.9174</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6166666666667</v>
+        <v>211.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>205</v>
       </c>
       <c r="C17" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D17" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E17" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F17" t="n">
-        <v>10814.01</v>
+        <v>2275.1185</v>
       </c>
       <c r="G17" t="n">
-        <v>211.65</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" t="n">
         <v>207</v>
@@ -1002,13 +1002,13 @@
         <v>207</v>
       </c>
       <c r="E18" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" t="n">
-        <v>7.6915</v>
+        <v>10814.01</v>
       </c>
       <c r="G18" t="n">
-        <v>211.7166666666667</v>
+        <v>211.65</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>207</v>
       </c>
       <c r="E19" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" t="n">
-        <v>120</v>
+        <v>7.6915</v>
       </c>
       <c r="G19" t="n">
-        <v>211.7833333333333</v>
+        <v>211.7166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>207</v>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D20" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E20" t="n">
         <v>207</v>
       </c>
       <c r="F20" t="n">
-        <v>6179.286981990522</v>
+        <v>120</v>
       </c>
       <c r="G20" t="n">
-        <v>211.8666666666667</v>
+        <v>211.7833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>207</v>
       </c>
       <c r="C21" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D21" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E21" t="n">
         <v>207</v>
       </c>
       <c r="F21" t="n">
-        <v>17.3768</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G21" t="n">
-        <v>211.8833333333333</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>207</v>
       </c>
       <c r="F22" t="n">
-        <v>685.521</v>
+        <v>17.3768</v>
       </c>
       <c r="G22" t="n">
-        <v>211.8166666666667</v>
+        <v>211.8833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>207</v>
       </c>
       <c r="F23" t="n">
-        <v>157.1316</v>
+        <v>685.521</v>
       </c>
       <c r="G23" t="n">
-        <v>211.75</v>
+        <v>211.8166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F24" t="n">
-        <v>458.732</v>
+        <v>157.1316</v>
       </c>
       <c r="G24" t="n">
-        <v>211.6666666666667</v>
+        <v>211.75</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D25" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E25" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F25" t="n">
-        <v>1926.51</v>
+        <v>458.732</v>
       </c>
       <c r="G25" t="n">
         <v>211.6666666666667</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" t="n">
-        <v>2204.3207</v>
+        <v>1926.51</v>
       </c>
       <c r="G26" t="n">
-        <v>211.6833333333333</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C27" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D27" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E27" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F27" t="n">
-        <v>366</v>
+        <v>2204.3207</v>
       </c>
       <c r="G27" t="n">
-        <v>211.6333333333333</v>
+        <v>211.6833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,19 +1343,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3047</v>
+        <v>366</v>
       </c>
       <c r="G28" t="n">
         <v>211.6333333333333</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C29" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D29" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E29" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F29" t="n">
-        <v>2868.7612</v>
+        <v>1.3047</v>
       </c>
       <c r="G29" t="n">
-        <v>211.5333333333333</v>
+        <v>211.6333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C30" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" t="n">
-        <v>491.042</v>
+        <v>2868.7612</v>
       </c>
       <c r="G30" t="n">
-        <v>211.5</v>
+        <v>211.5333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F31" t="n">
-        <v>2275.7198</v>
+        <v>491.042</v>
       </c>
       <c r="G31" t="n">
-        <v>211.4666666666667</v>
+        <v>211.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" t="n">
-        <v>968.2791</v>
+        <v>2275.7198</v>
       </c>
       <c r="G32" t="n">
-        <v>211.5166666666667</v>
+        <v>211.4666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>211</v>
       </c>
       <c r="F33" t="n">
-        <v>39.1427</v>
+        <v>968.2791</v>
       </c>
       <c r="G33" t="n">
-        <v>211.6</v>
+        <v>211.5166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C34" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E34" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F34" t="n">
-        <v>7514.1153</v>
+        <v>39.1427</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6166666666667</v>
+        <v>211.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C35" t="n">
         <v>206</v>
       </c>
       <c r="D35" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E35" t="n">
         <v>206</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>7514.1153</v>
       </c>
       <c r="G35" t="n">
         <v>211.6166666666667</v>
@@ -1635,7 +1635,7 @@
         <v>206</v>
       </c>
       <c r="F36" t="n">
-        <v>758.1639</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>211.6166666666667</v>
@@ -1658,19 +1658,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>758.1639</v>
       </c>
       <c r="G37" t="n">
         <v>211.6166666666667</v>
@@ -1705,10 +1705,10 @@
         <v>207</v>
       </c>
       <c r="F38" t="n">
-        <v>1290.8212</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>211.35</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>207</v>
       </c>
       <c r="F39" t="n">
-        <v>3224.2028</v>
+        <v>1290.8212</v>
       </c>
       <c r="G39" t="n">
-        <v>211.1833333333333</v>
+        <v>211.35</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F40" t="n">
-        <v>260.9299</v>
+        <v>3224.2028</v>
       </c>
       <c r="G40" t="n">
-        <v>211</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>206</v>
       </c>
       <c r="F41" t="n">
-        <v>519.5312</v>
+        <v>260.9299</v>
       </c>
       <c r="G41" t="n">
-        <v>210.8</v>
+        <v>211</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>206</v>
       </c>
       <c r="F42" t="n">
-        <v>239.679</v>
+        <v>519.5312</v>
       </c>
       <c r="G42" t="n">
-        <v>210.6833333333333</v>
+        <v>210.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>206</v>
       </c>
       <c r="C43" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43" t="n">
         <v>206</v>
       </c>
       <c r="E43" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F43" t="n">
-        <v>351.6975</v>
+        <v>239.679</v>
       </c>
       <c r="G43" t="n">
-        <v>210.4666666666667</v>
+        <v>210.6833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C44" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D44" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E44" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F44" t="n">
-        <v>2203.0898</v>
+        <v>351.6975</v>
       </c>
       <c r="G44" t="n">
-        <v>210.2</v>
+        <v>210.4666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>204</v>
       </c>
       <c r="F45" t="n">
-        <v>1797.9102</v>
+        <v>2203.0898</v>
       </c>
       <c r="G45" t="n">
-        <v>209.95</v>
+        <v>210.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C46" t="n">
         <v>204</v>
@@ -1982,13 +1982,13 @@
         <v>204</v>
       </c>
       <c r="E46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" t="n">
-        <v>1297.446</v>
+        <v>1797.9102</v>
       </c>
       <c r="G46" t="n">
-        <v>209.6833333333333</v>
+        <v>209.95</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" t="n">
         <v>204</v>
@@ -2017,13 +2017,13 @@
         <v>204</v>
       </c>
       <c r="E47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F47" t="n">
-        <v>11486.5753</v>
+        <v>1297.446</v>
       </c>
       <c r="G47" t="n">
-        <v>209.4333333333333</v>
+        <v>209.6833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D48" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E48" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" t="n">
-        <v>831.7679000000001</v>
+        <v>11486.5753</v>
       </c>
       <c r="G48" t="n">
-        <v>209.3</v>
+        <v>209.4333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" t="n">
         <v>206</v>
@@ -2087,13 +2087,13 @@
         <v>206</v>
       </c>
       <c r="E49" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" t="n">
-        <v>186.0636</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>209.1166666666667</v>
+        <v>209.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>206</v>
       </c>
       <c r="F50" t="n">
-        <v>248.3378</v>
+        <v>186.0636</v>
       </c>
       <c r="G50" t="n">
-        <v>208.9333333333333</v>
+        <v>209.1166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>206</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>248.3378</v>
       </c>
       <c r="G51" t="n">
-        <v>208.75</v>
+        <v>208.9333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" t="n">
-        <v>1.235</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>208.6666666666667</v>
+        <v>208.75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>207</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D53" t="n">
         <v>207</v>
       </c>
       <c r="E53" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>1.235</v>
       </c>
       <c r="G53" t="n">
-        <v>208.55</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C54" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D54" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E54" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" t="n">
-        <v>641.3925</v>
+        <v>14</v>
       </c>
       <c r="G54" t="n">
-        <v>208.3833333333333</v>
+        <v>208.55</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C55" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D55" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" t="n">
-        <v>1.148</v>
+        <v>641.3925</v>
       </c>
       <c r="G55" t="n">
-        <v>208.1666666666667</v>
+        <v>208.3833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C56" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D56" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E56" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F56" t="n">
-        <v>3214.3736</v>
+        <v>1.148</v>
       </c>
       <c r="G56" t="n">
-        <v>207.9</v>
+        <v>208.1666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C57" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E57" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F57" t="n">
-        <v>4015.8168</v>
+        <v>3214.3736</v>
       </c>
       <c r="G57" t="n">
-        <v>207.6166666666667</v>
+        <v>207.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>202</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D58" t="n">
         <v>202</v>
       </c>
       <c r="E58" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F58" t="n">
-        <v>18445.4693</v>
+        <v>4015.8168</v>
       </c>
       <c r="G58" t="n">
-        <v>207.3666666666667</v>
+        <v>207.6166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D59" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0487</v>
+        <v>18445.4693</v>
       </c>
       <c r="G59" t="n">
-        <v>207.1</v>
+        <v>207.3666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C60" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D60" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E60" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F60" t="n">
-        <v>435.2966</v>
+        <v>1.0487</v>
       </c>
       <c r="G60" t="n">
-        <v>206.7833333333333</v>
+        <v>207.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61" t="n">
         <v>200</v>
       </c>
       <c r="E61" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F61" t="n">
-        <v>677.866</v>
+        <v>435.2966</v>
       </c>
       <c r="G61" t="n">
-        <v>206.4833333333333</v>
+        <v>206.7833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D62" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" t="n">
-        <v>2126</v>
+        <v>677.866</v>
       </c>
       <c r="G62" t="n">
-        <v>206.3833333333333</v>
+        <v>206.4833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C63" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D63" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E63" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F63" t="n">
-        <v>127</v>
+        <v>2126</v>
       </c>
       <c r="G63" t="n">
-        <v>206.2666666666667</v>
+        <v>206.3833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>205</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G64" t="n">
-        <v>206.1833333333333</v>
+        <v>206.2666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>205</v>
       </c>
       <c r="C65" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D65" t="n">
         <v>205</v>
       </c>
       <c r="E65" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F65" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>206.0333333333333</v>
+        <v>206.1833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C66" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D66" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E66" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G66" t="n">
-        <v>205.9666666666667</v>
+        <v>206.0333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C67" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D67" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E67" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F67" t="n">
-        <v>2042</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>205.8833333333333</v>
+        <v>205.9666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C68" t="n">
         <v>202</v>
       </c>
       <c r="D68" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E68" t="n">
         <v>202</v>
       </c>
       <c r="F68" t="n">
-        <v>388.7981</v>
+        <v>2042</v>
       </c>
       <c r="G68" t="n">
-        <v>205.8166666666667</v>
+        <v>205.8833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F69" t="n">
-        <v>25.9935</v>
+        <v>388.7981</v>
       </c>
       <c r="G69" t="n">
-        <v>205.7166666666667</v>
+        <v>205.8166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>203</v>
       </c>
       <c r="F70" t="n">
-        <v>154.2534</v>
+        <v>25.9935</v>
       </c>
       <c r="G70" t="n">
-        <v>205.6666666666667</v>
+        <v>205.7166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F71" t="n">
-        <v>1990.3823</v>
+        <v>154.2534</v>
       </c>
       <c r="G71" t="n">
-        <v>205.65</v>
+        <v>205.6666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>202</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>1990.3823</v>
       </c>
       <c r="G72" t="n">
-        <v>205.6333333333333</v>
+        <v>205.65</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>202</v>
       </c>
       <c r="F73" t="n">
-        <v>612.9063</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>205.6</v>
+        <v>205.6333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0628</v>
+        <v>612.9063</v>
       </c>
       <c r="G74" t="n">
-        <v>205.5333333333333</v>
+        <v>205.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C75" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D75" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F75" t="n">
-        <v>3409.6398</v>
+        <v>1.0628</v>
       </c>
       <c r="G75" t="n">
-        <v>205.4166666666667</v>
+        <v>205.5333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C76" t="n">
         <v>199</v>
       </c>
       <c r="D76" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E76" t="n">
         <v>199</v>
       </c>
       <c r="F76" t="n">
-        <v>264.9141</v>
+        <v>3409.6398</v>
       </c>
       <c r="G76" t="n">
-        <v>205.3166666666667</v>
+        <v>205.4166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>199</v>
       </c>
       <c r="F77" t="n">
-        <v>4.5642</v>
+        <v>264.9141</v>
       </c>
       <c r="G77" t="n">
-        <v>205.1833333333333</v>
+        <v>205.3166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F78" t="n">
-        <v>1.7167</v>
+        <v>4.5642</v>
       </c>
       <c r="G78" t="n">
-        <v>205.1166666666667</v>
+        <v>205.1833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F79" t="n">
-        <v>158.7047</v>
+        <v>1.7167</v>
       </c>
       <c r="G79" t="n">
-        <v>205</v>
+        <v>205.1166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,197 +3166,181 @@
         <v>200</v>
       </c>
       <c r="C80" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D80" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E80" t="n">
         <v>200</v>
       </c>
       <c r="F80" t="n">
+        <v>158.7047</v>
+      </c>
+      <c r="G80" t="n">
+        <v>205</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>200</v>
+      </c>
+      <c r="C81" t="n">
+        <v>203</v>
+      </c>
+      <c r="D81" t="n">
+        <v>203</v>
+      </c>
+      <c r="E81" t="n">
+        <v>200</v>
+      </c>
+      <c r="F81" t="n">
         <v>21.6361</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G81" t="n">
         <v>204.8666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>200</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>200</v>
+      </c>
+      <c r="C82" t="n">
+        <v>200</v>
+      </c>
+      <c r="D82" t="n">
+        <v>200</v>
+      </c>
+      <c r="E82" t="n">
+        <v>200</v>
+      </c>
+      <c r="F82" t="n">
+        <v>356.8301</v>
+      </c>
+      <c r="G82" t="n">
+        <v>204.75</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>203</v>
+      </c>
+      <c r="C83" t="n">
+        <v>203</v>
+      </c>
+      <c r="D83" t="n">
+        <v>203</v>
+      </c>
+      <c r="E83" t="n">
+        <v>203</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.8334</v>
+      </c>
+      <c r="G83" t="n">
+        <v>204.6833333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>200</v>
+      </c>
+      <c r="K83" t="n">
+        <v>200</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>200</v>
+      </c>
+      <c r="C84" t="n">
+        <v>203</v>
+      </c>
+      <c r="D84" t="n">
+        <v>203</v>
+      </c>
+      <c r="E84" t="n">
+        <v>199</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6492.7262</v>
+      </c>
+      <c r="G84" t="n">
+        <v>204.6166666666667</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>203</v>
+      </c>
+      <c r="K84" t="n">
+        <v>200</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>200</v>
-      </c>
-      <c r="C81" t="n">
-        <v>200</v>
-      </c>
-      <c r="D81" t="n">
-        <v>200</v>
-      </c>
-      <c r="E81" t="n">
-        <v>200</v>
-      </c>
-      <c r="F81" t="n">
-        <v>356.8301</v>
-      </c>
-      <c r="G81" t="n">
-        <v>204.75</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>203</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>203</v>
-      </c>
-      <c r="C82" t="n">
-        <v>203</v>
-      </c>
-      <c r="D82" t="n">
-        <v>203</v>
-      </c>
-      <c r="E82" t="n">
-        <v>203</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1.8334</v>
-      </c>
-      <c r="G82" t="n">
-        <v>204.6833333333333</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>200</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>200</v>
-      </c>
-      <c r="C83" t="n">
-        <v>203</v>
-      </c>
-      <c r="D83" t="n">
-        <v>203</v>
-      </c>
-      <c r="E83" t="n">
-        <v>199</v>
-      </c>
-      <c r="F83" t="n">
-        <v>6492.7262</v>
-      </c>
-      <c r="G83" t="n">
-        <v>204.6166666666667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>203</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>199</v>
-      </c>
-      <c r="C84" t="n">
-        <v>199</v>
-      </c>
-      <c r="D84" t="n">
-        <v>199</v>
-      </c>
-      <c r="E84" t="n">
-        <v>199</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.0848</v>
-      </c>
-      <c r="G84" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3366,31 +3350,35 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F85" t="n">
-        <v>1.4852</v>
+        <v>2.0848</v>
       </c>
       <c r="G85" t="n">
-        <v>204.3666666666667</v>
+        <v>204.5</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>203</v>
+      </c>
+      <c r="K85" t="n">
+        <v>200</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3417,19 +3405,23 @@
         <v>203</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>1.4852</v>
       </c>
       <c r="G86" t="n">
-        <v>204.2166666666667</v>
+        <v>204.3666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>199</v>
+      </c>
+      <c r="K86" t="n">
+        <v>200</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3456,10 +3448,10 @@
         <v>203</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>204.1333333333333</v>
+        <v>204.2166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3468,7 +3460,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>200</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>203.9833333333333</v>
+        <v>204.1333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3507,7 +3501,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>200</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3522,22 +3518,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F89" t="n">
         <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>203.9</v>
+        <v>203.9833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3546,7 +3542,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>200</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3573,10 +3571,10 @@
         <v>201</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>203.8</v>
+        <v>203.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3585,7 +3583,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>200</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,10 +3612,10 @@
         <v>201</v>
       </c>
       <c r="F91" t="n">
-        <v>4.3034</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>203.65</v>
+        <v>203.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3624,7 +3624,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>200</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3651,10 +3653,10 @@
         <v>201</v>
       </c>
       <c r="F92" t="n">
-        <v>796</v>
+        <v>4.3034</v>
       </c>
       <c r="G92" t="n">
-        <v>203.4833333333333</v>
+        <v>203.65</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3663,7 +3665,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>200</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3690,10 +3694,10 @@
         <v>201</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9083</v>
+        <v>796</v>
       </c>
       <c r="G93" t="n">
-        <v>203.3166666666667</v>
+        <v>203.4833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3702,7 +3706,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>200</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,22 +3723,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F94" t="n">
-        <v>1.343</v>
+        <v>0.9083</v>
       </c>
       <c r="G94" t="n">
-        <v>203.25</v>
+        <v>203.3166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3741,7 +3747,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>200</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3768,10 +3776,10 @@
         <v>202</v>
       </c>
       <c r="F95" t="n">
-        <v>1494.907</v>
+        <v>1.343</v>
       </c>
       <c r="G95" t="n">
-        <v>203.1833333333333</v>
+        <v>203.25</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3780,7 +3788,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>200</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,22 +3805,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0264</v>
+        <v>1494.907</v>
       </c>
       <c r="G96" t="n">
-        <v>203.15</v>
+        <v>203.1833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3819,7 +3829,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>200</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3846,10 +3858,10 @@
         <v>204</v>
       </c>
       <c r="F97" t="n">
-        <v>1.098</v>
+        <v>1.0264</v>
       </c>
       <c r="G97" t="n">
-        <v>203.1</v>
+        <v>203.15</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3858,7 +3870,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>200</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3885,10 +3899,10 @@
         <v>204</v>
       </c>
       <c r="F98" t="n">
-        <v>2140.3857</v>
+        <v>1.098</v>
       </c>
       <c r="G98" t="n">
-        <v>203.05</v>
+        <v>203.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3897,7 +3911,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>200</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,22 +3928,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F99" t="n">
-        <v>1.5585</v>
+        <v>2140.3857</v>
       </c>
       <c r="G99" t="n">
-        <v>203.0166666666667</v>
+        <v>203.05</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3936,7 +3952,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>200</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,10 +3981,10 @@
         <v>205</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>1.5585</v>
       </c>
       <c r="G100" t="n">
-        <v>203</v>
+        <v>203.0166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3975,7 +3993,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>200</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4002,10 +4022,10 @@
         <v>205</v>
       </c>
       <c r="F101" t="n">
-        <v>8.824299999999999</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>202.9833333333333</v>
+        <v>203</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4014,7 +4034,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>200</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4041,10 +4063,10 @@
         <v>205</v>
       </c>
       <c r="F102" t="n">
-        <v>48.7804</v>
+        <v>8.824299999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>202.9666666666667</v>
+        <v>202.9833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4053,7 +4075,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>200</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,7 +4104,7 @@
         <v>205</v>
       </c>
       <c r="F103" t="n">
-        <v>319.1257</v>
+        <v>48.7804</v>
       </c>
       <c r="G103" t="n">
         <v>202.9666666666667</v>
@@ -4092,7 +4116,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>200</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,19 +4136,19 @@
         <v>205</v>
       </c>
       <c r="C104" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D104" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E104" t="n">
         <v>205</v>
       </c>
       <c r="F104" t="n">
-        <v>3269.8424352657</v>
+        <v>319.1257</v>
       </c>
       <c r="G104" t="n">
-        <v>203.0166666666667</v>
+        <v>202.9666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4131,7 +4157,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>200</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,22 +4174,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C105" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D105" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E105" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F105" t="n">
-        <v>15.1919</v>
+        <v>3269.8424352657</v>
       </c>
       <c r="G105" t="n">
-        <v>202.9833333333333</v>
+        <v>203.0166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4170,7 +4198,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>200</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,22 +4215,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="n">
-        <v>49.5049</v>
+        <v>15.1919</v>
       </c>
       <c r="G106" t="n">
-        <v>203.0333333333333</v>
+        <v>202.9833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4209,7 +4239,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>200</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4224,22 +4256,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F107" t="n">
-        <v>48.3091</v>
+        <v>49.5049</v>
       </c>
       <c r="G107" t="n">
-        <v>203.0666666666667</v>
+        <v>203.0333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4248,7 +4280,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>200</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,7 +4309,7 @@
         <v>206</v>
       </c>
       <c r="F108" t="n">
-        <v>2.1</v>
+        <v>48.3091</v>
       </c>
       <c r="G108" t="n">
         <v>203.0666666666667</v>
@@ -4287,7 +4321,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>200</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,7 +4350,7 @@
         <v>206</v>
       </c>
       <c r="F109" t="n">
-        <v>22.0339</v>
+        <v>2.1</v>
       </c>
       <c r="G109" t="n">
         <v>203.0666666666667</v>
@@ -4326,7 +4362,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>200</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,22 +4379,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F110" t="n">
-        <v>1.9414</v>
+        <v>22.0339</v>
       </c>
       <c r="G110" t="n">
-        <v>203.05</v>
+        <v>203.0666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4365,7 +4403,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>200</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,19 +4420,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F111" t="n">
-        <v>3.0992</v>
+        <v>1.9414</v>
       </c>
       <c r="G111" t="n">
         <v>203.05</v>
@@ -4404,7 +4444,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>200</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,10 +4473,10 @@
         <v>206</v>
       </c>
       <c r="F112" t="n">
-        <v>2130.7165</v>
+        <v>3.0992</v>
       </c>
       <c r="G112" t="n">
-        <v>203.0333333333333</v>
+        <v>203.05</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4443,7 +4485,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>200</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,22 +4502,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C113" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D113" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E113" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F113" t="n">
-        <v>8352.2186</v>
+        <v>2130.7165</v>
       </c>
       <c r="G113" t="n">
-        <v>203.0833333333333</v>
+        <v>203.0333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4482,7 +4526,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>200</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,22 +4543,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C114" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D114" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E114" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" t="n">
-        <v>4010</v>
+        <v>8352.2186</v>
       </c>
       <c r="G114" t="n">
-        <v>203.1666666666667</v>
+        <v>203.0833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4521,7 +4567,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>200</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,22 +4584,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F115" t="n">
-        <v>21</v>
+        <v>4010</v>
       </c>
       <c r="G115" t="n">
-        <v>203.2333333333333</v>
+        <v>203.1666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4560,7 +4608,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>200</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4587,10 +4637,10 @@
         <v>210</v>
       </c>
       <c r="F116" t="n">
-        <v>4010</v>
+        <v>21</v>
       </c>
       <c r="G116" t="n">
-        <v>203.35</v>
+        <v>203.2333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4599,7 +4649,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>200</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,10 +4678,10 @@
         <v>210</v>
       </c>
       <c r="F117" t="n">
-        <v>4716.9811</v>
+        <v>4010</v>
       </c>
       <c r="G117" t="n">
-        <v>203.4833333333333</v>
+        <v>203.35</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4638,7 +4690,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>200</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,10 +4719,10 @@
         <v>210</v>
       </c>
       <c r="F118" t="n">
-        <v>2856.2295</v>
+        <v>4716.9811</v>
       </c>
       <c r="G118" t="n">
-        <v>203.65</v>
+        <v>203.4833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4677,7 +4731,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>200</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,35 +4751,37 @@
         <v>210</v>
       </c>
       <c r="C119" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D119" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E119" t="n">
         <v>210</v>
       </c>
       <c r="F119" t="n">
-        <v>1031.9152</v>
+        <v>2856.2295</v>
       </c>
       <c r="G119" t="n">
-        <v>203.7833333333333</v>
+        <v>203.65</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>200</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>1.045</v>
       </c>
     </row>
     <row r="120">
@@ -4731,36 +4789,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C120" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D120" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E120" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F120" t="n">
-        <v>318.2399</v>
+        <v>1031.9152</v>
       </c>
       <c r="G120" t="n">
-        <v>204</v>
+        <v>203.7833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4782,24 +4836,20 @@
         <v>212</v>
       </c>
       <c r="F121" t="n">
-        <v>9124.5383</v>
+        <v>318.2399</v>
       </c>
       <c r="G121" t="n">
-        <v>204.2</v>
+        <v>204</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4821,10 +4871,10 @@
         <v>212</v>
       </c>
       <c r="F122" t="n">
-        <v>3681.6715</v>
+        <v>9124.5383</v>
       </c>
       <c r="G122" t="n">
-        <v>204.3</v>
+        <v>204.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4834,12 +4884,45 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>212</v>
+      </c>
+      <c r="C123" t="n">
+        <v>212</v>
+      </c>
+      <c r="D123" t="n">
+        <v>212</v>
+      </c>
+      <c r="E123" t="n">
+        <v>212</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3681.6715</v>
+      </c>
+      <c r="G123" t="n">
+        <v>204.3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>388.7981</v>
       </c>
       <c r="G2" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="H2" t="n">
         <v>212.9666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>212.8833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
+        <v>216</v>
+      </c>
+      <c r="H4" t="n">
         <v>212.8333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3174.1389</v>
       </c>
       <c r="G5" t="n">
+        <v>215.5333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>212.7166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>703.7910000000001</v>
       </c>
       <c r="G6" t="n">
+        <v>215.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>212.6333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>955.2521</v>
       </c>
       <c r="G7" t="n">
+        <v>214.6666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>212.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1563.8437</v>
       </c>
       <c r="G8" t="n">
+        <v>214.3333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>212.5166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>7400.9711</v>
       </c>
       <c r="G9" t="n">
+        <v>213.9333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>212.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2468.675</v>
       </c>
       <c r="G10" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>212.3666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>3613.9235</v>
       </c>
       <c r="G11" t="n">
+        <v>212.7333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>212.2833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>18859.0455</v>
       </c>
       <c r="G12" t="n">
+        <v>211.6666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>212.1333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>479.1129</v>
       </c>
       <c r="G13" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>211.9166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>457.6118</v>
       </c>
       <c r="G14" t="n">
+        <v>209.8666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>211.75</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1.3031</v>
       </c>
       <c r="G15" t="n">
+        <v>209.0666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>211.7333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>494.9174</v>
       </c>
       <c r="G16" t="n">
+        <v>208.2666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>211.7</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2275.1185</v>
       </c>
       <c r="G17" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10814.01</v>
       </c>
       <c r="G18" t="n">
+        <v>207.0666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>211.65</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>7.6915</v>
       </c>
       <c r="G19" t="n">
+        <v>206.7333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>211.7166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>120</v>
       </c>
       <c r="G20" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>211.7833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>6179.286981990522</v>
       </c>
       <c r="G21" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>211.8666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>17.3768</v>
       </c>
       <c r="G22" t="n">
+        <v>206.3333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>211.8833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>685.521</v>
       </c>
       <c r="G23" t="n">
+        <v>206.3333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>211.8166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>157.1316</v>
       </c>
       <c r="G24" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>211.75</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>458.732</v>
       </c>
       <c r="G25" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>211.6666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1926.51</v>
       </c>
       <c r="G26" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>211.6666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2204.3207</v>
       </c>
       <c r="G27" t="n">
+        <v>207.1333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>211.6833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>366</v>
       </c>
       <c r="G28" t="n">
+        <v>207.4666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>211.6333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1.3047</v>
       </c>
       <c r="G29" t="n">
+        <v>208</v>
+      </c>
+      <c r="H29" t="n">
         <v>211.6333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2868.7612</v>
       </c>
       <c r="G30" t="n">
+        <v>207.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>211.5333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>491.042</v>
       </c>
       <c r="G31" t="n">
+        <v>208</v>
+      </c>
+      <c r="H31" t="n">
         <v>211.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2275.7198</v>
       </c>
       <c r="G32" t="n">
+        <v>208.3333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>211.4666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>968.2791</v>
       </c>
       <c r="G33" t="n">
+        <v>208.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>211.5166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>39.1427</v>
       </c>
       <c r="G34" t="n">
+        <v>208.8666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>211.6</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>7514.1153</v>
       </c>
       <c r="G35" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>208.4666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>758.1639</v>
       </c>
       <c r="G37" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="H37" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1290.8212</v>
       </c>
       <c r="G39" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="H39" t="n">
         <v>211.35</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3224.2028</v>
       </c>
       <c r="G40" t="n">
+        <v>208.4666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>211.1833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>260.9299</v>
       </c>
       <c r="G41" t="n">
+        <v>208.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>211</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>519.5312</v>
       </c>
       <c r="G42" t="n">
+        <v>207.7333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>210.8</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>239.679</v>
       </c>
       <c r="G43" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="H43" t="n">
         <v>210.6833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>351.6975</v>
       </c>
       <c r="G44" t="n">
+        <v>207.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>210.4666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2203.0898</v>
       </c>
       <c r="G45" t="n">
+        <v>207</v>
+      </c>
+      <c r="H45" t="n">
         <v>210.2</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1797.9102</v>
       </c>
       <c r="G46" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="H46" t="n">
         <v>209.95</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1297.446</v>
       </c>
       <c r="G47" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="H47" t="n">
         <v>209.6833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>11486.5753</v>
       </c>
       <c r="G48" t="n">
+        <v>205.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>209.4333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>831.7679000000001</v>
       </c>
       <c r="G49" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H49" t="n">
         <v>209.3</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>186.0636</v>
       </c>
       <c r="G50" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H50" t="n">
         <v>209.1166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>248.3378</v>
       </c>
       <c r="G51" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>208.9333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H52" t="n">
         <v>208.75</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1.235</v>
       </c>
       <c r="G53" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H53" t="n">
         <v>208.6666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>14</v>
       </c>
       <c r="G54" t="n">
+        <v>205.4666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>208.55</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>641.3925</v>
       </c>
       <c r="G55" t="n">
+        <v>205.2666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>208.3833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1.148</v>
       </c>
       <c r="G56" t="n">
+        <v>205.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>208.1666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3214.3736</v>
       </c>
       <c r="G57" t="n">
+        <v>205.0666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>207.9</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>4015.8168</v>
       </c>
       <c r="G58" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="H58" t="n">
         <v>207.6166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>18445.4693</v>
       </c>
       <c r="G59" t="n">
+        <v>204.4666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>207.3666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1.0487</v>
       </c>
       <c r="G60" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="H60" t="n">
         <v>207.1</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>435.2966</v>
       </c>
       <c r="G61" t="n">
+        <v>204.0666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>206.7833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>677.866</v>
       </c>
       <c r="G62" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>206.4833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2126</v>
       </c>
       <c r="G63" t="n">
+        <v>203.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>206.3833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>127</v>
       </c>
       <c r="G64" t="n">
+        <v>203.8666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>206.2666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>100</v>
       </c>
       <c r="G65" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="H65" t="n">
         <v>206.1833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>114</v>
       </c>
       <c r="G66" t="n">
+        <v>203.5333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>206.0333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>17</v>
       </c>
       <c r="G67" t="n">
+        <v>203.5333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>205.9666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2042</v>
       </c>
       <c r="G68" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="H68" t="n">
         <v>205.8833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>388.7981</v>
       </c>
       <c r="G69" t="n">
+        <v>203</v>
+      </c>
+      <c r="H69" t="n">
         <v>205.8166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>25.9935</v>
       </c>
       <c r="G70" t="n">
+        <v>202.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>205.7166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>154.2534</v>
       </c>
       <c r="G71" t="n">
+        <v>202.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>205.6666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1990.3823</v>
       </c>
       <c r="G72" t="n">
+        <v>202.6666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>205.65</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>5</v>
       </c>
       <c r="G73" t="n">
+        <v>202.6666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>205.6333333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>612.9063</v>
       </c>
       <c r="G74" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>205.6</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1.0628</v>
       </c>
       <c r="G75" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>205.5333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>3409.6398</v>
       </c>
       <c r="G76" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="H76" t="n">
         <v>205.4166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>264.9141</v>
       </c>
       <c r="G77" t="n">
+        <v>202.7333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>205.3166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>4.5642</v>
       </c>
       <c r="G78" t="n">
+        <v>202.2666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>205.1833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1.7167</v>
       </c>
       <c r="G79" t="n">
+        <v>202.1333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>205.1166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>158.7047</v>
       </c>
       <c r="G80" t="n">
-        <v>205</v>
+        <v>201.8</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,27 @@
         <v>21.6361</v>
       </c>
       <c r="G81" t="n">
+        <v>201.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>204.8666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>200</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3499,25 @@
         <v>356.8301</v>
       </c>
       <c r="G82" t="n">
+        <v>201.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>204.75</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,22 +3541,27 @@
         <v>1.8334</v>
       </c>
       <c r="G83" t="n">
+        <v>201.5333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>204.6833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>200</v>
       </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,26 +3585,27 @@
         <v>6492.7262</v>
       </c>
       <c r="G84" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>204.6166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>200</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>203</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,26 +3629,25 @@
         <v>2.0848</v>
       </c>
       <c r="G85" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>204.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>203</v>
-      </c>
-      <c r="K85" t="n">
-        <v>200</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,26 +3671,27 @@
         <v>1.4852</v>
       </c>
       <c r="G86" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>204.3666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
         <v>199</v>
       </c>
-      <c r="K86" t="n">
-        <v>200</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3451,24 +3715,27 @@
         <v>20</v>
       </c>
       <c r="G87" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>204.2166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
-        <v>200</v>
-      </c>
-      <c r="L87" t="inlineStr">
+        <v>203</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,24 +3759,27 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
+        <v>201.4666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>204.1333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="n">
-        <v>200</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>203</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,24 +3803,27 @@
         <v>6</v>
       </c>
       <c r="G89" t="n">
+        <v>201.5333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>203.9833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
-        <v>200</v>
-      </c>
-      <c r="L89" t="inlineStr">
+        <v>203</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,24 +3847,27 @@
         <v>6</v>
       </c>
       <c r="G90" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="H90" t="n">
         <v>203.9</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="n">
-        <v>200</v>
-      </c>
-      <c r="L90" t="inlineStr">
+        <v>203</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,24 +3891,27 @@
         <v>5</v>
       </c>
       <c r="G91" t="n">
+        <v>201.5333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>203.8</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
-        <v>200</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>201</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,24 +3935,27 @@
         <v>4.3034</v>
       </c>
       <c r="G92" t="n">
+        <v>201.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>203.65</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
-        <v>200</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>201</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,24 +3979,27 @@
         <v>796</v>
       </c>
       <c r="G93" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="H93" t="n">
         <v>203.4833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
-        <v>200</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>201</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,24 +4023,27 @@
         <v>0.9083</v>
       </c>
       <c r="G94" t="n">
+        <v>201.6666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>203.3166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
-        <v>200</v>
-      </c>
-      <c r="L94" t="inlineStr">
+        <v>201</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,24 +4067,27 @@
         <v>1.343</v>
       </c>
       <c r="G95" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="H95" t="n">
         <v>203.25</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="n">
-        <v>200</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>201</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,24 +4111,27 @@
         <v>1494.907</v>
       </c>
       <c r="G96" t="n">
+        <v>201.7333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>203.1833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="n">
-        <v>200</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,24 +4155,27 @@
         <v>1.0264</v>
       </c>
       <c r="G97" t="n">
+        <v>202</v>
+      </c>
+      <c r="H97" t="n">
         <v>203.15</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
-        <v>200</v>
-      </c>
-      <c r="L97" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,24 +4199,27 @@
         <v>1.098</v>
       </c>
       <c r="G98" t="n">
+        <v>202.0666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>203.1</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="n">
-        <v>200</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3943,24 +4243,27 @@
         <v>2140.3857</v>
       </c>
       <c r="G99" t="n">
+        <v>202.1333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>203.05</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>200</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,24 +4287,27 @@
         <v>1.5585</v>
       </c>
       <c r="G100" t="n">
+        <v>202.5333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>203.0166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>200</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,24 +4331,27 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>203</v>
+        <v>202.6666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="n">
-        <v>200</v>
-      </c>
-      <c r="L101" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,24 +4375,27 @@
         <v>8.824299999999999</v>
       </c>
       <c r="G102" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="H102" t="n">
         <v>202.9833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="n">
-        <v>200</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,24 +4419,27 @@
         <v>48.7804</v>
       </c>
       <c r="G103" t="n">
+        <v>202.9333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>202.9666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
-        <v>200</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,24 +4463,27 @@
         <v>319.1257</v>
       </c>
       <c r="G104" t="n">
+        <v>203.0666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>202.9666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
-        <v>200</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4189,24 +4507,27 @@
         <v>3269.8424352657</v>
       </c>
       <c r="G105" t="n">
+        <v>203.4666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>203.0166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
-        <v>200</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,24 +4551,27 @@
         <v>15.1919</v>
       </c>
       <c r="G106" t="n">
+        <v>203.5333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>202.9833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>200</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>207</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,24 +4595,27 @@
         <v>49.5049</v>
       </c>
       <c r="G107" t="n">
+        <v>203.9333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>203.0333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>200</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,24 +4639,27 @@
         <v>48.3091</v>
       </c>
       <c r="G108" t="n">
+        <v>204.2666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>203.0666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
-        <v>200</v>
-      </c>
-      <c r="L108" t="inlineStr">
+        <v>207</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,24 +4683,25 @@
         <v>2.1</v>
       </c>
       <c r="G109" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="H109" t="n">
         <v>203.0666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>200</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,24 +4725,25 @@
         <v>22.0339</v>
       </c>
       <c r="G110" t="n">
+        <v>204.8666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>203.0666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>200</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,24 +4767,25 @@
         <v>1.9414</v>
       </c>
       <c r="G111" t="n">
+        <v>205.0666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>203.05</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>200</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,24 +4809,25 @@
         <v>3.0992</v>
       </c>
       <c r="G112" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="H112" t="n">
         <v>203.05</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>200</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,24 +4851,25 @@
         <v>2130.7165</v>
       </c>
       <c r="G113" t="n">
+        <v>205.3333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>203.0333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>200</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,24 +4893,25 @@
         <v>8352.2186</v>
       </c>
       <c r="G114" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>203.0833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>200</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4599,24 +4935,25 @@
         <v>4010</v>
       </c>
       <c r="G115" t="n">
+        <v>205.8666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>203.1666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>200</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,24 +4977,25 @@
         <v>21</v>
       </c>
       <c r="G116" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="H116" t="n">
         <v>203.2333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>200</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,24 +5019,25 @@
         <v>4010</v>
       </c>
       <c r="G117" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>203.35</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>200</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,24 +5061,25 @@
         <v>4716.9811</v>
       </c>
       <c r="G118" t="n">
+        <v>206.8666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>203.4833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>200</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,25 +5103,26 @@
         <v>2856.2295</v>
       </c>
       <c r="G119" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="H119" t="n">
         <v>203.65</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>200</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1.045</v>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4804,18 +5145,25 @@
         <v>1031.9152</v>
       </c>
       <c r="G120" t="n">
+        <v>207.4666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>203.7833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5187,25 @@
         <v>318.2399</v>
       </c>
       <c r="G121" t="n">
+        <v>208.1333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>204</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5229,25 @@
         <v>9124.5383</v>
       </c>
       <c r="G122" t="n">
+        <v>208.4666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>204.2</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5271,445 @@
         <v>3681.6715</v>
       </c>
       <c r="G123" t="n">
+        <v>208.8666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>204.3</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>213</v>
+      </c>
+      <c r="C124" t="n">
+        <v>213</v>
+      </c>
+      <c r="D124" t="n">
+        <v>213</v>
+      </c>
+      <c r="E124" t="n">
+        <v>213</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" t="n">
+        <v>209.3333333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>204.4333333333333</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>214</v>
+      </c>
+      <c r="C125" t="n">
+        <v>214</v>
+      </c>
+      <c r="D125" t="n">
+        <v>214</v>
+      </c>
+      <c r="E125" t="n">
+        <v>214</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1518.4957</v>
+      </c>
+      <c r="G125" t="n">
+        <v>209.8666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>204.5833333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>214</v>
+      </c>
+      <c r="C126" t="n">
+        <v>214</v>
+      </c>
+      <c r="D126" t="n">
+        <v>214</v>
+      </c>
+      <c r="E126" t="n">
+        <v>214</v>
+      </c>
+      <c r="F126" t="n">
+        <v>900.5802</v>
+      </c>
+      <c r="G126" t="n">
+        <v>210.4666666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>204.7833333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>215</v>
+      </c>
+      <c r="C127" t="n">
+        <v>216</v>
+      </c>
+      <c r="D127" t="n">
+        <v>216</v>
+      </c>
+      <c r="E127" t="n">
+        <v>215</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5857.5168</v>
+      </c>
+      <c r="G127" t="n">
+        <v>211.1333333333333</v>
+      </c>
+      <c r="H127" t="n">
+        <v>204.95</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>217</v>
+      </c>
+      <c r="C128" t="n">
+        <v>215</v>
+      </c>
+      <c r="D128" t="n">
+        <v>217</v>
+      </c>
+      <c r="E128" t="n">
+        <v>215</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3502.8982</v>
+      </c>
+      <c r="G128" t="n">
+        <v>211.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>205.1666666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>215</v>
+      </c>
+      <c r="C129" t="n">
+        <v>215</v>
+      </c>
+      <c r="D129" t="n">
+        <v>215</v>
+      </c>
+      <c r="E129" t="n">
+        <v>215</v>
+      </c>
+      <c r="F129" t="n">
+        <v>851.9963</v>
+      </c>
+      <c r="G129" t="n">
+        <v>212.2</v>
+      </c>
+      <c r="H129" t="n">
+        <v>205.3833333333333</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>215</v>
+      </c>
+      <c r="C130" t="n">
+        <v>215</v>
+      </c>
+      <c r="D130" t="n">
+        <v>215</v>
+      </c>
+      <c r="E130" t="n">
+        <v>215</v>
+      </c>
+      <c r="F130" t="n">
+        <v>32.2255</v>
+      </c>
+      <c r="G130" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>205.5833333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>214</v>
+      </c>
+      <c r="C131" t="n">
+        <v>214</v>
+      </c>
+      <c r="D131" t="n">
+        <v>214</v>
+      </c>
+      <c r="E131" t="n">
+        <v>214</v>
+      </c>
+      <c r="F131" t="n">
+        <v>64.813</v>
+      </c>
+      <c r="G131" t="n">
+        <v>212.8666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>205.7666666666667</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>213</v>
+      </c>
+      <c r="C132" t="n">
+        <v>213</v>
+      </c>
+      <c r="D132" t="n">
+        <v>213</v>
+      </c>
+      <c r="E132" t="n">
+        <v>213</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2211.2715</v>
+      </c>
+      <c r="G132" t="n">
+        <v>213.0666666666667</v>
+      </c>
+      <c r="H132" t="n">
+        <v>205.95</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>214</v>
+      </c>
+      <c r="C133" t="n">
+        <v>214</v>
+      </c>
+      <c r="D133" t="n">
+        <v>214</v>
+      </c>
+      <c r="E133" t="n">
+        <v>214</v>
+      </c>
+      <c r="F133" t="n">
+        <v>583.4672</v>
+      </c>
+      <c r="G133" t="n">
+        <v>213.3333333333333</v>
+      </c>
+      <c r="H133" t="n">
+        <v>206.15</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C2" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D2" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F2" t="n">
-        <v>388.7981</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>216.6</v>
+        <v>289319.624953839</v>
       </c>
       <c r="H2" t="n">
-        <v>212.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E3" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1461.5283</v>
       </c>
       <c r="G3" t="n">
-        <v>216.1333333333333</v>
+        <v>287858.096653839</v>
       </c>
       <c r="H3" t="n">
-        <v>212.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D4" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E4" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>668.2041</v>
       </c>
       <c r="G4" t="n">
-        <v>216</v>
+        <v>287189.892553839</v>
       </c>
       <c r="H4" t="n">
-        <v>212.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C5" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D5" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F5" t="n">
-        <v>3174.1389</v>
+        <v>3060.5856</v>
       </c>
       <c r="G5" t="n">
-        <v>215.5333333333333</v>
+        <v>290250.478153839</v>
       </c>
       <c r="H5" t="n">
-        <v>212.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C6" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D6" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E6" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F6" t="n">
-        <v>703.7910000000001</v>
+        <v>950.861</v>
       </c>
       <c r="G6" t="n">
-        <v>215.1333333333333</v>
+        <v>290250.478153839</v>
       </c>
       <c r="H6" t="n">
-        <v>212.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E7" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F7" t="n">
-        <v>955.2521</v>
+        <v>78831.65260917031</v>
       </c>
       <c r="G7" t="n">
-        <v>214.6666666666667</v>
+        <v>369082.1307630093</v>
       </c>
       <c r="H7" t="n">
-        <v>212.6</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C8" t="n">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D8" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E8" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F8" t="n">
-        <v>1563.8437</v>
+        <v>2885.523072072072</v>
       </c>
       <c r="G8" t="n">
-        <v>214.3333333333333</v>
+        <v>371967.6538350814</v>
       </c>
       <c r="H8" t="n">
-        <v>212.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C9" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E9" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F9" t="n">
-        <v>7400.9711</v>
+        <v>15967.18728378378</v>
       </c>
       <c r="G9" t="n">
-        <v>213.9333333333333</v>
+        <v>356000.4665512976</v>
       </c>
       <c r="H9" t="n">
-        <v>212.4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C10" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E10" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F10" t="n">
-        <v>2468.675</v>
+        <v>927.8652</v>
       </c>
       <c r="G10" t="n">
-        <v>213.6</v>
+        <v>356000.4665512976</v>
       </c>
       <c r="H10" t="n">
-        <v>212.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C11" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D11" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E11" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F11" t="n">
-        <v>3613.9235</v>
+        <v>4803.4839</v>
       </c>
       <c r="G11" t="n">
-        <v>212.7333333333333</v>
+        <v>360803.9504512976</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C12" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D12" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E12" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F12" t="n">
-        <v>18859.0455</v>
+        <v>1727.6254</v>
       </c>
       <c r="G12" t="n">
-        <v>211.6666666666667</v>
+        <v>359076.3250512976</v>
       </c>
       <c r="H12" t="n">
-        <v>212.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C13" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D13" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E13" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F13" t="n">
-        <v>479.1129</v>
+        <v>669.792</v>
       </c>
       <c r="G13" t="n">
-        <v>210.6</v>
+        <v>359746.1170512976</v>
       </c>
       <c r="H13" t="n">
-        <v>211.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D14" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E14" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F14" t="n">
-        <v>457.6118</v>
+        <v>2402.0634</v>
       </c>
       <c r="G14" t="n">
-        <v>209.8666666666667</v>
+        <v>362148.1804512976</v>
       </c>
       <c r="H14" t="n">
-        <v>211.75</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C15" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D15" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E15" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F15" t="n">
-        <v>1.3031</v>
+        <v>1205.9363</v>
       </c>
       <c r="G15" t="n">
-        <v>209.0666666666667</v>
+        <v>360942.2441512975</v>
       </c>
       <c r="H15" t="n">
-        <v>211.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C16" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D16" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E16" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F16" t="n">
-        <v>494.9174</v>
+        <v>190.7056</v>
       </c>
       <c r="G16" t="n">
-        <v>208.2666666666667</v>
+        <v>361132.9497512975</v>
       </c>
       <c r="H16" t="n">
-        <v>211.7</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C17" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D17" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E17" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F17" t="n">
-        <v>2275.1185</v>
+        <v>52.5616</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4</v>
+        <v>361080.3881512975</v>
       </c>
       <c r="H17" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C18" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D18" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E18" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F18" t="n">
-        <v>10814.01</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>207.0666666666667</v>
+        <v>361030.3881512975</v>
       </c>
       <c r="H18" t="n">
-        <v>211.65</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C19" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D19" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E19" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F19" t="n">
-        <v>7.6915</v>
+        <v>1.2972</v>
       </c>
       <c r="G19" t="n">
-        <v>206.7333333333333</v>
+        <v>361031.6853512975</v>
       </c>
       <c r="H19" t="n">
-        <v>211.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C20" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D20" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F20" t="n">
-        <v>120</v>
+        <v>2.0848</v>
       </c>
       <c r="G20" t="n">
-        <v>206.5333333333333</v>
+        <v>361031.6853512975</v>
       </c>
       <c r="H20" t="n">
-        <v>211.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C21" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D21" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>6179.286981990522</v>
+        <v>7.682</v>
       </c>
       <c r="G21" t="n">
-        <v>206.5333333333333</v>
+        <v>361031.6853512975</v>
       </c>
       <c r="H21" t="n">
-        <v>211.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C22" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D22" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E22" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F22" t="n">
-        <v>17.3768</v>
+        <v>2503.6028</v>
       </c>
       <c r="G22" t="n">
-        <v>206.3333333333333</v>
+        <v>358528.0825512975</v>
       </c>
       <c r="H22" t="n">
-        <v>211.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C23" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D23" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E23" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F23" t="n">
-        <v>685.521</v>
+        <v>234.4872</v>
       </c>
       <c r="G23" t="n">
-        <v>206.3333333333333</v>
+        <v>358528.0825512975</v>
       </c>
       <c r="H23" t="n">
-        <v>211.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C24" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D24" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E24" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F24" t="n">
-        <v>157.1316</v>
+        <v>218.2505</v>
       </c>
       <c r="G24" t="n">
-        <v>206.4</v>
+        <v>358746.3330512975</v>
       </c>
       <c r="H24" t="n">
-        <v>211.75</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C25" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D25" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E25" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F25" t="n">
-        <v>458.732</v>
+        <v>12741.63851689498</v>
       </c>
       <c r="G25" t="n">
-        <v>206.2</v>
+        <v>371487.9715681925</v>
       </c>
       <c r="H25" t="n">
-        <v>211.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C26" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D26" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E26" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F26" t="n">
-        <v>1926.51</v>
+        <v>457.6118721461187</v>
       </c>
       <c r="G26" t="n">
-        <v>206.5333333333333</v>
+        <v>371487.9715681925</v>
       </c>
       <c r="H26" t="n">
-        <v>211.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C27" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D27" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E27" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F27" t="n">
-        <v>2204.3207</v>
+        <v>1500</v>
       </c>
       <c r="G27" t="n">
-        <v>207.1333333333333</v>
+        <v>371487.9715681925</v>
       </c>
       <c r="H27" t="n">
-        <v>211.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C28" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D28" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E28" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F28" t="n">
-        <v>366</v>
+        <v>6.3072</v>
       </c>
       <c r="G28" t="n">
-        <v>207.4666666666667</v>
+        <v>371481.6643681925</v>
       </c>
       <c r="H28" t="n">
-        <v>211.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C29" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D29" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E29" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F29" t="n">
-        <v>1.3047</v>
+        <v>2.1232</v>
       </c>
       <c r="G29" t="n">
-        <v>208</v>
+        <v>371483.7875681925</v>
       </c>
       <c r="H29" t="n">
-        <v>211.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C30" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D30" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E30" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F30" t="n">
-        <v>2868.7612</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>207.9333333333333</v>
+        <v>371383.7875681925</v>
       </c>
       <c r="H30" t="n">
-        <v>211.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C31" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D31" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E31" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F31" t="n">
-        <v>491.042</v>
+        <v>388.7981</v>
       </c>
       <c r="G31" t="n">
-        <v>208</v>
+        <v>371383.7875681925</v>
       </c>
       <c r="H31" t="n">
-        <v>211.5</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C32" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D32" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E32" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F32" t="n">
-        <v>2275.7198</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>208.3333333333333</v>
+        <v>371380.7875681925</v>
       </c>
       <c r="H32" t="n">
-        <v>211.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C33" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E33" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F33" t="n">
-        <v>968.2791</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>208.6</v>
+        <v>371380.7875681925</v>
       </c>
       <c r="H33" t="n">
-        <v>211.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C34" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E34" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" t="n">
-        <v>39.1427</v>
+        <v>3174.1389</v>
       </c>
       <c r="G34" t="n">
-        <v>208.8666666666667</v>
+        <v>368206.6486681925</v>
       </c>
       <c r="H34" t="n">
-        <v>211.6</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C35" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D35" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E35" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F35" t="n">
-        <v>7514.1153</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>208.8</v>
+        <v>368910.4396681925</v>
       </c>
       <c r="H35" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C36" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D36" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>955.2521</v>
       </c>
       <c r="G36" t="n">
-        <v>208.4666666666667</v>
+        <v>367955.1875681925</v>
       </c>
       <c r="H36" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C37" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D37" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E37" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F37" t="n">
-        <v>758.1639</v>
+        <v>1563.8437</v>
       </c>
       <c r="G37" t="n">
-        <v>208.4</v>
+        <v>366391.3438681925</v>
       </c>
       <c r="H37" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>7400.9711</v>
       </c>
       <c r="G38" t="n">
-        <v>208.4</v>
+        <v>358990.3727681925</v>
       </c>
       <c r="H38" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C39" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D39" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E39" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F39" t="n">
-        <v>1290.8212</v>
+        <v>2468.675</v>
       </c>
       <c r="G39" t="n">
-        <v>208.4</v>
+        <v>361459.0477681925</v>
       </c>
       <c r="H39" t="n">
-        <v>211.35</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1769,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E40" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F40" t="n">
-        <v>3224.2028</v>
+        <v>3613.9235</v>
       </c>
       <c r="G40" t="n">
-        <v>208.4666666666667</v>
+        <v>357845.1242681925</v>
       </c>
       <c r="H40" t="n">
-        <v>211.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1810,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D41" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F41" t="n">
-        <v>260.9299</v>
+        <v>18859.0455</v>
       </c>
       <c r="G41" t="n">
-        <v>208.1333333333333</v>
+        <v>338986.0787681925</v>
       </c>
       <c r="H41" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1849,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C42" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D42" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E42" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F42" t="n">
-        <v>519.5312</v>
+        <v>479.1129</v>
       </c>
       <c r="G42" t="n">
-        <v>207.7333333333333</v>
+        <v>338986.0787681925</v>
       </c>
       <c r="H42" t="n">
-        <v>210.8</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1888,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C43" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E43" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" t="n">
-        <v>239.679</v>
+        <v>457.6118</v>
       </c>
       <c r="G43" t="n">
-        <v>207.6</v>
+        <v>339443.6905681925</v>
       </c>
       <c r="H43" t="n">
-        <v>210.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1927,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C44" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D44" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E44" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F44" t="n">
-        <v>351.6975</v>
+        <v>1.3031</v>
       </c>
       <c r="G44" t="n">
-        <v>207.1333333333333</v>
+        <v>339444.9936681925</v>
       </c>
       <c r="H44" t="n">
-        <v>210.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1966,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C45" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D45" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E45" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F45" t="n">
-        <v>2203.0898</v>
+        <v>494.9174</v>
       </c>
       <c r="G45" t="n">
-        <v>207</v>
+        <v>338950.0762681926</v>
       </c>
       <c r="H45" t="n">
-        <v>210.2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2007,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C46" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D46" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E46" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F46" t="n">
-        <v>1797.9102</v>
+        <v>2275.1185</v>
       </c>
       <c r="G46" t="n">
-        <v>206.8</v>
+        <v>336674.9577681926</v>
       </c>
       <c r="H46" t="n">
-        <v>209.95</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2046,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C47" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D47" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E47" t="n">
         <v>203</v>
       </c>
       <c r="F47" t="n">
-        <v>1297.446</v>
+        <v>10814.01</v>
       </c>
       <c r="G47" t="n">
-        <v>206.4</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H47" t="n">
-        <v>209.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2085,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C48" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D48" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E48" t="n">
         <v>204</v>
       </c>
       <c r="F48" t="n">
-        <v>11486.5753</v>
+        <v>7.6915</v>
       </c>
       <c r="G48" t="n">
-        <v>205.9333333333333</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H48" t="n">
-        <v>209.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2126,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D49" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E49" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F49" t="n">
-        <v>831.7679000000001</v>
+        <v>120</v>
       </c>
       <c r="G49" t="n">
-        <v>205.6</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H49" t="n">
-        <v>209.3</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2167,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C50" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D50" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E50" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F50" t="n">
-        <v>186.0636</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G50" t="n">
-        <v>205.6</v>
+        <v>353668.2547501831</v>
       </c>
       <c r="H50" t="n">
-        <v>209.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2206,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C51" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D51" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E51" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F51" t="n">
-        <v>248.3378</v>
+        <v>17.3768</v>
       </c>
       <c r="G51" t="n">
-        <v>205.6</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H51" t="n">
-        <v>208.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2245,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C52" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E52" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>685.521</v>
       </c>
       <c r="G52" t="n">
-        <v>205.6</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H52" t="n">
-        <v>208.75</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,24 +2296,25 @@
         <v>207</v>
       </c>
       <c r="F53" t="n">
-        <v>1.235</v>
+        <v>157.1316</v>
       </c>
       <c r="G53" t="n">
-        <v>205.6</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H53" t="n">
-        <v>208.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2323,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C54" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E54" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>458.732</v>
       </c>
       <c r="G54" t="n">
-        <v>205.4666666666667</v>
+        <v>353192.145950183</v>
       </c>
       <c r="H54" t="n">
-        <v>208.55</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2362,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C55" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D55" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E55" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F55" t="n">
-        <v>641.3925</v>
+        <v>1926.51</v>
       </c>
       <c r="G55" t="n">
-        <v>205.2666666666667</v>
+        <v>355118.655950183</v>
       </c>
       <c r="H55" t="n">
-        <v>208.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2401,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C56" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D56" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E56" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F56" t="n">
-        <v>1.148</v>
+        <v>2204.3207</v>
       </c>
       <c r="G56" t="n">
-        <v>205.2666666666667</v>
+        <v>357322.976650183</v>
       </c>
       <c r="H56" t="n">
-        <v>208.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2440,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C57" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D57" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E57" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F57" t="n">
-        <v>3214.3736</v>
+        <v>366</v>
       </c>
       <c r="G57" t="n">
-        <v>205.0666666666667</v>
+        <v>356956.976650183</v>
       </c>
       <c r="H57" t="n">
-        <v>207.9</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2479,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C58" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D58" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E58" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F58" t="n">
-        <v>4015.8168</v>
+        <v>1.3047</v>
       </c>
       <c r="G58" t="n">
-        <v>204.8</v>
+        <v>356958.281350183</v>
       </c>
       <c r="H58" t="n">
-        <v>207.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2518,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D59" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E59" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F59" t="n">
-        <v>18445.4693</v>
+        <v>2868.7612</v>
       </c>
       <c r="G59" t="n">
-        <v>204.4666666666667</v>
+        <v>354089.520150183</v>
       </c>
       <c r="H59" t="n">
-        <v>207.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2557,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C60" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D60" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E60" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0487</v>
+        <v>491.042</v>
       </c>
       <c r="G60" t="n">
-        <v>204.4</v>
+        <v>354580.562150183</v>
       </c>
       <c r="H60" t="n">
-        <v>207.1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2596,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C61" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D61" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E61" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F61" t="n">
-        <v>435.2966</v>
+        <v>2275.7198</v>
       </c>
       <c r="G61" t="n">
-        <v>204.0666666666667</v>
+        <v>356856.281950183</v>
       </c>
       <c r="H61" t="n">
-        <v>206.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,74 +2635,70 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C62" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D62" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E62" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F62" t="n">
-        <v>677.866</v>
+        <v>968.2791</v>
       </c>
       <c r="G62" t="n">
-        <v>203.8</v>
+        <v>357824.561050183</v>
       </c>
       <c r="H62" t="n">
-        <v>206.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C63" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D63" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E63" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F63" t="n">
-        <v>2126</v>
+        <v>39.1427</v>
       </c>
       <c r="G63" t="n">
-        <v>203.9333333333333</v>
+        <v>357824.561050183</v>
       </c>
       <c r="H63" t="n">
-        <v>206.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2707,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C64" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D64" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E64" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F64" t="n">
-        <v>127</v>
+        <v>7514.1153</v>
       </c>
       <c r="G64" t="n">
-        <v>203.8666666666667</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H64" t="n">
-        <v>206.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2742,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>203.8</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H65" t="n">
-        <v>206.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2777,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C66" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D66" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E66" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F66" t="n">
-        <v>114</v>
+        <v>758.1639</v>
       </c>
       <c r="G66" t="n">
-        <v>203.5333333333333</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H66" t="n">
-        <v>206.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2812,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C67" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E67" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>203.5333333333333</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H67" t="n">
-        <v>205.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2847,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C68" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D68" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E68" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F68" t="n">
-        <v>2042</v>
+        <v>1290.8212</v>
       </c>
       <c r="G68" t="n">
-        <v>203.2</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H68" t="n">
-        <v>205.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2882,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C69" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D69" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E69" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F69" t="n">
-        <v>388.7981</v>
+        <v>3224.2028</v>
       </c>
       <c r="G69" t="n">
-        <v>203</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H69" t="n">
-        <v>205.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2917,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C70" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E70" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F70" t="n">
-        <v>25.9935</v>
+        <v>260.9299</v>
       </c>
       <c r="G70" t="n">
-        <v>202.9333333333333</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H70" t="n">
-        <v>205.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2952,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C71" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E71" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F71" t="n">
-        <v>154.2534</v>
+        <v>519.5312</v>
       </c>
       <c r="G71" t="n">
-        <v>202.7333333333333</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H71" t="n">
-        <v>205.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2987,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C72" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D72" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E72" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F72" t="n">
-        <v>1990.3823</v>
+        <v>239.679</v>
       </c>
       <c r="G72" t="n">
-        <v>202.6666666666667</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H72" t="n">
-        <v>205.65</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3022,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C73" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D73" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E73" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>351.6975</v>
       </c>
       <c r="G73" t="n">
-        <v>202.6666666666667</v>
+        <v>349698.818350183</v>
       </c>
       <c r="H73" t="n">
-        <v>205.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3057,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C74" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E74" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F74" t="n">
-        <v>612.9063</v>
+        <v>2203.0898</v>
       </c>
       <c r="G74" t="n">
-        <v>202.8</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H74" t="n">
-        <v>205.6</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3092,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E75" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0628</v>
+        <v>1797.9102</v>
       </c>
       <c r="G75" t="n">
-        <v>202.8</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H75" t="n">
-        <v>205.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3127,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C76" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D76" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E76" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F76" t="n">
-        <v>3409.6398</v>
+        <v>1297.446</v>
       </c>
       <c r="G76" t="n">
-        <v>202.8</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H76" t="n">
-        <v>205.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3162,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C77" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D77" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E77" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F77" t="n">
-        <v>264.9141</v>
+        <v>11486.5753</v>
       </c>
       <c r="G77" t="n">
-        <v>202.7333333333333</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H77" t="n">
-        <v>205.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3197,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C78" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D78" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E78" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F78" t="n">
-        <v>4.5642</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>202.2666666666667</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H78" t="n">
-        <v>205.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3232,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C79" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D79" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E79" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F79" t="n">
-        <v>1.7167</v>
+        <v>186.0636</v>
       </c>
       <c r="G79" t="n">
-        <v>202.1333333333333</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H79" t="n">
-        <v>205.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3267,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C80" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D80" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E80" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F80" t="n">
-        <v>158.7047</v>
+        <v>248.3378</v>
       </c>
       <c r="G80" t="n">
-        <v>201.8</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H80" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,42 +3302,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C81" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D81" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E81" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F81" t="n">
-        <v>21.6361</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>201.8666666666667</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H81" t="n">
-        <v>204.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>200</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,40 +3337,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C82" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D82" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E82" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F82" t="n">
-        <v>356.8301</v>
+        <v>1.235</v>
       </c>
       <c r="G82" t="n">
-        <v>201.4666666666667</v>
+        <v>348328.731450183</v>
       </c>
       <c r="H82" t="n">
-        <v>204.75</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,42 +3372,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C83" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D83" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E83" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F83" t="n">
-        <v>1.8334</v>
+        <v>14</v>
       </c>
       <c r="G83" t="n">
-        <v>201.5333333333333</v>
+        <v>348314.731450183</v>
       </c>
       <c r="H83" t="n">
-        <v>204.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>200</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,42 +3407,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C84" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D84" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E84" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F84" t="n">
-        <v>6492.7262</v>
+        <v>641.3925</v>
       </c>
       <c r="G84" t="n">
-        <v>201.6</v>
+        <v>347673.338950183</v>
       </c>
       <c r="H84" t="n">
-        <v>204.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>203</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,40 +3442,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C85" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D85" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E85" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F85" t="n">
-        <v>2.0848</v>
+        <v>1.148</v>
       </c>
       <c r="G85" t="n">
-        <v>201.3333333333333</v>
+        <v>347674.4869501829</v>
       </c>
       <c r="H85" t="n">
-        <v>204.5</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,42 +3477,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C86" t="n">
         <v>203</v>
       </c>
       <c r="D86" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E86" t="n">
         <v>203</v>
       </c>
       <c r="F86" t="n">
-        <v>1.4852</v>
+        <v>3214.3736</v>
       </c>
       <c r="G86" t="n">
-        <v>201.3333333333333</v>
+        <v>344460.1133501829</v>
       </c>
       <c r="H86" t="n">
-        <v>204.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>199</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,42 +3512,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>4015.8168</v>
       </c>
       <c r="G87" t="n">
-        <v>201.4</v>
+        <v>340444.296550183</v>
       </c>
       <c r="H87" t="n">
-        <v>204.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,42 +3547,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D88" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>18445.4693</v>
       </c>
       <c r="G88" t="n">
-        <v>201.4666666666667</v>
+        <v>321998.827250183</v>
       </c>
       <c r="H88" t="n">
-        <v>204.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,30 +3594,21 @@
         <v>203</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>1.0487</v>
       </c>
       <c r="G89" t="n">
-        <v>201.5333333333333</v>
+        <v>321999.875950183</v>
       </c>
       <c r="H89" t="n">
-        <v>203.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,42 +3617,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C90" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D90" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>435.2966</v>
       </c>
       <c r="G90" t="n">
-        <v>201.4</v>
+        <v>321564.579350183</v>
       </c>
       <c r="H90" t="n">
-        <v>203.9</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,42 +3652,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C91" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E91" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>677.866</v>
       </c>
       <c r="G91" t="n">
-        <v>201.5333333333333</v>
+        <v>322242.4453501829</v>
       </c>
       <c r="H91" t="n">
-        <v>203.8</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,39 +3690,30 @@
         <v>201</v>
       </c>
       <c r="C92" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D92" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E92" t="n">
         <v>201</v>
       </c>
       <c r="F92" t="n">
-        <v>4.3034</v>
+        <v>2126</v>
       </c>
       <c r="G92" t="n">
-        <v>201.6666666666667</v>
+        <v>324368.4453501829</v>
       </c>
       <c r="H92" t="n">
-        <v>203.65</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,42 +3722,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C93" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D93" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E93" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F93" t="n">
-        <v>796</v>
+        <v>127</v>
       </c>
       <c r="G93" t="n">
-        <v>201.8</v>
+        <v>324241.4453501829</v>
       </c>
       <c r="H93" t="n">
-        <v>203.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,42 +3757,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C94" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D94" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E94" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9083</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>201.6666666666667</v>
+        <v>324241.4453501829</v>
       </c>
       <c r="H94" t="n">
-        <v>203.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,42 +3792,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C95" t="n">
         <v>202</v>
       </c>
       <c r="D95" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E95" t="n">
         <v>202</v>
       </c>
       <c r="F95" t="n">
-        <v>1.343</v>
+        <v>114</v>
       </c>
       <c r="G95" t="n">
-        <v>201.8</v>
+        <v>324127.4453501829</v>
       </c>
       <c r="H95" t="n">
-        <v>203.25</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,42 +3827,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C96" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D96" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E96" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F96" t="n">
-        <v>1494.907</v>
+        <v>17</v>
       </c>
       <c r="G96" t="n">
-        <v>201.7333333333333</v>
+        <v>324144.4453501829</v>
       </c>
       <c r="H96" t="n">
-        <v>203.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,42 +3862,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C97" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D97" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E97" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F97" t="n">
-        <v>1.0264</v>
+        <v>2042</v>
       </c>
       <c r="G97" t="n">
-        <v>202</v>
+        <v>322102.4453501829</v>
       </c>
       <c r="H97" t="n">
-        <v>203.15</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,42 +3897,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D98" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E98" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F98" t="n">
-        <v>1.098</v>
+        <v>388.7981</v>
       </c>
       <c r="G98" t="n">
-        <v>202.0666666666667</v>
+        <v>322102.4453501829</v>
       </c>
       <c r="H98" t="n">
-        <v>203.1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,42 +3932,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C99" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D99" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E99" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F99" t="n">
-        <v>2140.3857</v>
+        <v>25.9935</v>
       </c>
       <c r="G99" t="n">
-        <v>202.1333333333333</v>
+        <v>322128.4388501829</v>
       </c>
       <c r="H99" t="n">
-        <v>203.05</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,42 +3967,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D100" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E100" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F100" t="n">
-        <v>1.5585</v>
+        <v>154.2534</v>
       </c>
       <c r="G100" t="n">
-        <v>202.5333333333333</v>
+        <v>322128.4388501829</v>
       </c>
       <c r="H100" t="n">
-        <v>203.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,42 +4002,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C101" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D101" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E101" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>1990.3823</v>
       </c>
       <c r="G101" t="n">
-        <v>202.6666666666667</v>
+        <v>320138.0565501829</v>
       </c>
       <c r="H101" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,42 +4037,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C102" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D102" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E102" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F102" t="n">
-        <v>8.824299999999999</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>202.8</v>
+        <v>320138.0565501829</v>
       </c>
       <c r="H102" t="n">
-        <v>202.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,42 +4072,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C103" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D103" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E103" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="n">
-        <v>48.7804</v>
+        <v>612.9063</v>
       </c>
       <c r="G103" t="n">
-        <v>202.9333333333333</v>
+        <v>320138.0565501829</v>
       </c>
       <c r="H103" t="n">
-        <v>202.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,42 +4107,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C104" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D104" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E104" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="n">
-        <v>319.1257</v>
+        <v>1.0628</v>
       </c>
       <c r="G104" t="n">
-        <v>203.0666666666667</v>
+        <v>320139.1193501829</v>
       </c>
       <c r="H104" t="n">
-        <v>202.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,42 +4142,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C105" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D105" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E105" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F105" t="n">
-        <v>3269.8424352657</v>
+        <v>3409.6398</v>
       </c>
       <c r="G105" t="n">
-        <v>203.4666666666667</v>
+        <v>316729.4795501829</v>
       </c>
       <c r="H105" t="n">
-        <v>203.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,42 +4177,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C106" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D106" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E106" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F106" t="n">
-        <v>15.1919</v>
+        <v>264.9141</v>
       </c>
       <c r="G106" t="n">
-        <v>203.5333333333333</v>
+        <v>316729.4795501829</v>
       </c>
       <c r="H106" t="n">
-        <v>202.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,42 +4212,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C107" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D107" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E107" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F107" t="n">
-        <v>49.5049</v>
+        <v>4.5642</v>
       </c>
       <c r="G107" t="n">
-        <v>203.9333333333333</v>
+        <v>316729.4795501829</v>
       </c>
       <c r="H107" t="n">
-        <v>203.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,42 +4247,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C108" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D108" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E108" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F108" t="n">
-        <v>48.3091</v>
+        <v>1.7167</v>
       </c>
       <c r="G108" t="n">
-        <v>204.2666666666667</v>
+        <v>316731.1962501829</v>
       </c>
       <c r="H108" t="n">
-        <v>203.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,40 +4282,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C109" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D109" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E109" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F109" t="n">
-        <v>2.1</v>
+        <v>158.7047</v>
       </c>
       <c r="G109" t="n">
-        <v>204.6</v>
+        <v>316572.4915501829</v>
       </c>
       <c r="H109" t="n">
-        <v>203.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,40 +4317,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C110" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D110" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E110" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F110" t="n">
-        <v>22.0339</v>
+        <v>21.6361</v>
       </c>
       <c r="G110" t="n">
-        <v>204.8666666666667</v>
+        <v>316594.1276501829</v>
       </c>
       <c r="H110" t="n">
-        <v>203.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,40 +4352,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C111" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D111" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E111" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F111" t="n">
-        <v>1.9414</v>
+        <v>356.8301</v>
       </c>
       <c r="G111" t="n">
-        <v>205.0666666666667</v>
+        <v>316237.2975501829</v>
       </c>
       <c r="H111" t="n">
-        <v>203.05</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,40 +4387,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C112" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D112" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E112" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F112" t="n">
-        <v>3.0992</v>
+        <v>1.8334</v>
       </c>
       <c r="G112" t="n">
-        <v>205.2</v>
+        <v>316239.1309501829</v>
       </c>
       <c r="H112" t="n">
-        <v>203.05</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,40 +4422,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C113" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D113" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E113" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F113" t="n">
-        <v>2130.7165</v>
+        <v>6492.7262</v>
       </c>
       <c r="G113" t="n">
-        <v>205.3333333333333</v>
+        <v>316239.1309501829</v>
       </c>
       <c r="H113" t="n">
-        <v>203.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,40 +4457,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C114" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D114" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E114" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F114" t="n">
-        <v>8352.2186</v>
+        <v>2.0848</v>
       </c>
       <c r="G114" t="n">
-        <v>205.6</v>
+        <v>316237.0461501829</v>
       </c>
       <c r="H114" t="n">
-        <v>203.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,40 +4492,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C115" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D115" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E115" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F115" t="n">
-        <v>4010</v>
+        <v>1.4852</v>
       </c>
       <c r="G115" t="n">
-        <v>205.8666666666667</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H115" t="n">
-        <v>203.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,40 +4527,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C116" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D116" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E116" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F116" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>206.2</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H116" t="n">
-        <v>203.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,40 +4562,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C117" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D117" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E117" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F117" t="n">
-        <v>4010</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>206.5333333333333</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H117" t="n">
-        <v>203.35</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,40 +4597,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C118" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D118" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E118" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F118" t="n">
-        <v>4716.9811</v>
+        <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>206.8666666666667</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H118" t="n">
-        <v>203.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,40 +4632,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C119" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D119" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E119" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F119" t="n">
-        <v>2856.2295</v>
+        <v>6</v>
       </c>
       <c r="G119" t="n">
-        <v>207.2</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H119" t="n">
-        <v>203.65</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,40 +4667,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C120" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D120" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E120" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F120" t="n">
-        <v>1031.9152</v>
+        <v>5</v>
       </c>
       <c r="G120" t="n">
-        <v>207.4666666666667</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H120" t="n">
-        <v>203.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,40 +4702,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C121" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D121" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E121" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F121" t="n">
-        <v>318.2399</v>
+        <v>4.3034</v>
       </c>
       <c r="G121" t="n">
-        <v>208.1333333333333</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H121" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,40 +4737,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C122" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D122" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E122" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F122" t="n">
-        <v>9124.5383</v>
+        <v>796</v>
       </c>
       <c r="G122" t="n">
-        <v>208.4666666666667</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H122" t="n">
-        <v>204.2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,40 +4772,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C123" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D123" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E123" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F123" t="n">
-        <v>3681.6715</v>
+        <v>0.9083</v>
       </c>
       <c r="G123" t="n">
-        <v>208.8666666666667</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H123" t="n">
-        <v>204.3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,40 +4807,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C124" t="n">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D124" t="n">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E124" t="n">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>1.343</v>
       </c>
       <c r="G124" t="n">
-        <v>209.3333333333333</v>
+        <v>316233.8743501829</v>
       </c>
       <c r="H124" t="n">
-        <v>204.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,40 +4842,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C125" t="n">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D125" t="n">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E125" t="n">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F125" t="n">
-        <v>1518.4957</v>
+        <v>1494.907</v>
       </c>
       <c r="G125" t="n">
-        <v>209.8666666666667</v>
+        <v>316233.8743501829</v>
       </c>
       <c r="H125" t="n">
-        <v>204.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,40 +4877,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C126" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D126" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E126" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F126" t="n">
-        <v>900.5802</v>
+        <v>1.0264</v>
       </c>
       <c r="G126" t="n">
-        <v>210.4666666666667</v>
+        <v>316234.9007501829</v>
       </c>
       <c r="H126" t="n">
-        <v>204.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,40 +4912,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C127" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D127" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E127" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F127" t="n">
-        <v>5857.5168</v>
+        <v>1.098</v>
       </c>
       <c r="G127" t="n">
-        <v>211.1333333333333</v>
+        <v>316234.9007501829</v>
       </c>
       <c r="H127" t="n">
-        <v>204.95</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,40 +4947,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C128" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D128" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E128" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F128" t="n">
-        <v>3502.8982</v>
+        <v>2140.3857</v>
       </c>
       <c r="G128" t="n">
-        <v>211.7333333333333</v>
+        <v>316234.9007501829</v>
       </c>
       <c r="H128" t="n">
-        <v>205.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,40 +4982,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C129" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D129" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E129" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F129" t="n">
-        <v>851.9963</v>
+        <v>1.5585</v>
       </c>
       <c r="G129" t="n">
-        <v>212.2</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H129" t="n">
-        <v>205.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,40 +5017,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C130" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D130" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E130" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F130" t="n">
-        <v>32.2255</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>212.6</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H130" t="n">
-        <v>205.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,40 +5052,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C131" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D131" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E131" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F131" t="n">
-        <v>64.813</v>
+        <v>8.824299999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>212.8666666666667</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H131" t="n">
-        <v>205.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,40 +5087,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C132" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D132" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E132" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F132" t="n">
-        <v>2211.2715</v>
+        <v>48.7804</v>
       </c>
       <c r="G132" t="n">
-        <v>213.0666666666667</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H132" t="n">
-        <v>205.95</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,40 +5122,1048 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C133" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D133" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E133" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F133" t="n">
-        <v>583.4672</v>
+        <v>319.1257</v>
       </c>
       <c r="G133" t="n">
-        <v>213.3333333333333</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H133" t="n">
-        <v>206.15</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>205</v>
+      </c>
+      <c r="C134" t="n">
+        <v>207</v>
+      </c>
+      <c r="D134" t="n">
+        <v>207</v>
+      </c>
+      <c r="E134" t="n">
+        <v>205</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3269.8424352657</v>
+      </c>
+      <c r="G134" t="n">
+        <v>319506.3016854486</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>202</v>
+      </c>
+      <c r="C135" t="n">
+        <v>202</v>
+      </c>
+      <c r="D135" t="n">
+        <v>202</v>
+      </c>
+      <c r="E135" t="n">
+        <v>202</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15.1919</v>
+      </c>
+      <c r="G135" t="n">
+        <v>319491.1097854486</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>207</v>
+      </c>
+      <c r="C136" t="n">
+        <v>207</v>
+      </c>
+      <c r="D136" t="n">
+        <v>207</v>
+      </c>
+      <c r="E136" t="n">
+        <v>207</v>
+      </c>
+      <c r="F136" t="n">
+        <v>49.5049</v>
+      </c>
+      <c r="G136" t="n">
+        <v>319540.6146854486</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>206</v>
+      </c>
+      <c r="C137" t="n">
+        <v>206</v>
+      </c>
+      <c r="D137" t="n">
+        <v>206</v>
+      </c>
+      <c r="E137" t="n">
+        <v>206</v>
+      </c>
+      <c r="F137" t="n">
+        <v>48.3091</v>
+      </c>
+      <c r="G137" t="n">
+        <v>319492.3055854486</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>206</v>
+      </c>
+      <c r="C138" t="n">
+        <v>206</v>
+      </c>
+      <c r="D138" t="n">
+        <v>206</v>
+      </c>
+      <c r="E138" t="n">
+        <v>206</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>319492.3055854486</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>206</v>
+      </c>
+      <c r="C139" t="n">
+        <v>206</v>
+      </c>
+      <c r="D139" t="n">
+        <v>206</v>
+      </c>
+      <c r="E139" t="n">
+        <v>206</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22.0339</v>
+      </c>
+      <c r="G139" t="n">
+        <v>319492.3055854486</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>205</v>
+      </c>
+      <c r="C140" t="n">
+        <v>205</v>
+      </c>
+      <c r="D140" t="n">
+        <v>205</v>
+      </c>
+      <c r="E140" t="n">
+        <v>205</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.9414</v>
+      </c>
+      <c r="G140" t="n">
+        <v>319490.3641854486</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>206</v>
+      </c>
+      <c r="C141" t="n">
+        <v>206</v>
+      </c>
+      <c r="D141" t="n">
+        <v>206</v>
+      </c>
+      <c r="E141" t="n">
+        <v>206</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.0992</v>
+      </c>
+      <c r="G141" t="n">
+        <v>319493.4633854486</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>206</v>
+      </c>
+      <c r="C142" t="n">
+        <v>206</v>
+      </c>
+      <c r="D142" t="n">
+        <v>206</v>
+      </c>
+      <c r="E142" t="n">
+        <v>206</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2130.7165</v>
+      </c>
+      <c r="G142" t="n">
+        <v>319493.4633854486</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>207</v>
+      </c>
+      <c r="C143" t="n">
+        <v>208</v>
+      </c>
+      <c r="D143" t="n">
+        <v>208</v>
+      </c>
+      <c r="E143" t="n">
+        <v>207</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8352.2186</v>
+      </c>
+      <c r="G143" t="n">
+        <v>327845.6819854486</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>209</v>
+      </c>
+      <c r="C144" t="n">
+        <v>209</v>
+      </c>
+      <c r="D144" t="n">
+        <v>209</v>
+      </c>
+      <c r="E144" t="n">
+        <v>209</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G144" t="n">
+        <v>331855.6819854486</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>210</v>
+      </c>
+      <c r="C145" t="n">
+        <v>210</v>
+      </c>
+      <c r="D145" t="n">
+        <v>210</v>
+      </c>
+      <c r="E145" t="n">
+        <v>210</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21</v>
+      </c>
+      <c r="G145" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>210</v>
+      </c>
+      <c r="C146" t="n">
+        <v>210</v>
+      </c>
+      <c r="D146" t="n">
+        <v>210</v>
+      </c>
+      <c r="E146" t="n">
+        <v>210</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G146" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>210</v>
+      </c>
+      <c r="C147" t="n">
+        <v>210</v>
+      </c>
+      <c r="D147" t="n">
+        <v>210</v>
+      </c>
+      <c r="E147" t="n">
+        <v>210</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4716.9811</v>
+      </c>
+      <c r="G147" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>210</v>
+      </c>
+      <c r="C148" t="n">
+        <v>210</v>
+      </c>
+      <c r="D148" t="n">
+        <v>210</v>
+      </c>
+      <c r="E148" t="n">
+        <v>210</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2856.2295</v>
+      </c>
+      <c r="G148" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>210</v>
+      </c>
+      <c r="C149" t="n">
+        <v>211</v>
+      </c>
+      <c r="D149" t="n">
+        <v>211</v>
+      </c>
+      <c r="E149" t="n">
+        <v>210</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1031.9152</v>
+      </c>
+      <c r="G149" t="n">
+        <v>332908.5971854486</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>212</v>
+      </c>
+      <c r="C150" t="n">
+        <v>212</v>
+      </c>
+      <c r="D150" t="n">
+        <v>212</v>
+      </c>
+      <c r="E150" t="n">
+        <v>212</v>
+      </c>
+      <c r="F150" t="n">
+        <v>318.2399</v>
+      </c>
+      <c r="G150" t="n">
+        <v>333226.8370854486</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>212</v>
+      </c>
+      <c r="C151" t="n">
+        <v>212</v>
+      </c>
+      <c r="D151" t="n">
+        <v>212</v>
+      </c>
+      <c r="E151" t="n">
+        <v>212</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9124.5383</v>
+      </c>
+      <c r="G151" t="n">
+        <v>333226.8370854486</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>212</v>
+      </c>
+      <c r="C152" t="n">
+        <v>212</v>
+      </c>
+      <c r="D152" t="n">
+        <v>212</v>
+      </c>
+      <c r="E152" t="n">
+        <v>212</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3681.6715</v>
+      </c>
+      <c r="G152" t="n">
+        <v>333226.8370854486</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>213</v>
+      </c>
+      <c r="C153" t="n">
+        <v>213</v>
+      </c>
+      <c r="D153" t="n">
+        <v>213</v>
+      </c>
+      <c r="E153" t="n">
+        <v>213</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10</v>
+      </c>
+      <c r="G153" t="n">
+        <v>333236.8370854486</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>214</v>
+      </c>
+      <c r="C154" t="n">
+        <v>214</v>
+      </c>
+      <c r="D154" t="n">
+        <v>214</v>
+      </c>
+      <c r="E154" t="n">
+        <v>214</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1518.4957</v>
+      </c>
+      <c r="G154" t="n">
+        <v>334755.3327854486</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>214</v>
+      </c>
+      <c r="C155" t="n">
+        <v>214</v>
+      </c>
+      <c r="D155" t="n">
+        <v>214</v>
+      </c>
+      <c r="E155" t="n">
+        <v>214</v>
+      </c>
+      <c r="F155" t="n">
+        <v>900.5802</v>
+      </c>
+      <c r="G155" t="n">
+        <v>334755.3327854486</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>215</v>
+      </c>
+      <c r="C156" t="n">
+        <v>216</v>
+      </c>
+      <c r="D156" t="n">
+        <v>216</v>
+      </c>
+      <c r="E156" t="n">
+        <v>215</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5857.5168</v>
+      </c>
+      <c r="G156" t="n">
+        <v>340612.8495854486</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>217</v>
+      </c>
+      <c r="C157" t="n">
+        <v>215</v>
+      </c>
+      <c r="D157" t="n">
+        <v>217</v>
+      </c>
+      <c r="E157" t="n">
+        <v>215</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3502.8982</v>
+      </c>
+      <c r="G157" t="n">
+        <v>337109.9513854486</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>215</v>
+      </c>
+      <c r="C158" t="n">
+        <v>215</v>
+      </c>
+      <c r="D158" t="n">
+        <v>215</v>
+      </c>
+      <c r="E158" t="n">
+        <v>215</v>
+      </c>
+      <c r="F158" t="n">
+        <v>851.9963</v>
+      </c>
+      <c r="G158" t="n">
+        <v>337109.9513854486</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>215</v>
+      </c>
+      <c r="C159" t="n">
+        <v>215</v>
+      </c>
+      <c r="D159" t="n">
+        <v>215</v>
+      </c>
+      <c r="E159" t="n">
+        <v>215</v>
+      </c>
+      <c r="F159" t="n">
+        <v>32.2255</v>
+      </c>
+      <c r="G159" t="n">
+        <v>337109.9513854486</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>214</v>
+      </c>
+      <c r="C160" t="n">
+        <v>214</v>
+      </c>
+      <c r="D160" t="n">
+        <v>214</v>
+      </c>
+      <c r="E160" t="n">
+        <v>214</v>
+      </c>
+      <c r="F160" t="n">
+        <v>64.813</v>
+      </c>
+      <c r="G160" t="n">
+        <v>337045.1383854485</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>213</v>
+      </c>
+      <c r="C161" t="n">
+        <v>213</v>
+      </c>
+      <c r="D161" t="n">
+        <v>213</v>
+      </c>
+      <c r="E161" t="n">
+        <v>213</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2211.2715</v>
+      </c>
+      <c r="G161" t="n">
+        <v>334833.8668854486</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>214</v>
+      </c>
+      <c r="C162" t="n">
+        <v>214</v>
+      </c>
+      <c r="D162" t="n">
+        <v>214</v>
+      </c>
+      <c r="E162" t="n">
+        <v>214</v>
+      </c>
+      <c r="F162" t="n">
+        <v>583.4672</v>
+      </c>
+      <c r="G162" t="n">
+        <v>335417.3340854486</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1.3031</v>
       </c>
       <c r="G2" t="n">
-        <v>289319.624953839</v>
+        <v>339444.9936681925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C3" t="n">
         <v>206</v>
       </c>
       <c r="D3" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E3" t="n">
         <v>206</v>
       </c>
       <c r="F3" t="n">
-        <v>1461.5283</v>
+        <v>494.9174</v>
       </c>
       <c r="G3" t="n">
-        <v>287858.096653839</v>
+        <v>338950.0762681926</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="n">
         <v>205</v>
       </c>
       <c r="D4" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" t="n">
         <v>205</v>
       </c>
       <c r="F4" t="n">
-        <v>668.2041</v>
+        <v>2275.1185</v>
       </c>
       <c r="G4" t="n">
-        <v>287189.892553839</v>
+        <v>336674.9577681926</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,25 +549,25 @@
         <v>205</v>
       </c>
       <c r="C5" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E5" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F5" t="n">
-        <v>3060.5856</v>
+        <v>10814.01</v>
       </c>
       <c r="G5" t="n">
-        <v>290250.478153839</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" t="n">
-        <v>950.861</v>
+        <v>7.6915</v>
       </c>
       <c r="G6" t="n">
-        <v>290250.478153839</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C7" t="n">
         <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E7" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F7" t="n">
-        <v>78831.65260917031</v>
+        <v>120</v>
       </c>
       <c r="G7" t="n">
-        <v>369082.1307630093</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C8" t="n">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D8" t="n">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E8" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F8" t="n">
-        <v>2885.523072072072</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G8" t="n">
-        <v>371967.6538350814</v>
+        <v>353668.2547501831</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D9" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E9" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F9" t="n">
-        <v>15967.18728378378</v>
+        <v>17.3768</v>
       </c>
       <c r="G9" t="n">
-        <v>356000.4665512976</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C10" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D10" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E10" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F10" t="n">
-        <v>927.8652</v>
+        <v>685.521</v>
       </c>
       <c r="G10" t="n">
-        <v>356000.4665512976</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C11" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D11" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E11" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F11" t="n">
-        <v>4803.4839</v>
+        <v>157.1316</v>
       </c>
       <c r="G11" t="n">
-        <v>360803.9504512976</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C12" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D12" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E12" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F12" t="n">
-        <v>1727.6254</v>
+        <v>458.732</v>
       </c>
       <c r="G12" t="n">
-        <v>359076.3250512976</v>
+        <v>353192.145950183</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C13" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D13" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E13" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F13" t="n">
-        <v>669.792</v>
+        <v>1926.51</v>
       </c>
       <c r="G13" t="n">
-        <v>359746.1170512976</v>
+        <v>355118.655950183</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C14" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D14" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E14" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F14" t="n">
-        <v>2402.0634</v>
+        <v>2204.3207</v>
       </c>
       <c r="G14" t="n">
-        <v>362148.1804512976</v>
+        <v>357322.976650183</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C15" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D15" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E15" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F15" t="n">
-        <v>1205.9363</v>
+        <v>366</v>
       </c>
       <c r="G15" t="n">
-        <v>360942.2441512975</v>
+        <v>356956.976650183</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C16" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D16" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E16" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F16" t="n">
-        <v>190.7056</v>
+        <v>1.3047</v>
       </c>
       <c r="G16" t="n">
-        <v>361132.9497512975</v>
+        <v>356958.281350183</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C17" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D17" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E17" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F17" t="n">
-        <v>52.5616</v>
+        <v>2868.7612</v>
       </c>
       <c r="G17" t="n">
-        <v>361080.3881512975</v>
+        <v>354089.520150183</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C18" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D18" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E18" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>491.042</v>
       </c>
       <c r="G18" t="n">
-        <v>361030.3881512975</v>
+        <v>354580.562150183</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C19" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D19" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E19" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2972</v>
+        <v>2275.7198</v>
       </c>
       <c r="G19" t="n">
-        <v>361031.6853512975</v>
+        <v>356856.281950183</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C20" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E20" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0848</v>
+        <v>968.2791</v>
       </c>
       <c r="G20" t="n">
-        <v>361031.6853512975</v>
+        <v>357824.561050183</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C21" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E21" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F21" t="n">
-        <v>7.682</v>
+        <v>39.1427</v>
       </c>
       <c r="G21" t="n">
-        <v>361031.6853512975</v>
+        <v>357824.561050183</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C22" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D22" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E22" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F22" t="n">
-        <v>2503.6028</v>
+        <v>7514.1153</v>
       </c>
       <c r="G22" t="n">
-        <v>358528.0825512975</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C23" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D23" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E23" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F23" t="n">
-        <v>234.4872</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>358528.0825512975</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C24" t="n">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D24" t="n">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E24" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F24" t="n">
-        <v>218.2505</v>
+        <v>758.1639</v>
       </c>
       <c r="G24" t="n">
-        <v>358746.3330512975</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C25" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D25" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E25" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F25" t="n">
-        <v>12741.63851689498</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>371487.9715681925</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C26" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D26" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E26" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F26" t="n">
-        <v>457.6118721461187</v>
+        <v>1290.8212</v>
       </c>
       <c r="G26" t="n">
-        <v>371487.9715681925</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C27" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D27" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E27" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F27" t="n">
-        <v>1500</v>
+        <v>3224.2028</v>
       </c>
       <c r="G27" t="n">
-        <v>371487.9715681925</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C28" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D28" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E28" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F28" t="n">
-        <v>6.3072</v>
+        <v>260.9299</v>
       </c>
       <c r="G28" t="n">
-        <v>371481.6643681925</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C29" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D29" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E29" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.1232</v>
+        <v>519.5312</v>
       </c>
       <c r="G29" t="n">
-        <v>371483.7875681925</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C30" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D30" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E30" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>239.679</v>
       </c>
       <c r="G30" t="n">
-        <v>371383.7875681925</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C31" t="n">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D31" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E31" t="n">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F31" t="n">
-        <v>388.7981</v>
+        <v>351.6975</v>
       </c>
       <c r="G31" t="n">
-        <v>371383.7875681925</v>
+        <v>349698.818350183</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C32" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D32" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E32" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2203.0898</v>
       </c>
       <c r="G32" t="n">
-        <v>371380.7875681925</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C33" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D33" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E33" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>1797.9102</v>
       </c>
       <c r="G33" t="n">
-        <v>371380.7875681925</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C34" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D34" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E34" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F34" t="n">
-        <v>3174.1389</v>
+        <v>1297.446</v>
       </c>
       <c r="G34" t="n">
-        <v>368206.6486681925</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C35" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D35" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E35" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F35" t="n">
-        <v>703.7910000000001</v>
+        <v>11486.5753</v>
       </c>
       <c r="G35" t="n">
-        <v>368910.4396681925</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C36" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D36" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E36" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F36" t="n">
-        <v>955.2521</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>367955.1875681925</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" t="n">
-        <v>1563.8437</v>
+        <v>186.0636</v>
       </c>
       <c r="G37" t="n">
-        <v>366391.3438681925</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1705,10 +1746,10 @@
         <v>206</v>
       </c>
       <c r="F38" t="n">
-        <v>7400.9711</v>
+        <v>248.3378</v>
       </c>
       <c r="G38" t="n">
-        <v>358990.3727681925</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,110 +1763,101 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D39" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E39" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F39" t="n">
-        <v>2468.675</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>361459.0477681925</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>206</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F40" t="n">
-        <v>3613.9235</v>
+        <v>1.235</v>
       </c>
       <c r="G40" t="n">
-        <v>357845.1242681925</v>
+        <v>348328.731450183</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>209</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D41" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E41" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F41" t="n">
-        <v>18859.0455</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>338986.0787681925</v>
+        <v>348314.731450183</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1835,36 +1867,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C42" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D42" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E42" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F42" t="n">
-        <v>479.1129</v>
+        <v>641.3925</v>
       </c>
       <c r="G42" t="n">
-        <v>338986.0787681925</v>
+        <v>347673.338950183</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1874,36 +1903,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C43" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D43" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E43" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F43" t="n">
-        <v>457.6118</v>
+        <v>1.148</v>
       </c>
       <c r="G43" t="n">
-        <v>339443.6905681925</v>
+        <v>347674.4869501829</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1913,36 +1939,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C44" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D44" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E44" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F44" t="n">
-        <v>1.3031</v>
+        <v>3214.3736</v>
       </c>
       <c r="G44" t="n">
-        <v>339444.9936681925</v>
+        <v>344460.1133501829</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1952,77 +1975,69 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C45" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D45" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E45" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F45" t="n">
-        <v>494.9174</v>
+        <v>4015.8168</v>
       </c>
       <c r="G45" t="n">
-        <v>338950.0762681926</v>
+        <v>340444.296550183</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>207</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C46" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D46" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F46" t="n">
-        <v>2275.1185</v>
+        <v>18445.4693</v>
       </c>
       <c r="G46" t="n">
-        <v>336674.9577681926</v>
+        <v>321998.827250183</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2032,36 +2047,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C47" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D47" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E47" t="n">
         <v>203</v>
       </c>
       <c r="F47" t="n">
-        <v>10814.01</v>
+        <v>1.0487</v>
       </c>
       <c r="G47" t="n">
-        <v>347488.9677681926</v>
+        <v>321999.875950183</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2071,118 +2083,105 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C48" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D48" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F48" t="n">
-        <v>7.6915</v>
+        <v>435.2966</v>
       </c>
       <c r="G48" t="n">
-        <v>347488.9677681926</v>
+        <v>321564.579350183</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>207</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D49" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E49" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F49" t="n">
-        <v>120</v>
+        <v>677.866</v>
       </c>
       <c r="G49" t="n">
-        <v>347488.9677681926</v>
+        <v>322242.4453501829</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>207</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C50" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D50" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E50" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F50" t="n">
-        <v>6179.286981990522</v>
+        <v>2126</v>
       </c>
       <c r="G50" t="n">
-        <v>353668.2547501831</v>
+        <v>324368.4453501829</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2192,36 +2191,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C51" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D51" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E51" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F51" t="n">
-        <v>17.3768</v>
+        <v>127</v>
       </c>
       <c r="G51" t="n">
-        <v>353650.8779501831</v>
+        <v>324241.4453501829</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2231,36 +2227,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E52" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" t="n">
-        <v>685.521</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>353650.8779501831</v>
+        <v>324241.4453501829</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2270,36 +2263,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C53" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D53" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F53" t="n">
-        <v>157.1316</v>
+        <v>114</v>
       </c>
       <c r="G53" t="n">
-        <v>353650.8779501831</v>
+        <v>324127.4453501829</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2309,21 +2299,18 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" t="n">
         <v>206</v>
@@ -2332,13 +2319,13 @@
         <v>206</v>
       </c>
       <c r="E54" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F54" t="n">
-        <v>458.732</v>
+        <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>353192.145950183</v>
+        <v>324144.4453501829</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2348,36 +2335,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C55" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D55" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E55" t="n">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F55" t="n">
-        <v>1926.51</v>
+        <v>2042</v>
       </c>
       <c r="G55" t="n">
-        <v>355118.655950183</v>
+        <v>322102.4453501829</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2387,36 +2371,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C56" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D56" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E56" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F56" t="n">
-        <v>2204.3207</v>
+        <v>388.7981</v>
       </c>
       <c r="G56" t="n">
-        <v>357322.976650183</v>
+        <v>322102.4453501829</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2426,36 +2407,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C57" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D57" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E57" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F57" t="n">
-        <v>366</v>
+        <v>25.9935</v>
       </c>
       <c r="G57" t="n">
-        <v>356956.976650183</v>
+        <v>322128.4388501829</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2465,36 +2443,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C58" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D58" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E58" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F58" t="n">
-        <v>1.3047</v>
+        <v>154.2534</v>
       </c>
       <c r="G58" t="n">
-        <v>356958.281350183</v>
+        <v>322128.4388501829</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2504,36 +2479,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C59" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D59" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E59" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F59" t="n">
-        <v>2868.7612</v>
+        <v>1990.3823</v>
       </c>
       <c r="G59" t="n">
-        <v>354089.520150183</v>
+        <v>320138.0565501829</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2543,36 +2515,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C60" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D60" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E60" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F60" t="n">
-        <v>491.042</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>354580.562150183</v>
+        <v>320138.0565501829</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2582,36 +2551,33 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C61" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D61" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E61" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F61" t="n">
-        <v>2275.7198</v>
+        <v>612.9063</v>
       </c>
       <c r="G61" t="n">
-        <v>356856.281950183</v>
+        <v>320138.0565501829</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2621,79 +2587,75 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C62" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D62" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E62" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F62" t="n">
-        <v>968.2791</v>
+        <v>1.0628</v>
       </c>
       <c r="G62" t="n">
-        <v>357824.561050183</v>
+        <v>320139.1193501829</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C63" t="n">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D63" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E63" t="n">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F63" t="n">
-        <v>39.1427</v>
+        <v>3409.6398</v>
       </c>
       <c r="G63" t="n">
-        <v>357824.561050183</v>
+        <v>316729.4795501829</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2701,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C64" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D64" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E64" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F64" t="n">
-        <v>7514.1153</v>
+        <v>264.9141</v>
       </c>
       <c r="G64" t="n">
-        <v>350310.445750183</v>
+        <v>316729.4795501829</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2736,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C65" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D65" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E65" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>4.5642</v>
       </c>
       <c r="G65" t="n">
-        <v>350310.445750183</v>
+        <v>316729.4795501829</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2771,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C66" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D66" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E66" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F66" t="n">
-        <v>758.1639</v>
+        <v>1.7167</v>
       </c>
       <c r="G66" t="n">
-        <v>350310.445750183</v>
+        <v>316731.1962501829</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2806,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C67" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D67" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E67" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>158.7047</v>
       </c>
       <c r="G67" t="n">
-        <v>350311.445750183</v>
+        <v>316572.4915501829</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2841,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E68" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F68" t="n">
-        <v>1290.8212</v>
+        <v>21.6361</v>
       </c>
       <c r="G68" t="n">
-        <v>350311.445750183</v>
+        <v>316594.1276501829</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2876,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D69" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E69" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>3224.2028</v>
+        <v>356.8301</v>
       </c>
       <c r="G69" t="n">
-        <v>350311.445750183</v>
+        <v>316237.2975501829</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2911,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C70" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E70" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F70" t="n">
-        <v>260.9299</v>
+        <v>1.8334</v>
       </c>
       <c r="G70" t="n">
-        <v>350050.515850183</v>
+        <v>316239.1309501829</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2946,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C71" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E71" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F71" t="n">
-        <v>519.5312</v>
+        <v>6492.7262</v>
       </c>
       <c r="G71" t="n">
-        <v>350050.515850183</v>
+        <v>316239.1309501829</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2981,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C72" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D72" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E72" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F72" t="n">
-        <v>239.679</v>
+        <v>2.0848</v>
       </c>
       <c r="G72" t="n">
-        <v>350050.515850183</v>
+        <v>316237.0461501829</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3016,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C73" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E73" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F73" t="n">
-        <v>351.6975</v>
+        <v>1.4852</v>
       </c>
       <c r="G73" t="n">
-        <v>349698.818350183</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3051,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F74" t="n">
-        <v>2203.0898</v>
+        <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>347495.728550183</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3086,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E75" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F75" t="n">
-        <v>1797.9102</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>347495.728550183</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3121,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3130,19 +3105,19 @@
         <v>203</v>
       </c>
       <c r="C76" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E76" t="n">
         <v>203</v>
       </c>
       <c r="F76" t="n">
-        <v>1297.446</v>
+        <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>347495.728550183</v>
+        <v>316238.5313501829</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C77" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D77" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E77" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F77" t="n">
-        <v>11486.5753</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>347495.728550183</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3191,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C78" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D78" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E78" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F78" t="n">
-        <v>831.7679000000001</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>348327.496450183</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3226,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C79" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D79" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E79" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F79" t="n">
-        <v>186.0636</v>
+        <v>4.3034</v>
       </c>
       <c r="G79" t="n">
-        <v>348327.496450183</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3261,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C80" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D80" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E80" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F80" t="n">
-        <v>248.3378</v>
+        <v>796</v>
       </c>
       <c r="G80" t="n">
-        <v>348327.496450183</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3296,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C81" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D81" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E81" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>0.9083</v>
       </c>
       <c r="G81" t="n">
-        <v>348327.496450183</v>
+        <v>316232.5313501829</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3331,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C82" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D82" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E82" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F82" t="n">
-        <v>1.235</v>
+        <v>1.343</v>
       </c>
       <c r="G82" t="n">
-        <v>348328.731450183</v>
+        <v>316233.8743501829</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3366,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C83" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D83" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E83" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F83" t="n">
-        <v>14</v>
+        <v>1494.907</v>
       </c>
       <c r="G83" t="n">
-        <v>348314.731450183</v>
+        <v>316233.8743501829</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3401,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84" t="n">
         <v>204</v>
       </c>
       <c r="D84" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E84" t="n">
         <v>204</v>
       </c>
       <c r="F84" t="n">
-        <v>641.3925</v>
+        <v>1.0264</v>
       </c>
       <c r="G84" t="n">
-        <v>347673.338950183</v>
+        <v>316234.9007501829</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3436,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C85" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D85" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E85" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F85" t="n">
-        <v>1.148</v>
+        <v>1.098</v>
       </c>
       <c r="G85" t="n">
-        <v>347674.4869501829</v>
+        <v>316234.9007501829</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3471,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,25 +3465,25 @@
         <v>204</v>
       </c>
       <c r="C86" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D86" t="n">
         <v>204</v>
       </c>
       <c r="E86" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F86" t="n">
-        <v>3214.3736</v>
+        <v>2140.3857</v>
       </c>
       <c r="G86" t="n">
-        <v>344460.1133501829</v>
+        <v>316234.9007501829</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3506,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C87" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D87" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E87" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F87" t="n">
-        <v>4015.8168</v>
+        <v>1.5585</v>
       </c>
       <c r="G87" t="n">
-        <v>340444.296550183</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3541,293 +3527,358 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C88" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D88" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E88" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F88" t="n">
-        <v>18445.4693</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>321998.827250183</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>205</v>
+      </c>
+      <c r="K88" t="n">
+        <v>205</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C89" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D89" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E89" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0487</v>
+        <v>8.824299999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>321999.875950183</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>205</v>
+      </c>
+      <c r="K89" t="n">
+        <v>205</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C90" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D90" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E90" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F90" t="n">
-        <v>435.2966</v>
+        <v>48.7804</v>
       </c>
       <c r="G90" t="n">
-        <v>321564.579350183</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>205</v>
+      </c>
+      <c r="K90" t="n">
+        <v>205</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C91" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D91" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E91" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F91" t="n">
-        <v>677.866</v>
+        <v>319.1257</v>
       </c>
       <c r="G91" t="n">
-        <v>322242.4453501829</v>
+        <v>316236.4592501828</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>205</v>
+      </c>
+      <c r="K91" t="n">
+        <v>205</v>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C92" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E92" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F92" t="n">
-        <v>2126</v>
+        <v>3269.8424352657</v>
       </c>
       <c r="G92" t="n">
-        <v>324368.4453501829</v>
+        <v>319506.3016854486</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>205</v>
+      </c>
+      <c r="K92" t="n">
+        <v>205</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C93" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D93" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E93" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F93" t="n">
-        <v>127</v>
+        <v>15.1919</v>
       </c>
       <c r="G93" t="n">
-        <v>324241.4453501829</v>
+        <v>319491.1097854486</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>207</v>
+      </c>
+      <c r="K93" t="n">
+        <v>205</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C94" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D94" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E94" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>49.5049</v>
       </c>
       <c r="G94" t="n">
-        <v>324241.4453501829</v>
+        <v>319540.6146854486</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>202</v>
+      </c>
+      <c r="K94" t="n">
+        <v>205</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C95" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D95" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E95" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F95" t="n">
-        <v>114</v>
+        <v>48.3091</v>
       </c>
       <c r="G95" t="n">
-        <v>324127.4453501829</v>
+        <v>319492.3055854486</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>207</v>
+      </c>
+      <c r="K95" t="n">
+        <v>205</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C96" t="n">
         <v>206</v>
@@ -3836,258 +3887,321 @@
         <v>206</v>
       </c>
       <c r="E96" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F96" t="n">
-        <v>17</v>
+        <v>2.1</v>
       </c>
       <c r="G96" t="n">
-        <v>324144.4453501829</v>
+        <v>319492.3055854486</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>206</v>
+      </c>
+      <c r="K96" t="n">
+        <v>205</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D97" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E97" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F97" t="n">
-        <v>2042</v>
+        <v>22.0339</v>
       </c>
       <c r="G97" t="n">
-        <v>322102.4453501829</v>
+        <v>319492.3055854486</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>206</v>
+      </c>
+      <c r="K97" t="n">
+        <v>205</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C98" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D98" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E98" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F98" t="n">
-        <v>388.7981</v>
+        <v>1.9414</v>
       </c>
       <c r="G98" t="n">
-        <v>322102.4453501829</v>
+        <v>319490.3641854486</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>206</v>
+      </c>
+      <c r="K98" t="n">
+        <v>205</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C99" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D99" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E99" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F99" t="n">
-        <v>25.9935</v>
+        <v>3.0992</v>
       </c>
       <c r="G99" t="n">
-        <v>322128.4388501829</v>
+        <v>319493.4633854486</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>205</v>
+      </c>
+      <c r="K99" t="n">
+        <v>205</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C100" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D100" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E100" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F100" t="n">
-        <v>154.2534</v>
+        <v>2130.7165</v>
       </c>
       <c r="G100" t="n">
-        <v>322128.4388501829</v>
+        <v>319493.4633854486</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>206</v>
+      </c>
+      <c r="K100" t="n">
+        <v>205</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C101" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D101" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E101" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F101" t="n">
-        <v>1990.3823</v>
+        <v>8352.2186</v>
       </c>
       <c r="G101" t="n">
-        <v>320138.0565501829</v>
+        <v>327845.6819854486</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>206</v>
+      </c>
+      <c r="K101" t="n">
+        <v>205</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C102" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D102" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E102" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>4010</v>
       </c>
       <c r="G102" t="n">
-        <v>320138.0565501829</v>
+        <v>331855.6819854486</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>208</v>
+      </c>
+      <c r="K102" t="n">
+        <v>205</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C103" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D103" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E103" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F103" t="n">
-        <v>612.9063</v>
+        <v>21</v>
       </c>
       <c r="G103" t="n">
-        <v>320138.0565501829</v>
+        <v>331876.6819854486</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4096,33 +4210,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>205</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D104" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E104" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F104" t="n">
-        <v>1.0628</v>
+        <v>4010</v>
       </c>
       <c r="G104" t="n">
-        <v>320139.1193501829</v>
+        <v>331876.6819854486</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4131,33 +4252,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>205</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C105" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D105" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E105" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F105" t="n">
-        <v>3409.6398</v>
+        <v>4716.9811</v>
       </c>
       <c r="G105" t="n">
-        <v>316729.4795501829</v>
+        <v>331876.6819854486</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4166,33 +4294,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>205</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C106" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D106" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E106" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F106" t="n">
-        <v>264.9141</v>
+        <v>2856.2295</v>
       </c>
       <c r="G106" t="n">
-        <v>316729.4795501829</v>
+        <v>331876.6819854486</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4201,33 +4336,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>205</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C107" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D107" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E107" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F107" t="n">
-        <v>4.5642</v>
+        <v>1031.9152</v>
       </c>
       <c r="G107" t="n">
-        <v>316729.4795501829</v>
+        <v>332908.5971854486</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4236,33 +4378,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>205</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C108" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D108" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E108" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F108" t="n">
-        <v>1.7167</v>
+        <v>318.2399</v>
       </c>
       <c r="G108" t="n">
-        <v>316731.1962501829</v>
+        <v>333226.8370854486</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4271,33 +4420,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>205</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C109" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D109" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E109" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F109" t="n">
-        <v>158.7047</v>
+        <v>9124.5383</v>
       </c>
       <c r="G109" t="n">
-        <v>316572.4915501829</v>
+        <v>333226.8370854486</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4306,33 +4462,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>205</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C110" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D110" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E110" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F110" t="n">
-        <v>21.6361</v>
+        <v>3681.6715</v>
       </c>
       <c r="G110" t="n">
-        <v>316594.1276501829</v>
+        <v>333226.8370854486</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4341,33 +4504,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>205</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C111" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D111" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E111" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F111" t="n">
-        <v>356.8301</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>316237.2975501829</v>
+        <v>333236.8370854486</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4376,33 +4546,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>205</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C112" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D112" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E112" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F112" t="n">
-        <v>1.8334</v>
+        <v>1518.4957</v>
       </c>
       <c r="G112" t="n">
-        <v>316239.1309501829</v>
+        <v>334755.3327854486</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4411,33 +4588,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>205</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C113" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D113" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E113" t="n">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F113" t="n">
-        <v>6492.7262</v>
+        <v>900.5802</v>
       </c>
       <c r="G113" t="n">
-        <v>316239.1309501829</v>
+        <v>334755.3327854486</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4446,74 +4630,88 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>205</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C114" t="n">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D114" t="n">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="E114" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F114" t="n">
-        <v>2.0848</v>
+        <v>5857.5168</v>
       </c>
       <c r="G114" t="n">
-        <v>316237.0461501829</v>
+        <v>340612.8495854486</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>205</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M114" t="n">
-        <v>1</v>
-      </c>
+        <v>1.048658536585366</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C115" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D115" t="n">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E115" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F115" t="n">
-        <v>1.4852</v>
+        <v>3502.8982</v>
       </c>
       <c r="G115" t="n">
-        <v>316238.5313501829</v>
+        <v>337109.9513854486</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4521,34 +4719,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C116" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D116" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E116" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>851.9963</v>
       </c>
       <c r="G116" t="n">
-        <v>316238.5313501829</v>
+        <v>337109.9513854486</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4556,34 +4755,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C117" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D117" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E117" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F117" t="n">
-        <v>6</v>
+        <v>32.2255</v>
       </c>
       <c r="G117" t="n">
-        <v>316238.5313501829</v>
+        <v>337109.9513854486</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4591,34 +4791,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C118" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D118" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E118" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>64.813</v>
       </c>
       <c r="G118" t="n">
-        <v>316238.5313501829</v>
+        <v>337045.1383854485</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4626,34 +4827,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C119" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D119" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E119" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>2211.2715</v>
       </c>
       <c r="G119" t="n">
-        <v>316232.5313501829</v>
+        <v>334833.8668854486</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4661,34 +4863,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C120" t="n">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D120" t="n">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E120" t="n">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F120" t="n">
-        <v>5</v>
+        <v>583.4672</v>
       </c>
       <c r="G120" t="n">
-        <v>316232.5313501829</v>
+        <v>335417.3340854486</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4696,1476 +4899,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>201</v>
-      </c>
-      <c r="C121" t="n">
-        <v>201</v>
-      </c>
-      <c r="D121" t="n">
-        <v>201</v>
-      </c>
-      <c r="E121" t="n">
-        <v>201</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4.3034</v>
-      </c>
-      <c r="G121" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>201</v>
-      </c>
-      <c r="C122" t="n">
-        <v>201</v>
-      </c>
-      <c r="D122" t="n">
-        <v>201</v>
-      </c>
-      <c r="E122" t="n">
-        <v>201</v>
-      </c>
-      <c r="F122" t="n">
-        <v>796</v>
-      </c>
-      <c r="G122" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>201</v>
-      </c>
-      <c r="C123" t="n">
-        <v>201</v>
-      </c>
-      <c r="D123" t="n">
-        <v>201</v>
-      </c>
-      <c r="E123" t="n">
-        <v>201</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.9083</v>
-      </c>
-      <c r="G123" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>202</v>
-      </c>
-      <c r="C124" t="n">
-        <v>202</v>
-      </c>
-      <c r="D124" t="n">
-        <v>202</v>
-      </c>
-      <c r="E124" t="n">
-        <v>202</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.343</v>
-      </c>
-      <c r="G124" t="n">
-        <v>316233.8743501829</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>202</v>
-      </c>
-      <c r="C125" t="n">
-        <v>202</v>
-      </c>
-      <c r="D125" t="n">
-        <v>202</v>
-      </c>
-      <c r="E125" t="n">
-        <v>202</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1494.907</v>
-      </c>
-      <c r="G125" t="n">
-        <v>316233.8743501829</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>204</v>
-      </c>
-      <c r="C126" t="n">
-        <v>204</v>
-      </c>
-      <c r="D126" t="n">
-        <v>204</v>
-      </c>
-      <c r="E126" t="n">
-        <v>204</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1.0264</v>
-      </c>
-      <c r="G126" t="n">
-        <v>316234.9007501829</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>204</v>
-      </c>
-      <c r="C127" t="n">
-        <v>204</v>
-      </c>
-      <c r="D127" t="n">
-        <v>204</v>
-      </c>
-      <c r="E127" t="n">
-        <v>204</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1.098</v>
-      </c>
-      <c r="G127" t="n">
-        <v>316234.9007501829</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>204</v>
-      </c>
-      <c r="C128" t="n">
-        <v>204</v>
-      </c>
-      <c r="D128" t="n">
-        <v>204</v>
-      </c>
-      <c r="E128" t="n">
-        <v>204</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2140.3857</v>
-      </c>
-      <c r="G128" t="n">
-        <v>316234.9007501829</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>205</v>
-      </c>
-      <c r="C129" t="n">
-        <v>205</v>
-      </c>
-      <c r="D129" t="n">
-        <v>205</v>
-      </c>
-      <c r="E129" t="n">
-        <v>205</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1.5585</v>
-      </c>
-      <c r="G129" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>205</v>
-      </c>
-      <c r="C130" t="n">
-        <v>205</v>
-      </c>
-      <c r="D130" t="n">
-        <v>205</v>
-      </c>
-      <c r="E130" t="n">
-        <v>205</v>
-      </c>
-      <c r="F130" t="n">
-        <v>10</v>
-      </c>
-      <c r="G130" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>205</v>
-      </c>
-      <c r="C131" t="n">
-        <v>205</v>
-      </c>
-      <c r="D131" t="n">
-        <v>205</v>
-      </c>
-      <c r="E131" t="n">
-        <v>205</v>
-      </c>
-      <c r="F131" t="n">
-        <v>8.824299999999999</v>
-      </c>
-      <c r="G131" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>205</v>
-      </c>
-      <c r="C132" t="n">
-        <v>205</v>
-      </c>
-      <c r="D132" t="n">
-        <v>205</v>
-      </c>
-      <c r="E132" t="n">
-        <v>205</v>
-      </c>
-      <c r="F132" t="n">
-        <v>48.7804</v>
-      </c>
-      <c r="G132" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>205</v>
-      </c>
-      <c r="C133" t="n">
-        <v>205</v>
-      </c>
-      <c r="D133" t="n">
-        <v>205</v>
-      </c>
-      <c r="E133" t="n">
-        <v>205</v>
-      </c>
-      <c r="F133" t="n">
-        <v>319.1257</v>
-      </c>
-      <c r="G133" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>205</v>
-      </c>
-      <c r="C134" t="n">
-        <v>207</v>
-      </c>
-      <c r="D134" t="n">
-        <v>207</v>
-      </c>
-      <c r="E134" t="n">
-        <v>205</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3269.8424352657</v>
-      </c>
-      <c r="G134" t="n">
-        <v>319506.3016854486</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>202</v>
-      </c>
-      <c r="C135" t="n">
-        <v>202</v>
-      </c>
-      <c r="D135" t="n">
-        <v>202</v>
-      </c>
-      <c r="E135" t="n">
-        <v>202</v>
-      </c>
-      <c r="F135" t="n">
-        <v>15.1919</v>
-      </c>
-      <c r="G135" t="n">
-        <v>319491.1097854486</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>207</v>
-      </c>
-      <c r="C136" t="n">
-        <v>207</v>
-      </c>
-      <c r="D136" t="n">
-        <v>207</v>
-      </c>
-      <c r="E136" t="n">
-        <v>207</v>
-      </c>
-      <c r="F136" t="n">
-        <v>49.5049</v>
-      </c>
-      <c r="G136" t="n">
-        <v>319540.6146854486</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>206</v>
-      </c>
-      <c r="C137" t="n">
-        <v>206</v>
-      </c>
-      <c r="D137" t="n">
-        <v>206</v>
-      </c>
-      <c r="E137" t="n">
-        <v>206</v>
-      </c>
-      <c r="F137" t="n">
-        <v>48.3091</v>
-      </c>
-      <c r="G137" t="n">
-        <v>319492.3055854486</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>206</v>
-      </c>
-      <c r="C138" t="n">
-        <v>206</v>
-      </c>
-      <c r="D138" t="n">
-        <v>206</v>
-      </c>
-      <c r="E138" t="n">
-        <v>206</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>319492.3055854486</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>206</v>
-      </c>
-      <c r="C139" t="n">
-        <v>206</v>
-      </c>
-      <c r="D139" t="n">
-        <v>206</v>
-      </c>
-      <c r="E139" t="n">
-        <v>206</v>
-      </c>
-      <c r="F139" t="n">
-        <v>22.0339</v>
-      </c>
-      <c r="G139" t="n">
-        <v>319492.3055854486</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>205</v>
-      </c>
-      <c r="C140" t="n">
-        <v>205</v>
-      </c>
-      <c r="D140" t="n">
-        <v>205</v>
-      </c>
-      <c r="E140" t="n">
-        <v>205</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1.9414</v>
-      </c>
-      <c r="G140" t="n">
-        <v>319490.3641854486</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>206</v>
-      </c>
-      <c r="C141" t="n">
-        <v>206</v>
-      </c>
-      <c r="D141" t="n">
-        <v>206</v>
-      </c>
-      <c r="E141" t="n">
-        <v>206</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3.0992</v>
-      </c>
-      <c r="G141" t="n">
-        <v>319493.4633854486</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>206</v>
-      </c>
-      <c r="C142" t="n">
-        <v>206</v>
-      </c>
-      <c r="D142" t="n">
-        <v>206</v>
-      </c>
-      <c r="E142" t="n">
-        <v>206</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2130.7165</v>
-      </c>
-      <c r="G142" t="n">
-        <v>319493.4633854486</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>207</v>
-      </c>
-      <c r="C143" t="n">
-        <v>208</v>
-      </c>
-      <c r="D143" t="n">
-        <v>208</v>
-      </c>
-      <c r="E143" t="n">
-        <v>207</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8352.2186</v>
-      </c>
-      <c r="G143" t="n">
-        <v>327845.6819854486</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>209</v>
-      </c>
-      <c r="C144" t="n">
-        <v>209</v>
-      </c>
-      <c r="D144" t="n">
-        <v>209</v>
-      </c>
-      <c r="E144" t="n">
-        <v>209</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4010</v>
-      </c>
-      <c r="G144" t="n">
-        <v>331855.6819854486</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>210</v>
-      </c>
-      <c r="C145" t="n">
-        <v>210</v>
-      </c>
-      <c r="D145" t="n">
-        <v>210</v>
-      </c>
-      <c r="E145" t="n">
-        <v>210</v>
-      </c>
-      <c r="F145" t="n">
-        <v>21</v>
-      </c>
-      <c r="G145" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>210</v>
-      </c>
-      <c r="C146" t="n">
-        <v>210</v>
-      </c>
-      <c r="D146" t="n">
-        <v>210</v>
-      </c>
-      <c r="E146" t="n">
-        <v>210</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4010</v>
-      </c>
-      <c r="G146" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>210</v>
-      </c>
-      <c r="C147" t="n">
-        <v>210</v>
-      </c>
-      <c r="D147" t="n">
-        <v>210</v>
-      </c>
-      <c r="E147" t="n">
-        <v>210</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4716.9811</v>
-      </c>
-      <c r="G147" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>210</v>
-      </c>
-      <c r="C148" t="n">
-        <v>210</v>
-      </c>
-      <c r="D148" t="n">
-        <v>210</v>
-      </c>
-      <c r="E148" t="n">
-        <v>210</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2856.2295</v>
-      </c>
-      <c r="G148" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>210</v>
-      </c>
-      <c r="C149" t="n">
-        <v>211</v>
-      </c>
-      <c r="D149" t="n">
-        <v>211</v>
-      </c>
-      <c r="E149" t="n">
-        <v>210</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1031.9152</v>
-      </c>
-      <c r="G149" t="n">
-        <v>332908.5971854486</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>212</v>
-      </c>
-      <c r="C150" t="n">
-        <v>212</v>
-      </c>
-      <c r="D150" t="n">
-        <v>212</v>
-      </c>
-      <c r="E150" t="n">
-        <v>212</v>
-      </c>
-      <c r="F150" t="n">
-        <v>318.2399</v>
-      </c>
-      <c r="G150" t="n">
-        <v>333226.8370854486</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>212</v>
-      </c>
-      <c r="C151" t="n">
-        <v>212</v>
-      </c>
-      <c r="D151" t="n">
-        <v>212</v>
-      </c>
-      <c r="E151" t="n">
-        <v>212</v>
-      </c>
-      <c r="F151" t="n">
-        <v>9124.5383</v>
-      </c>
-      <c r="G151" t="n">
-        <v>333226.8370854486</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>212</v>
-      </c>
-      <c r="C152" t="n">
-        <v>212</v>
-      </c>
-      <c r="D152" t="n">
-        <v>212</v>
-      </c>
-      <c r="E152" t="n">
-        <v>212</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3681.6715</v>
-      </c>
-      <c r="G152" t="n">
-        <v>333226.8370854486</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>213</v>
-      </c>
-      <c r="C153" t="n">
-        <v>213</v>
-      </c>
-      <c r="D153" t="n">
-        <v>213</v>
-      </c>
-      <c r="E153" t="n">
-        <v>213</v>
-      </c>
-      <c r="F153" t="n">
-        <v>10</v>
-      </c>
-      <c r="G153" t="n">
-        <v>333236.8370854486</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>214</v>
-      </c>
-      <c r="C154" t="n">
-        <v>214</v>
-      </c>
-      <c r="D154" t="n">
-        <v>214</v>
-      </c>
-      <c r="E154" t="n">
-        <v>214</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1518.4957</v>
-      </c>
-      <c r="G154" t="n">
-        <v>334755.3327854486</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>214</v>
-      </c>
-      <c r="C155" t="n">
-        <v>214</v>
-      </c>
-      <c r="D155" t="n">
-        <v>214</v>
-      </c>
-      <c r="E155" t="n">
-        <v>214</v>
-      </c>
-      <c r="F155" t="n">
-        <v>900.5802</v>
-      </c>
-      <c r="G155" t="n">
-        <v>334755.3327854486</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>215</v>
-      </c>
-      <c r="C156" t="n">
-        <v>216</v>
-      </c>
-      <c r="D156" t="n">
-        <v>216</v>
-      </c>
-      <c r="E156" t="n">
-        <v>215</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5857.5168</v>
-      </c>
-      <c r="G156" t="n">
-        <v>340612.8495854486</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>217</v>
-      </c>
-      <c r="C157" t="n">
-        <v>215</v>
-      </c>
-      <c r="D157" t="n">
-        <v>217</v>
-      </c>
-      <c r="E157" t="n">
-        <v>215</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3502.8982</v>
-      </c>
-      <c r="G157" t="n">
-        <v>337109.9513854486</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>215</v>
-      </c>
-      <c r="C158" t="n">
-        <v>215</v>
-      </c>
-      <c r="D158" t="n">
-        <v>215</v>
-      </c>
-      <c r="E158" t="n">
-        <v>215</v>
-      </c>
-      <c r="F158" t="n">
-        <v>851.9963</v>
-      </c>
-      <c r="G158" t="n">
-        <v>337109.9513854486</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>215</v>
-      </c>
-      <c r="C159" t="n">
-        <v>215</v>
-      </c>
-      <c r="D159" t="n">
-        <v>215</v>
-      </c>
-      <c r="E159" t="n">
-        <v>215</v>
-      </c>
-      <c r="F159" t="n">
-        <v>32.2255</v>
-      </c>
-      <c r="G159" t="n">
-        <v>337109.9513854486</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>214</v>
-      </c>
-      <c r="C160" t="n">
-        <v>214</v>
-      </c>
-      <c r="D160" t="n">
-        <v>214</v>
-      </c>
-      <c r="E160" t="n">
-        <v>214</v>
-      </c>
-      <c r="F160" t="n">
-        <v>64.813</v>
-      </c>
-      <c r="G160" t="n">
-        <v>337045.1383854485</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>213</v>
-      </c>
-      <c r="C161" t="n">
-        <v>213</v>
-      </c>
-      <c r="D161" t="n">
-        <v>213</v>
-      </c>
-      <c r="E161" t="n">
-        <v>213</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2211.2715</v>
-      </c>
-      <c r="G161" t="n">
-        <v>334833.8668854486</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>214</v>
-      </c>
-      <c r="C162" t="n">
-        <v>214</v>
-      </c>
-      <c r="D162" t="n">
-        <v>214</v>
-      </c>
-      <c r="E162" t="n">
-        <v>214</v>
-      </c>
-      <c r="F162" t="n">
-        <v>583.4672</v>
-      </c>
-      <c r="G162" t="n">
-        <v>335417.3340854486</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C2" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E2" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
-        <v>1.3031</v>
+        <v>5315.0603</v>
       </c>
       <c r="G2" t="n">
-        <v>339444.9936681925</v>
+        <v>276549.8941741788</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C3" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E3" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F3" t="n">
-        <v>494.9174</v>
+        <v>1340.8865</v>
       </c>
       <c r="G3" t="n">
-        <v>338950.0762681926</v>
+        <v>277890.7806741789</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C4" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E4" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F4" t="n">
-        <v>2275.1185</v>
+        <v>11251.1893</v>
       </c>
       <c r="G4" t="n">
-        <v>336674.9577681926</v>
+        <v>266639.5913741788</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E5" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F5" t="n">
-        <v>10814.01</v>
+        <v>4340.1469</v>
       </c>
       <c r="G5" t="n">
-        <v>347488.9677681926</v>
+        <v>262299.4444741788</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D6" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F6" t="n">
-        <v>7.6915</v>
+        <v>582.4016</v>
       </c>
       <c r="G6" t="n">
-        <v>347488.9677681926</v>
+        <v>262299.4444741788</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C7" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D7" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E7" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F7" t="n">
-        <v>120</v>
+        <v>1300.0302</v>
       </c>
       <c r="G7" t="n">
-        <v>347488.9677681926</v>
+        <v>263599.4746741788</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C8" t="n">
         <v>211</v>
@@ -663,13 +663,13 @@
         <v>211</v>
       </c>
       <c r="E8" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F8" t="n">
-        <v>6179.286981990522</v>
+        <v>2208.6113</v>
       </c>
       <c r="G8" t="n">
-        <v>353668.2547501831</v>
+        <v>261390.8633741788</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C9" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D9" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E9" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F9" t="n">
-        <v>17.3768</v>
+        <v>6718.1625</v>
       </c>
       <c r="G9" t="n">
-        <v>353650.8779501831</v>
+        <v>261390.8633741788</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C10" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D10" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E10" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F10" t="n">
-        <v>685.521</v>
+        <v>11001.934</v>
       </c>
       <c r="G10" t="n">
-        <v>353650.8779501831</v>
+        <v>272392.7973741788</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C11" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D11" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E11" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F11" t="n">
-        <v>157.1316</v>
+        <v>14863.87199861751</v>
       </c>
       <c r="G11" t="n">
-        <v>353650.8779501831</v>
+        <v>287256.6693727963</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C12" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D12" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E12" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F12" t="n">
-        <v>458.732</v>
+        <v>701.6282</v>
       </c>
       <c r="G12" t="n">
-        <v>353192.145950183</v>
+        <v>286555.0411727963</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>209</v>
       </c>
       <c r="C13" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D13" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E13" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" t="n">
-        <v>1926.51</v>
+        <v>2083.8946</v>
       </c>
       <c r="G13" t="n">
-        <v>355118.655950183</v>
+        <v>284471.1465727963</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D14" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F14" t="n">
-        <v>2204.3207</v>
+        <v>16696.5112</v>
       </c>
       <c r="G14" t="n">
-        <v>357322.976650183</v>
+        <v>284471.1465727963</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C15" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D15" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E15" t="n">
         <v>208</v>
       </c>
       <c r="F15" t="n">
-        <v>366</v>
+        <v>9.0768</v>
       </c>
       <c r="G15" t="n">
-        <v>356956.976650183</v>
+        <v>284480.2233727963</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C16" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D16" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E16" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F16" t="n">
-        <v>1.3047</v>
+        <v>329.1616</v>
       </c>
       <c r="G16" t="n">
-        <v>356958.281350183</v>
+        <v>284151.0617727963</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C17" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D17" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E17" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" t="n">
-        <v>2868.7612</v>
+        <v>7459.0479</v>
       </c>
       <c r="G17" t="n">
-        <v>354089.520150183</v>
+        <v>276692.0138727963</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D18" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E18" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F18" t="n">
-        <v>491.042</v>
+        <v>2004.6674</v>
       </c>
       <c r="G18" t="n">
-        <v>354580.562150183</v>
+        <v>276692.0138727963</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C19" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D19" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E19" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F19" t="n">
-        <v>2275.7198</v>
+        <v>5759.156</v>
       </c>
       <c r="G19" t="n">
-        <v>356856.281950183</v>
+        <v>282451.1698727963</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D20" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E20" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F20" t="n">
-        <v>968.2791</v>
+        <v>3908.084</v>
       </c>
       <c r="G20" t="n">
-        <v>357824.561050183</v>
+        <v>282451.1698727963</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" t="n">
         <v>211</v>
@@ -1131,19 +1131,19 @@
         <v>211</v>
       </c>
       <c r="E21" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F21" t="n">
-        <v>39.1427</v>
+        <v>4766.070381042654</v>
       </c>
       <c r="G21" t="n">
-        <v>357824.561050183</v>
+        <v>287217.240253839</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C22" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D22" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E22" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F22" t="n">
-        <v>7514.1153</v>
+        <v>1749.7488</v>
       </c>
       <c r="G22" t="n">
-        <v>350310.445750183</v>
+        <v>287217.240253839</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C23" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D23" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E23" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>25.40561895734597</v>
       </c>
       <c r="G23" t="n">
-        <v>350310.445750183</v>
+        <v>287217.240253839</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C24" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D24" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E24" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F24" t="n">
-        <v>758.1639</v>
+        <v>4000.4758</v>
       </c>
       <c r="G24" t="n">
-        <v>350310.445750183</v>
+        <v>287217.240253839</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C25" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D25" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E25" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>1600.545</v>
       </c>
       <c r="G25" t="n">
-        <v>350311.445750183</v>
+        <v>287217.240253839</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C26" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D26" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E26" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F26" t="n">
-        <v>1290.8212</v>
+        <v>2935.557081042654</v>
       </c>
       <c r="G26" t="n">
-        <v>350311.445750183</v>
+        <v>287217.240253839</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1341,25 +1341,25 @@
         <v>207</v>
       </c>
       <c r="C27" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D27" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E27" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F27" t="n">
-        <v>3224.2028</v>
+        <v>2446.3847</v>
       </c>
       <c r="G27" t="n">
-        <v>350311.445750183</v>
+        <v>289663.624953839</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C28" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D28" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E28" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F28" t="n">
-        <v>260.9299</v>
+        <v>9473.1464</v>
       </c>
       <c r="G28" t="n">
-        <v>350050.515850183</v>
+        <v>289663.624953839</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C29" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D29" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E29" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F29" t="n">
-        <v>519.5312</v>
+        <v>344</v>
       </c>
       <c r="G29" t="n">
-        <v>350050.515850183</v>
+        <v>289319.624953839</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C30" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D30" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E30" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F30" t="n">
-        <v>239.679</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>350050.515850183</v>
+        <v>289320.624953839</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C31" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D31" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E31" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F31" t="n">
-        <v>351.6975</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>349698.818350183</v>
+        <v>289319.624953839</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C32" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D32" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F32" t="n">
-        <v>2203.0898</v>
+        <v>1461.5283</v>
       </c>
       <c r="G32" t="n">
-        <v>347495.728550183</v>
+        <v>287858.096653839</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C33" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D33" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E33" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" t="n">
-        <v>1797.9102</v>
+        <v>668.2041</v>
       </c>
       <c r="G33" t="n">
-        <v>347495.728550183</v>
+        <v>287189.892553839</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C34" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D34" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E34" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F34" t="n">
-        <v>1297.446</v>
+        <v>3060.5856</v>
       </c>
       <c r="G34" t="n">
-        <v>347495.728550183</v>
+        <v>290250.478153839</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C35" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D35" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E35" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F35" t="n">
-        <v>11486.5753</v>
+        <v>950.861</v>
       </c>
       <c r="G35" t="n">
-        <v>347495.728550183</v>
+        <v>290250.478153839</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" t="n">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="E36" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" t="n">
-        <v>831.7679000000001</v>
+        <v>78831.65260917031</v>
       </c>
       <c r="G36" t="n">
-        <v>348327.496450183</v>
+        <v>369082.1307630093</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C37" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D37" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E37" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F37" t="n">
-        <v>186.0636</v>
+        <v>2885.523072072072</v>
       </c>
       <c r="G37" t="n">
-        <v>348327.496450183</v>
+        <v>371967.6538350814</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C38" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D38" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E38" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F38" t="n">
-        <v>248.3378</v>
+        <v>15967.18728378378</v>
       </c>
       <c r="G38" t="n">
-        <v>348327.496450183</v>
+        <v>356000.4665512976</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C39" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D39" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E39" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>927.8652</v>
       </c>
       <c r="G39" t="n">
-        <v>348327.496450183</v>
+        <v>356000.4665512976</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C40" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D40" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E40" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F40" t="n">
-        <v>1.235</v>
+        <v>4803.4839</v>
       </c>
       <c r="G40" t="n">
-        <v>348328.731450183</v>
+        <v>360803.9504512976</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C41" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D41" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E41" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>1727.6254</v>
       </c>
       <c r="G41" t="n">
-        <v>348314.731450183</v>
+        <v>359076.3250512976</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C42" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D42" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E42" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F42" t="n">
-        <v>641.3925</v>
+        <v>669.792</v>
       </c>
       <c r="G42" t="n">
-        <v>347673.338950183</v>
+        <v>359746.1170512976</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C43" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D43" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E43" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F43" t="n">
-        <v>1.148</v>
+        <v>2402.0634</v>
       </c>
       <c r="G43" t="n">
-        <v>347674.4869501829</v>
+        <v>362148.1804512976</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C44" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D44" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E44" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F44" t="n">
-        <v>3214.3736</v>
+        <v>1205.9363</v>
       </c>
       <c r="G44" t="n">
-        <v>344460.1133501829</v>
+        <v>360942.2441512975</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D45" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E45" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F45" t="n">
-        <v>4015.8168</v>
+        <v>190.7056</v>
       </c>
       <c r="G45" t="n">
-        <v>340444.296550183</v>
+        <v>361132.9497512975</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C46" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D46" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F46" t="n">
-        <v>18445.4693</v>
+        <v>52.5616</v>
       </c>
       <c r="G46" t="n">
-        <v>321998.827250183</v>
+        <v>361080.3881512975</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C47" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D47" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E47" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0487</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>321999.875950183</v>
+        <v>361030.3881512975</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C48" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D48" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E48" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F48" t="n">
-        <v>435.2966</v>
+        <v>1.2972</v>
       </c>
       <c r="G48" t="n">
-        <v>321564.579350183</v>
+        <v>361031.6853512975</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C49" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D49" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E49" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F49" t="n">
-        <v>677.866</v>
+        <v>2.0848</v>
       </c>
       <c r="G49" t="n">
-        <v>322242.4453501829</v>
+        <v>361031.6853512975</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C50" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D50" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E50" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F50" t="n">
-        <v>2126</v>
+        <v>7.682</v>
       </c>
       <c r="G50" t="n">
-        <v>324368.4453501829</v>
+        <v>361031.6853512975</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C51" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D51" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E51" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F51" t="n">
-        <v>127</v>
+        <v>2503.6028</v>
       </c>
       <c r="G51" t="n">
-        <v>324241.4453501829</v>
+        <v>358528.0825512975</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C52" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D52" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E52" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>234.4872</v>
       </c>
       <c r="G52" t="n">
-        <v>324241.4453501829</v>
+        <v>358528.0825512975</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C53" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D53" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E53" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F53" t="n">
-        <v>114</v>
+        <v>218.2505</v>
       </c>
       <c r="G53" t="n">
-        <v>324127.4453501829</v>
+        <v>358746.3330512975</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C54" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D54" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E54" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F54" t="n">
-        <v>17</v>
+        <v>12741.63851689498</v>
       </c>
       <c r="G54" t="n">
-        <v>324144.4453501829</v>
+        <v>371487.9715681925</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C55" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D55" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E55" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F55" t="n">
-        <v>2042</v>
+        <v>457.6118721461187</v>
       </c>
       <c r="G55" t="n">
-        <v>322102.4453501829</v>
+        <v>371487.9715681925</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C56" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D56" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E56" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F56" t="n">
-        <v>388.7981</v>
+        <v>1500</v>
       </c>
       <c r="G56" t="n">
-        <v>322102.4453501829</v>
+        <v>371487.9715681925</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C57" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D57" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E57" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F57" t="n">
-        <v>25.9935</v>
+        <v>6.3072</v>
       </c>
       <c r="G57" t="n">
-        <v>322128.4388501829</v>
+        <v>371481.6643681925</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C58" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D58" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E58" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F58" t="n">
-        <v>154.2534</v>
+        <v>2.1232</v>
       </c>
       <c r="G58" t="n">
-        <v>322128.4388501829</v>
+        <v>371483.7875681925</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C59" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D59" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E59" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F59" t="n">
-        <v>1990.3823</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>320138.0565501829</v>
+        <v>371383.7875681925</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C60" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D60" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E60" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>388.7981</v>
       </c>
       <c r="G60" t="n">
-        <v>320138.0565501829</v>
+        <v>371383.7875681925</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C61" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D61" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E61" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F61" t="n">
-        <v>612.9063</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>320138.0565501829</v>
+        <v>371380.7875681925</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C62" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D62" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E62" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0628</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>320139.1193501829</v>
+        <v>371380.7875681925</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C63" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D63" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E63" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F63" t="n">
-        <v>3409.6398</v>
+        <v>3174.1389</v>
       </c>
       <c r="G63" t="n">
-        <v>316729.4795501829</v>
+        <v>368206.6486681925</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C64" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D64" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E64" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F64" t="n">
-        <v>264.9141</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>316729.4795501829</v>
+        <v>368910.4396681925</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C65" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D65" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E65" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F65" t="n">
-        <v>4.5642</v>
+        <v>955.2521</v>
       </c>
       <c r="G65" t="n">
-        <v>316729.4795501829</v>
+        <v>367955.1875681925</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C66" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D66" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E66" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F66" t="n">
-        <v>1.7167</v>
+        <v>1563.8437</v>
       </c>
       <c r="G66" t="n">
-        <v>316731.1962501829</v>
+        <v>366391.3438681925</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C67" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D67" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E67" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F67" t="n">
-        <v>158.7047</v>
+        <v>7400.9711</v>
       </c>
       <c r="G67" t="n">
-        <v>316572.4915501829</v>
+        <v>358990.3727681925</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C68" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D68" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E68" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F68" t="n">
-        <v>21.6361</v>
+        <v>2468.675</v>
       </c>
       <c r="G68" t="n">
-        <v>316594.1276501829</v>
+        <v>361459.0477681925</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C69" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D69" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E69" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F69" t="n">
-        <v>356.8301</v>
+        <v>3613.9235</v>
       </c>
       <c r="G69" t="n">
-        <v>316237.2975501829</v>
+        <v>357845.1242681925</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C70" t="n">
         <v>203</v>
       </c>
       <c r="D70" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E70" t="n">
         <v>203</v>
       </c>
       <c r="F70" t="n">
-        <v>1.8334</v>
+        <v>18859.0455</v>
       </c>
       <c r="G70" t="n">
-        <v>316239.1309501829</v>
+        <v>338986.0787681925</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C71" t="n">
         <v>203</v>
@@ -2931,13 +2931,13 @@
         <v>203</v>
       </c>
       <c r="E71" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F71" t="n">
-        <v>6492.7262</v>
+        <v>479.1129</v>
       </c>
       <c r="G71" t="n">
-        <v>316239.1309501829</v>
+        <v>338986.0787681925</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C72" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D72" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E72" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F72" t="n">
-        <v>2.0848</v>
+        <v>457.6118</v>
       </c>
       <c r="G72" t="n">
-        <v>316237.0461501829</v>
+        <v>339443.6905681925</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C73" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D73" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E73" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F73" t="n">
-        <v>1.4852</v>
+        <v>1.3031</v>
       </c>
       <c r="G73" t="n">
-        <v>316238.5313501829</v>
+        <v>339444.9936681925</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C74" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D74" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E74" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>494.9174</v>
       </c>
       <c r="G74" t="n">
-        <v>316238.5313501829</v>
+        <v>338950.0762681926</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C75" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D75" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E75" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>2275.1185</v>
       </c>
       <c r="G75" t="n">
-        <v>316238.5313501829</v>
+        <v>336674.9577681926</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C76" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D76" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E76" t="n">
         <v>203</v>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>10814.01</v>
       </c>
       <c r="G76" t="n">
-        <v>316238.5313501829</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C77" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D77" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E77" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>7.6915</v>
       </c>
       <c r="G77" t="n">
-        <v>316232.5313501829</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C78" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D78" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E78" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G78" t="n">
-        <v>316232.5313501829</v>
+        <v>347488.9677681926</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C79" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D79" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E79" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F79" t="n">
-        <v>4.3034</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G79" t="n">
-        <v>316232.5313501829</v>
+        <v>353668.2547501831</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C80" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D80" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E80" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F80" t="n">
-        <v>796</v>
+        <v>17.3768</v>
       </c>
       <c r="G80" t="n">
-        <v>316232.5313501829</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C81" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D81" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E81" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9083</v>
+        <v>685.521</v>
       </c>
       <c r="G81" t="n">
-        <v>316232.5313501829</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C82" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D82" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E82" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F82" t="n">
-        <v>1.343</v>
+        <v>157.1316</v>
       </c>
       <c r="G82" t="n">
-        <v>316233.8743501829</v>
+        <v>353650.8779501831</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C83" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D83" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E83" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F83" t="n">
-        <v>1494.907</v>
+        <v>458.732</v>
       </c>
       <c r="G83" t="n">
-        <v>316233.8743501829</v>
+        <v>353192.145950183</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C84" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D84" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E84" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F84" t="n">
-        <v>1.0264</v>
+        <v>1926.51</v>
       </c>
       <c r="G84" t="n">
-        <v>316234.9007501829</v>
+        <v>355118.655950183</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C85" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D85" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E85" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F85" t="n">
-        <v>1.098</v>
+        <v>2204.3207</v>
       </c>
       <c r="G85" t="n">
-        <v>316234.9007501829</v>
+        <v>357322.976650183</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C86" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D86" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E86" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F86" t="n">
-        <v>2140.3857</v>
+        <v>366</v>
       </c>
       <c r="G86" t="n">
-        <v>316234.9007501829</v>
+        <v>356956.976650183</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C87" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D87" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E87" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F87" t="n">
-        <v>1.5585</v>
+        <v>1.3047</v>
       </c>
       <c r="G87" t="n">
-        <v>316236.4592501828</v>
+        <v>356958.281350183</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,35 +3534,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C88" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E88" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>2868.7612</v>
       </c>
       <c r="G88" t="n">
-        <v>316236.4592501828</v>
+        <v>354089.520150183</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>205</v>
-      </c>
-      <c r="K88" t="n">
-        <v>205</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3574,40 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C89" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D89" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E89" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F89" t="n">
-        <v>8.824299999999999</v>
+        <v>491.042</v>
       </c>
       <c r="G89" t="n">
-        <v>316236.4592501828</v>
+        <v>354580.562150183</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>205</v>
-      </c>
-      <c r="K89" t="n">
-        <v>205</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3618,40 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C90" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D90" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E90" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F90" t="n">
-        <v>48.7804</v>
+        <v>2275.7198</v>
       </c>
       <c r="G90" t="n">
-        <v>316236.4592501828</v>
+        <v>356856.281950183</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>205</v>
-      </c>
-      <c r="K90" t="n">
-        <v>205</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3662,35 +3642,31 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C91" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D91" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E91" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F91" t="n">
-        <v>319.1257</v>
+        <v>968.2791</v>
       </c>
       <c r="G91" t="n">
-        <v>316236.4592501828</v>
+        <v>357824.561050183</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>205</v>
-      </c>
-      <c r="K91" t="n">
-        <v>205</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
@@ -3702,40 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C92" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D92" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E92" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F92" t="n">
-        <v>3269.8424352657</v>
+        <v>39.1427</v>
       </c>
       <c r="G92" t="n">
-        <v>319506.3016854486</v>
+        <v>357824.561050183</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>205</v>
-      </c>
-      <c r="K92" t="n">
-        <v>205</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3746,40 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C93" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D93" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E93" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F93" t="n">
-        <v>15.1919</v>
+        <v>7514.1153</v>
       </c>
       <c r="G93" t="n">
-        <v>319491.1097854486</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>207</v>
-      </c>
-      <c r="K93" t="n">
-        <v>205</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3790,40 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C94" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D94" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E94" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F94" t="n">
-        <v>49.5049</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>319540.6146854486</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>202</v>
-      </c>
-      <c r="K94" t="n">
-        <v>205</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3846,28 +3798,20 @@
         <v>206</v>
       </c>
       <c r="F95" t="n">
-        <v>48.3091</v>
+        <v>758.1639</v>
       </c>
       <c r="G95" t="n">
-        <v>319492.3055854486</v>
+        <v>350310.445750183</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>207</v>
-      </c>
-      <c r="K95" t="n">
-        <v>205</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3878,40 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C96" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D96" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E96" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F96" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>319492.3055854486</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>206</v>
-      </c>
-      <c r="K96" t="n">
-        <v>205</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3922,40 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C97" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D97" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E97" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F97" t="n">
-        <v>22.0339</v>
+        <v>1290.8212</v>
       </c>
       <c r="G97" t="n">
-        <v>319492.3055854486</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>206</v>
-      </c>
-      <c r="K97" t="n">
-        <v>205</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3966,40 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C98" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D98" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E98" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F98" t="n">
-        <v>1.9414</v>
+        <v>3224.2028</v>
       </c>
       <c r="G98" t="n">
-        <v>319490.3641854486</v>
+        <v>350311.445750183</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>206</v>
-      </c>
-      <c r="K98" t="n">
-        <v>205</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4022,28 +3942,20 @@
         <v>206</v>
       </c>
       <c r="F99" t="n">
-        <v>3.0992</v>
+        <v>260.9299</v>
       </c>
       <c r="G99" t="n">
-        <v>319493.4633854486</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>205</v>
-      </c>
-      <c r="K99" t="n">
-        <v>205</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4066,28 +3978,20 @@
         <v>206</v>
       </c>
       <c r="F100" t="n">
-        <v>2130.7165</v>
+        <v>519.5312</v>
       </c>
       <c r="G100" t="n">
-        <v>319493.4633854486</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>206</v>
-      </c>
-      <c r="K100" t="n">
-        <v>205</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4098,40 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C101" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D101" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E101" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F101" t="n">
-        <v>8352.2186</v>
+        <v>239.679</v>
       </c>
       <c r="G101" t="n">
-        <v>327845.6819854486</v>
+        <v>350050.515850183</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>206</v>
-      </c>
-      <c r="K101" t="n">
-        <v>205</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4142,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D102" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E102" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F102" t="n">
-        <v>4010</v>
+        <v>351.6975</v>
       </c>
       <c r="G102" t="n">
-        <v>331855.6819854486</v>
+        <v>349698.818350183</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>208</v>
-      </c>
-      <c r="K102" t="n">
-        <v>205</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4186,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C103" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D103" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E103" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F103" t="n">
-        <v>21</v>
+        <v>2203.0898</v>
       </c>
       <c r="G103" t="n">
-        <v>331876.6819854486</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4210,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>205</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4228,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C104" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D104" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E104" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F104" t="n">
-        <v>4010</v>
+        <v>1797.9102</v>
       </c>
       <c r="G104" t="n">
-        <v>331876.6819854486</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4252,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>205</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4270,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C105" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D105" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E105" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F105" t="n">
-        <v>4716.9811</v>
+        <v>1297.446</v>
       </c>
       <c r="G105" t="n">
-        <v>331876.6819854486</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4294,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>205</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4312,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C106" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D106" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E106" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F106" t="n">
-        <v>2856.2295</v>
+        <v>11486.5753</v>
       </c>
       <c r="G106" t="n">
-        <v>331876.6819854486</v>
+        <v>347495.728550183</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4336,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>205</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C107" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D107" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E107" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F107" t="n">
-        <v>1031.9152</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>332908.5971854486</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4378,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>205</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4396,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C108" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D108" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E108" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F108" t="n">
-        <v>318.2399</v>
+        <v>186.0636</v>
       </c>
       <c r="G108" t="n">
-        <v>333226.8370854486</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4420,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>205</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4438,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C109" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D109" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E109" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F109" t="n">
-        <v>9124.5383</v>
+        <v>248.3378</v>
       </c>
       <c r="G109" t="n">
-        <v>333226.8370854486</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4462,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>205</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4480,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C110" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D110" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E110" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F110" t="n">
-        <v>3681.6715</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>333226.8370854486</v>
+        <v>348327.496450183</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4504,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>205</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4522,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C111" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D111" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E111" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>1.235</v>
       </c>
       <c r="G111" t="n">
-        <v>333236.8370854486</v>
+        <v>348328.731450183</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4546,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>205</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C112" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D112" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E112" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F112" t="n">
-        <v>1518.4957</v>
+        <v>14</v>
       </c>
       <c r="G112" t="n">
-        <v>334755.3327854486</v>
+        <v>348314.731450183</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4588,14 +4422,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>205</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4606,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C113" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D113" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E113" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F113" t="n">
-        <v>900.5802</v>
+        <v>641.3925</v>
       </c>
       <c r="G113" t="n">
-        <v>334755.3327854486</v>
+        <v>347673.338950183</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4630,14 +4458,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>205</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4648,40 +4470,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C114" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D114" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E114" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F114" t="n">
-        <v>5857.5168</v>
+        <v>1.148</v>
       </c>
       <c r="G114" t="n">
-        <v>340612.8495854486</v>
+        <v>347674.4869501829</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>205</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>1.048658536585366</v>
+        <v>1</v>
       </c>
       <c r="N114" t="inlineStr"/>
     </row>
@@ -4690,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C115" t="n">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D115" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E115" t="n">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F115" t="n">
-        <v>3502.8982</v>
+        <v>3214.3736</v>
       </c>
       <c r="G115" t="n">
-        <v>337109.9513854486</v>
+        <v>344460.1133501829</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4726,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C116" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D116" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E116" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F116" t="n">
-        <v>851.9963</v>
+        <v>4015.8168</v>
       </c>
       <c r="G116" t="n">
-        <v>337109.9513854486</v>
+        <v>340444.296550183</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4762,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C117" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D117" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E117" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F117" t="n">
-        <v>32.2255</v>
+        <v>18445.4693</v>
       </c>
       <c r="G117" t="n">
-        <v>337109.9513854486</v>
+        <v>321998.827250183</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4798,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C118" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D118" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E118" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F118" t="n">
-        <v>64.813</v>
+        <v>1.0487</v>
       </c>
       <c r="G118" t="n">
-        <v>337045.1383854485</v>
+        <v>321999.875950183</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4834,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C119" t="n">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D119" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E119" t="n">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F119" t="n">
-        <v>2211.2715</v>
+        <v>435.2966</v>
       </c>
       <c r="G119" t="n">
-        <v>334833.8668854486</v>
+        <v>321564.579350183</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4870,36 +4686,3060 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C120" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D120" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E120" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F120" t="n">
-        <v>583.4672</v>
+        <v>677.866</v>
       </c>
       <c r="G120" t="n">
-        <v>335417.3340854486</v>
+        <v>322242.4453501829</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>199</v>
+      </c>
+      <c r="K120" t="n">
+        <v>199</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>201</v>
+      </c>
+      <c r="C121" t="n">
+        <v>206</v>
+      </c>
+      <c r="D121" t="n">
+        <v>206</v>
+      </c>
+      <c r="E121" t="n">
+        <v>201</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2126</v>
+      </c>
+      <c r="G121" t="n">
+        <v>324368.4453501829</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>200</v>
+      </c>
+      <c r="K121" t="n">
+        <v>199</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>205</v>
+      </c>
+      <c r="C122" t="n">
+        <v>205</v>
+      </c>
+      <c r="D122" t="n">
+        <v>205</v>
+      </c>
+      <c r="E122" t="n">
+        <v>205</v>
+      </c>
+      <c r="F122" t="n">
+        <v>127</v>
+      </c>
+      <c r="G122" t="n">
+        <v>324241.4453501829</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>199</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>205</v>
+      </c>
+      <c r="C123" t="n">
+        <v>205</v>
+      </c>
+      <c r="D123" t="n">
+        <v>205</v>
+      </c>
+      <c r="E123" t="n">
+        <v>205</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" t="n">
+        <v>324241.4453501829</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>205</v>
+      </c>
+      <c r="K123" t="n">
+        <v>205</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>205</v>
+      </c>
+      <c r="C124" t="n">
+        <v>202</v>
+      </c>
+      <c r="D124" t="n">
+        <v>205</v>
+      </c>
+      <c r="E124" t="n">
+        <v>202</v>
+      </c>
+      <c r="F124" t="n">
+        <v>114</v>
+      </c>
+      <c r="G124" t="n">
+        <v>324127.4453501829</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>205</v>
+      </c>
+      <c r="K124" t="n">
+        <v>205</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>204</v>
+      </c>
+      <c r="C125" t="n">
+        <v>206</v>
+      </c>
+      <c r="D125" t="n">
+        <v>206</v>
+      </c>
+      <c r="E125" t="n">
+        <v>204</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17</v>
+      </c>
+      <c r="G125" t="n">
+        <v>324144.4453501829</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>202</v>
+      </c>
+      <c r="K125" t="n">
+        <v>205</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>205</v>
+      </c>
+      <c r="C126" t="n">
+        <v>202</v>
+      </c>
+      <c r="D126" t="n">
+        <v>205</v>
+      </c>
+      <c r="E126" t="n">
+        <v>202</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2042</v>
+      </c>
+      <c r="G126" t="n">
+        <v>322102.4453501829</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>205</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>202</v>
+      </c>
+      <c r="C127" t="n">
+        <v>202</v>
+      </c>
+      <c r="D127" t="n">
+        <v>202</v>
+      </c>
+      <c r="E127" t="n">
+        <v>202</v>
+      </c>
+      <c r="F127" t="n">
+        <v>388.7981</v>
+      </c>
+      <c r="G127" t="n">
+        <v>322102.4453501829</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>205</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>203</v>
+      </c>
+      <c r="C128" t="n">
+        <v>203</v>
+      </c>
+      <c r="D128" t="n">
+        <v>203</v>
+      </c>
+      <c r="E128" t="n">
+        <v>203</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25.9935</v>
+      </c>
+      <c r="G128" t="n">
+        <v>322128.4388501829</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>205</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>203</v>
+      </c>
+      <c r="C129" t="n">
+        <v>203</v>
+      </c>
+      <c r="D129" t="n">
+        <v>203</v>
+      </c>
+      <c r="E129" t="n">
+        <v>203</v>
+      </c>
+      <c r="F129" t="n">
+        <v>154.2534</v>
+      </c>
+      <c r="G129" t="n">
+        <v>322128.4388501829</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>203</v>
+      </c>
+      <c r="K129" t="n">
+        <v>205</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>202</v>
+      </c>
+      <c r="C130" t="n">
+        <v>202</v>
+      </c>
+      <c r="D130" t="n">
+        <v>202</v>
+      </c>
+      <c r="E130" t="n">
+        <v>202</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1990.3823</v>
+      </c>
+      <c r="G130" t="n">
+        <v>320138.0565501829</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>205</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>202</v>
+      </c>
+      <c r="C131" t="n">
+        <v>202</v>
+      </c>
+      <c r="D131" t="n">
+        <v>202</v>
+      </c>
+      <c r="E131" t="n">
+        <v>202</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>320138.0565501829</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>202</v>
+      </c>
+      <c r="K131" t="n">
+        <v>205</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>202</v>
+      </c>
+      <c r="C132" t="n">
+        <v>202</v>
+      </c>
+      <c r="D132" t="n">
+        <v>202</v>
+      </c>
+      <c r="E132" t="n">
+        <v>202</v>
+      </c>
+      <c r="F132" t="n">
+        <v>612.9063</v>
+      </c>
+      <c r="G132" t="n">
+        <v>320138.0565501829</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>202</v>
+      </c>
+      <c r="K132" t="n">
+        <v>205</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>203</v>
+      </c>
+      <c r="C133" t="n">
+        <v>203</v>
+      </c>
+      <c r="D133" t="n">
+        <v>203</v>
+      </c>
+      <c r="E133" t="n">
+        <v>203</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0628</v>
+      </c>
+      <c r="G133" t="n">
+        <v>320139.1193501829</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>202</v>
+      </c>
+      <c r="K133" t="n">
+        <v>205</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>202</v>
+      </c>
+      <c r="C134" t="n">
+        <v>199</v>
+      </c>
+      <c r="D134" t="n">
+        <v>202</v>
+      </c>
+      <c r="E134" t="n">
+        <v>199</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3409.6398</v>
+      </c>
+      <c r="G134" t="n">
+        <v>316729.4795501829</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>205</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>199</v>
+      </c>
+      <c r="C135" t="n">
+        <v>199</v>
+      </c>
+      <c r="D135" t="n">
+        <v>199</v>
+      </c>
+      <c r="E135" t="n">
+        <v>199</v>
+      </c>
+      <c r="F135" t="n">
+        <v>264.9141</v>
+      </c>
+      <c r="G135" t="n">
+        <v>316729.4795501829</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>199</v>
+      </c>
+      <c r="K135" t="n">
+        <v>205</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>199</v>
+      </c>
+      <c r="C136" t="n">
+        <v>199</v>
+      </c>
+      <c r="D136" t="n">
+        <v>199</v>
+      </c>
+      <c r="E136" t="n">
+        <v>199</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.5642</v>
+      </c>
+      <c r="G136" t="n">
+        <v>316729.4795501829</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>199</v>
+      </c>
+      <c r="K136" t="n">
+        <v>205</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>203</v>
+      </c>
+      <c r="C137" t="n">
+        <v>203</v>
+      </c>
+      <c r="D137" t="n">
+        <v>203</v>
+      </c>
+      <c r="E137" t="n">
+        <v>203</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.7167</v>
+      </c>
+      <c r="G137" t="n">
+        <v>316731.1962501829</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>199</v>
+      </c>
+      <c r="K137" t="n">
+        <v>205</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>200</v>
+      </c>
+      <c r="C138" t="n">
+        <v>200</v>
+      </c>
+      <c r="D138" t="n">
+        <v>200</v>
+      </c>
+      <c r="E138" t="n">
+        <v>200</v>
+      </c>
+      <c r="F138" t="n">
+        <v>158.7047</v>
+      </c>
+      <c r="G138" t="n">
+        <v>316572.4915501829</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>203</v>
+      </c>
+      <c r="K138" t="n">
+        <v>205</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>200</v>
+      </c>
+      <c r="C139" t="n">
+        <v>203</v>
+      </c>
+      <c r="D139" t="n">
+        <v>203</v>
+      </c>
+      <c r="E139" t="n">
+        <v>200</v>
+      </c>
+      <c r="F139" t="n">
+        <v>21.6361</v>
+      </c>
+      <c r="G139" t="n">
+        <v>316594.1276501829</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>200</v>
+      </c>
+      <c r="K139" t="n">
+        <v>205</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>200</v>
+      </c>
+      <c r="C140" t="n">
+        <v>200</v>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>200</v>
+      </c>
+      <c r="F140" t="n">
+        <v>356.8301</v>
+      </c>
+      <c r="G140" t="n">
+        <v>316237.2975501829</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>203</v>
+      </c>
+      <c r="K140" t="n">
+        <v>205</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>203</v>
+      </c>
+      <c r="C141" t="n">
+        <v>203</v>
+      </c>
+      <c r="D141" t="n">
+        <v>203</v>
+      </c>
+      <c r="E141" t="n">
+        <v>203</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.8334</v>
+      </c>
+      <c r="G141" t="n">
+        <v>316239.1309501829</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>200</v>
+      </c>
+      <c r="K141" t="n">
+        <v>205</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>200</v>
+      </c>
+      <c r="C142" t="n">
+        <v>203</v>
+      </c>
+      <c r="D142" t="n">
+        <v>203</v>
+      </c>
+      <c r="E142" t="n">
+        <v>199</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6492.7262</v>
+      </c>
+      <c r="G142" t="n">
+        <v>316239.1309501829</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>203</v>
+      </c>
+      <c r="K142" t="n">
+        <v>205</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>199</v>
+      </c>
+      <c r="C143" t="n">
+        <v>199</v>
+      </c>
+      <c r="D143" t="n">
+        <v>199</v>
+      </c>
+      <c r="E143" t="n">
+        <v>199</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.0848</v>
+      </c>
+      <c r="G143" t="n">
+        <v>316237.0461501829</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>203</v>
+      </c>
+      <c r="K143" t="n">
+        <v>205</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>203</v>
+      </c>
+      <c r="C144" t="n">
+        <v>203</v>
+      </c>
+      <c r="D144" t="n">
+        <v>203</v>
+      </c>
+      <c r="E144" t="n">
+        <v>203</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.4852</v>
+      </c>
+      <c r="G144" t="n">
+        <v>316238.5313501829</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>199</v>
+      </c>
+      <c r="K144" t="n">
+        <v>205</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>203</v>
+      </c>
+      <c r="C145" t="n">
+        <v>203</v>
+      </c>
+      <c r="D145" t="n">
+        <v>203</v>
+      </c>
+      <c r="E145" t="n">
+        <v>203</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>316238.5313501829</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>203</v>
+      </c>
+      <c r="K145" t="n">
+        <v>205</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>203</v>
+      </c>
+      <c r="C146" t="n">
+        <v>203</v>
+      </c>
+      <c r="D146" t="n">
+        <v>203</v>
+      </c>
+      <c r="E146" t="n">
+        <v>203</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>316238.5313501829</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>203</v>
+      </c>
+      <c r="K146" t="n">
+        <v>205</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>203</v>
+      </c>
+      <c r="C147" t="n">
+        <v>203</v>
+      </c>
+      <c r="D147" t="n">
+        <v>203</v>
+      </c>
+      <c r="E147" t="n">
+        <v>203</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6</v>
+      </c>
+      <c r="G147" t="n">
+        <v>316238.5313501829</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>203</v>
+      </c>
+      <c r="K147" t="n">
+        <v>205</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>201</v>
+      </c>
+      <c r="C148" t="n">
+        <v>201</v>
+      </c>
+      <c r="D148" t="n">
+        <v>201</v>
+      </c>
+      <c r="E148" t="n">
+        <v>201</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6</v>
+      </c>
+      <c r="G148" t="n">
+        <v>316232.5313501829</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>203</v>
+      </c>
+      <c r="K148" t="n">
+        <v>205</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>201</v>
+      </c>
+      <c r="C149" t="n">
+        <v>201</v>
+      </c>
+      <c r="D149" t="n">
+        <v>201</v>
+      </c>
+      <c r="E149" t="n">
+        <v>201</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>316232.5313501829</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>201</v>
+      </c>
+      <c r="K149" t="n">
+        <v>205</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>201</v>
+      </c>
+      <c r="C150" t="n">
+        <v>201</v>
+      </c>
+      <c r="D150" t="n">
+        <v>201</v>
+      </c>
+      <c r="E150" t="n">
+        <v>201</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.3034</v>
+      </c>
+      <c r="G150" t="n">
+        <v>316232.5313501829</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>201</v>
+      </c>
+      <c r="K150" t="n">
+        <v>205</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>201</v>
+      </c>
+      <c r="C151" t="n">
+        <v>201</v>
+      </c>
+      <c r="D151" t="n">
+        <v>201</v>
+      </c>
+      <c r="E151" t="n">
+        <v>201</v>
+      </c>
+      <c r="F151" t="n">
+        <v>796</v>
+      </c>
+      <c r="G151" t="n">
+        <v>316232.5313501829</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>201</v>
+      </c>
+      <c r="K151" t="n">
+        <v>205</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>201</v>
+      </c>
+      <c r="C152" t="n">
+        <v>201</v>
+      </c>
+      <c r="D152" t="n">
+        <v>201</v>
+      </c>
+      <c r="E152" t="n">
+        <v>201</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9083</v>
+      </c>
+      <c r="G152" t="n">
+        <v>316232.5313501829</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>201</v>
+      </c>
+      <c r="K152" t="n">
+        <v>205</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>202</v>
+      </c>
+      <c r="C153" t="n">
+        <v>202</v>
+      </c>
+      <c r="D153" t="n">
+        <v>202</v>
+      </c>
+      <c r="E153" t="n">
+        <v>202</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="G153" t="n">
+        <v>316233.8743501829</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>201</v>
+      </c>
+      <c r="K153" t="n">
+        <v>205</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>202</v>
+      </c>
+      <c r="C154" t="n">
+        <v>202</v>
+      </c>
+      <c r="D154" t="n">
+        <v>202</v>
+      </c>
+      <c r="E154" t="n">
+        <v>202</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1494.907</v>
+      </c>
+      <c r="G154" t="n">
+        <v>316233.8743501829</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>202</v>
+      </c>
+      <c r="K154" t="n">
+        <v>205</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>204</v>
+      </c>
+      <c r="C155" t="n">
+        <v>204</v>
+      </c>
+      <c r="D155" t="n">
+        <v>204</v>
+      </c>
+      <c r="E155" t="n">
+        <v>204</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.0264</v>
+      </c>
+      <c r="G155" t="n">
+        <v>316234.9007501829</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>202</v>
+      </c>
+      <c r="K155" t="n">
+        <v>205</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>204</v>
+      </c>
+      <c r="C156" t="n">
+        <v>204</v>
+      </c>
+      <c r="D156" t="n">
+        <v>204</v>
+      </c>
+      <c r="E156" t="n">
+        <v>204</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G156" t="n">
+        <v>316234.9007501829</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>204</v>
+      </c>
+      <c r="K156" t="n">
+        <v>205</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>204</v>
+      </c>
+      <c r="C157" t="n">
+        <v>204</v>
+      </c>
+      <c r="D157" t="n">
+        <v>204</v>
+      </c>
+      <c r="E157" t="n">
+        <v>204</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2140.3857</v>
+      </c>
+      <c r="G157" t="n">
+        <v>316234.9007501829</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>204</v>
+      </c>
+      <c r="K157" t="n">
+        <v>205</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>205</v>
+      </c>
+      <c r="C158" t="n">
+        <v>205</v>
+      </c>
+      <c r="D158" t="n">
+        <v>205</v>
+      </c>
+      <c r="E158" t="n">
+        <v>205</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.5585</v>
+      </c>
+      <c r="G158" t="n">
+        <v>316236.4592501828</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>204</v>
+      </c>
+      <c r="K158" t="n">
+        <v>205</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>205</v>
+      </c>
+      <c r="C159" t="n">
+        <v>205</v>
+      </c>
+      <c r="D159" t="n">
+        <v>205</v>
+      </c>
+      <c r="E159" t="n">
+        <v>205</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>316236.4592501828</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>205</v>
+      </c>
+      <c r="K159" t="n">
+        <v>205</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>205</v>
+      </c>
+      <c r="C160" t="n">
+        <v>205</v>
+      </c>
+      <c r="D160" t="n">
+        <v>205</v>
+      </c>
+      <c r="E160" t="n">
+        <v>205</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8.824299999999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>316236.4592501828</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>205</v>
+      </c>
+      <c r="K160" t="n">
+        <v>205</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>205</v>
+      </c>
+      <c r="C161" t="n">
+        <v>205</v>
+      </c>
+      <c r="D161" t="n">
+        <v>205</v>
+      </c>
+      <c r="E161" t="n">
+        <v>205</v>
+      </c>
+      <c r="F161" t="n">
+        <v>48.7804</v>
+      </c>
+      <c r="G161" t="n">
+        <v>316236.4592501828</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>205</v>
+      </c>
+      <c r="K161" t="n">
+        <v>205</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>205</v>
+      </c>
+      <c r="C162" t="n">
+        <v>205</v>
+      </c>
+      <c r="D162" t="n">
+        <v>205</v>
+      </c>
+      <c r="E162" t="n">
+        <v>205</v>
+      </c>
+      <c r="F162" t="n">
+        <v>319.1257</v>
+      </c>
+      <c r="G162" t="n">
+        <v>316236.4592501828</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>205</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>205</v>
+      </c>
+      <c r="C163" t="n">
+        <v>207</v>
+      </c>
+      <c r="D163" t="n">
+        <v>207</v>
+      </c>
+      <c r="E163" t="n">
+        <v>205</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3269.8424352657</v>
+      </c>
+      <c r="G163" t="n">
+        <v>319506.3016854486</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>205</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>202</v>
+      </c>
+      <c r="C164" t="n">
+        <v>202</v>
+      </c>
+      <c r="D164" t="n">
+        <v>202</v>
+      </c>
+      <c r="E164" t="n">
+        <v>202</v>
+      </c>
+      <c r="F164" t="n">
+        <v>15.1919</v>
+      </c>
+      <c r="G164" t="n">
+        <v>319491.1097854486</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>205</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>207</v>
+      </c>
+      <c r="C165" t="n">
+        <v>207</v>
+      </c>
+      <c r="D165" t="n">
+        <v>207</v>
+      </c>
+      <c r="E165" t="n">
+        <v>207</v>
+      </c>
+      <c r="F165" t="n">
+        <v>49.5049</v>
+      </c>
+      <c r="G165" t="n">
+        <v>319540.6146854486</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>205</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>206</v>
+      </c>
+      <c r="C166" t="n">
+        <v>206</v>
+      </c>
+      <c r="D166" t="n">
+        <v>206</v>
+      </c>
+      <c r="E166" t="n">
+        <v>206</v>
+      </c>
+      <c r="F166" t="n">
+        <v>48.3091</v>
+      </c>
+      <c r="G166" t="n">
+        <v>319492.3055854486</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>205</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>206</v>
+      </c>
+      <c r="C167" t="n">
+        <v>206</v>
+      </c>
+      <c r="D167" t="n">
+        <v>206</v>
+      </c>
+      <c r="E167" t="n">
+        <v>206</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>319492.3055854486</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>205</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>206</v>
+      </c>
+      <c r="C168" t="n">
+        <v>206</v>
+      </c>
+      <c r="D168" t="n">
+        <v>206</v>
+      </c>
+      <c r="E168" t="n">
+        <v>206</v>
+      </c>
+      <c r="F168" t="n">
+        <v>22.0339</v>
+      </c>
+      <c r="G168" t="n">
+        <v>319492.3055854486</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>205</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>205</v>
+      </c>
+      <c r="C169" t="n">
+        <v>205</v>
+      </c>
+      <c r="D169" t="n">
+        <v>205</v>
+      </c>
+      <c r="E169" t="n">
+        <v>205</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.9414</v>
+      </c>
+      <c r="G169" t="n">
+        <v>319490.3641854486</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>205</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>206</v>
+      </c>
+      <c r="C170" t="n">
+        <v>206</v>
+      </c>
+      <c r="D170" t="n">
+        <v>206</v>
+      </c>
+      <c r="E170" t="n">
+        <v>206</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3.0992</v>
+      </c>
+      <c r="G170" t="n">
+        <v>319493.4633854486</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>205</v>
+      </c>
+      <c r="K170" t="n">
+        <v>205</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>206</v>
+      </c>
+      <c r="C171" t="n">
+        <v>206</v>
+      </c>
+      <c r="D171" t="n">
+        <v>206</v>
+      </c>
+      <c r="E171" t="n">
+        <v>206</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2130.7165</v>
+      </c>
+      <c r="G171" t="n">
+        <v>319493.4633854486</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>205</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>207</v>
+      </c>
+      <c r="C172" t="n">
+        <v>208</v>
+      </c>
+      <c r="D172" t="n">
+        <v>208</v>
+      </c>
+      <c r="E172" t="n">
+        <v>207</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8352.2186</v>
+      </c>
+      <c r="G172" t="n">
+        <v>327845.6819854486</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>206</v>
+      </c>
+      <c r="K172" t="n">
+        <v>205</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>209</v>
+      </c>
+      <c r="C173" t="n">
+        <v>209</v>
+      </c>
+      <c r="D173" t="n">
+        <v>209</v>
+      </c>
+      <c r="E173" t="n">
+        <v>209</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G173" t="n">
+        <v>331855.6819854486</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>205</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>210</v>
+      </c>
+      <c r="C174" t="n">
+        <v>210</v>
+      </c>
+      <c r="D174" t="n">
+        <v>210</v>
+      </c>
+      <c r="E174" t="n">
+        <v>210</v>
+      </c>
+      <c r="F174" t="n">
+        <v>21</v>
+      </c>
+      <c r="G174" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>205</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>210</v>
+      </c>
+      <c r="C175" t="n">
+        <v>210</v>
+      </c>
+      <c r="D175" t="n">
+        <v>210</v>
+      </c>
+      <c r="E175" t="n">
+        <v>210</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G175" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>205</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>210</v>
+      </c>
+      <c r="C176" t="n">
+        <v>210</v>
+      </c>
+      <c r="D176" t="n">
+        <v>210</v>
+      </c>
+      <c r="E176" t="n">
+        <v>210</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4716.9811</v>
+      </c>
+      <c r="G176" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>205</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>210</v>
+      </c>
+      <c r="C177" t="n">
+        <v>210</v>
+      </c>
+      <c r="D177" t="n">
+        <v>210</v>
+      </c>
+      <c r="E177" t="n">
+        <v>210</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2856.2295</v>
+      </c>
+      <c r="G177" t="n">
+        <v>331876.6819854486</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>205</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>210</v>
+      </c>
+      <c r="C178" t="n">
+        <v>211</v>
+      </c>
+      <c r="D178" t="n">
+        <v>211</v>
+      </c>
+      <c r="E178" t="n">
+        <v>210</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1031.9152</v>
+      </c>
+      <c r="G178" t="n">
+        <v>332908.5971854486</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>205</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>212</v>
+      </c>
+      <c r="C179" t="n">
+        <v>212</v>
+      </c>
+      <c r="D179" t="n">
+        <v>212</v>
+      </c>
+      <c r="E179" t="n">
+        <v>212</v>
+      </c>
+      <c r="F179" t="n">
+        <v>318.2399</v>
+      </c>
+      <c r="G179" t="n">
+        <v>333226.8370854486</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>205</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>212</v>
+      </c>
+      <c r="C180" t="n">
+        <v>212</v>
+      </c>
+      <c r="D180" t="n">
+        <v>212</v>
+      </c>
+      <c r="E180" t="n">
+        <v>212</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9124.5383</v>
+      </c>
+      <c r="G180" t="n">
+        <v>333226.8370854486</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>205</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>212</v>
+      </c>
+      <c r="C181" t="n">
+        <v>212</v>
+      </c>
+      <c r="D181" t="n">
+        <v>212</v>
+      </c>
+      <c r="E181" t="n">
+        <v>212</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3681.6715</v>
+      </c>
+      <c r="G181" t="n">
+        <v>333226.8370854486</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>205</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>213</v>
+      </c>
+      <c r="C182" t="n">
+        <v>213</v>
+      </c>
+      <c r="D182" t="n">
+        <v>213</v>
+      </c>
+      <c r="E182" t="n">
+        <v>213</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10</v>
+      </c>
+      <c r="G182" t="n">
+        <v>333236.8370854486</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>205</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>214</v>
+      </c>
+      <c r="C183" t="n">
+        <v>214</v>
+      </c>
+      <c r="D183" t="n">
+        <v>214</v>
+      </c>
+      <c r="E183" t="n">
+        <v>214</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1518.4957</v>
+      </c>
+      <c r="G183" t="n">
+        <v>334755.3327854486</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>205</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>214</v>
+      </c>
+      <c r="C184" t="n">
+        <v>214</v>
+      </c>
+      <c r="D184" t="n">
+        <v>214</v>
+      </c>
+      <c r="E184" t="n">
+        <v>214</v>
+      </c>
+      <c r="F184" t="n">
+        <v>900.5802</v>
+      </c>
+      <c r="G184" t="n">
+        <v>334755.3327854486</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>205</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>215</v>
+      </c>
+      <c r="C185" t="n">
+        <v>216</v>
+      </c>
+      <c r="D185" t="n">
+        <v>216</v>
+      </c>
+      <c r="E185" t="n">
+        <v>215</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5857.5168</v>
+      </c>
+      <c r="G185" t="n">
+        <v>340612.8495854486</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>205</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1.048658536585366</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>217</v>
+      </c>
+      <c r="C186" t="n">
+        <v>215</v>
+      </c>
+      <c r="D186" t="n">
+        <v>217</v>
+      </c>
+      <c r="E186" t="n">
+        <v>215</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3502.8982</v>
+      </c>
+      <c r="G186" t="n">
+        <v>337109.9513854486</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>215</v>
+      </c>
+      <c r="C187" t="n">
+        <v>215</v>
+      </c>
+      <c r="D187" t="n">
+        <v>215</v>
+      </c>
+      <c r="E187" t="n">
+        <v>215</v>
+      </c>
+      <c r="F187" t="n">
+        <v>851.9963</v>
+      </c>
+      <c r="G187" t="n">
+        <v>337109.9513854486</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>215</v>
+      </c>
+      <c r="C188" t="n">
+        <v>215</v>
+      </c>
+      <c r="D188" t="n">
+        <v>215</v>
+      </c>
+      <c r="E188" t="n">
+        <v>215</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32.2255</v>
+      </c>
+      <c r="G188" t="n">
+        <v>337109.9513854486</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>214</v>
+      </c>
+      <c r="C189" t="n">
+        <v>214</v>
+      </c>
+      <c r="D189" t="n">
+        <v>214</v>
+      </c>
+      <c r="E189" t="n">
+        <v>214</v>
+      </c>
+      <c r="F189" t="n">
+        <v>64.813</v>
+      </c>
+      <c r="G189" t="n">
+        <v>337045.1383854485</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>213</v>
+      </c>
+      <c r="C190" t="n">
+        <v>213</v>
+      </c>
+      <c r="D190" t="n">
+        <v>213</v>
+      </c>
+      <c r="E190" t="n">
+        <v>213</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2211.2715</v>
+      </c>
+      <c r="G190" t="n">
+        <v>334833.8668854486</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>214</v>
+      </c>
+      <c r="C191" t="n">
+        <v>214</v>
+      </c>
+      <c r="D191" t="n">
+        <v>214</v>
+      </c>
+      <c r="E191" t="n">
+        <v>214</v>
+      </c>
+      <c r="F191" t="n">
+        <v>583.4672</v>
+      </c>
+      <c r="G191" t="n">
+        <v>335417.3340854486</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>213</v>
+      </c>
+      <c r="K191" t="n">
+        <v>213</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>266639.5913741788</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>263599.4746741788</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>261390.8633741788</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>272392.7973741788</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>360942.2441512975</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>361132.9497512975</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>361080.3881512975</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>361030.3881512975</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>371483.7875681925</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>368206.6486681925</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,19 @@
         <v>321999.875950183</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="J118" t="n">
+        <v>200</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4318,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>200</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,22 +4355,23 @@
         <v>322242.4453501829</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J120" t="n">
-        <v>199</v>
-      </c>
-      <c r="K120" t="n">
-        <v>199</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4744,26 +4396,21 @@
         <v>324368.4453501829</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>200</v>
       </c>
-      <c r="K121" t="n">
-        <v>199</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4790,22 +4437,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>199</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>200</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,22 +4474,21 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>205</v>
-      </c>
-      <c r="K123" t="n">
-        <v>205</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,26 +4513,23 @@
         <v>324127.4453501829</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J124" t="n">
-        <v>205</v>
-      </c>
-      <c r="K124" t="n">
-        <v>205</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4914,26 +4554,21 @@
         <v>324144.4453501829</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>202</v>
-      </c>
-      <c r="K125" t="n">
-        <v>205</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4960,22 +4595,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>205</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>200</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5002,22 +4634,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>205</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>200</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5044,22 +4673,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>205</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>200</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5084,26 +4710,21 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>203</v>
-      </c>
-      <c r="K129" t="n">
-        <v>205</v>
-      </c>
-      <c r="L129" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5128,24 +4749,23 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>205</v>
-      </c>
-      <c r="L130" t="inlineStr">
+        <v>203</v>
+      </c>
+      <c r="J130" t="n">
+        <v>200</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5170,26 +4790,23 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J131" t="n">
-        <v>202</v>
-      </c>
-      <c r="K131" t="n">
-        <v>205</v>
-      </c>
-      <c r="L131" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5214,26 +4831,23 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J132" t="n">
-        <v>202</v>
-      </c>
-      <c r="K132" t="n">
-        <v>205</v>
-      </c>
-      <c r="L132" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5258,26 +4872,23 @@
         <v>320139.1193501829</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J133" t="n">
-        <v>202</v>
-      </c>
-      <c r="K133" t="n">
-        <v>205</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5302,24 +4913,23 @@
         <v>316729.4795501829</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>205</v>
-      </c>
-      <c r="L134" t="inlineStr">
+        <v>203</v>
+      </c>
+      <c r="J134" t="n">
+        <v>200</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5344,26 +4954,23 @@
         <v>316729.4795501829</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J135" t="n">
-        <v>199</v>
-      </c>
-      <c r="K135" t="n">
-        <v>205</v>
-      </c>
-      <c r="L135" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5388,26 +4995,23 @@
         <v>316729.4795501829</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J136" t="n">
-        <v>199</v>
-      </c>
-      <c r="K136" t="n">
-        <v>205</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5432,26 +5036,23 @@
         <v>316731.1962501829</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J137" t="n">
-        <v>199</v>
-      </c>
-      <c r="K137" t="n">
-        <v>205</v>
-      </c>
-      <c r="L137" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5476,26 +5077,21 @@
         <v>316572.4915501829</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>203</v>
-      </c>
-      <c r="K138" t="n">
-        <v>205</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5520,26 +5116,21 @@
         <v>316594.1276501829</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>200</v>
       </c>
-      <c r="K139" t="n">
-        <v>205</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5564,26 +5155,23 @@
         <v>316237.2975501829</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J140" t="n">
-        <v>203</v>
-      </c>
-      <c r="K140" t="n">
-        <v>205</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5608,26 +5196,21 @@
         <v>316239.1309501829</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>200</v>
       </c>
-      <c r="K141" t="n">
-        <v>205</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5652,26 +5235,23 @@
         <v>316239.1309501829</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J142" t="n">
-        <v>203</v>
-      </c>
-      <c r="K142" t="n">
-        <v>205</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5696,26 +5276,23 @@
         <v>316237.0461501829</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J143" t="n">
-        <v>203</v>
-      </c>
-      <c r="K143" t="n">
-        <v>205</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5740,26 +5317,23 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J144" t="n">
-        <v>199</v>
-      </c>
-      <c r="K144" t="n">
-        <v>205</v>
-      </c>
-      <c r="L144" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5784,26 +5358,23 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J145" t="n">
-        <v>203</v>
-      </c>
-      <c r="K145" t="n">
-        <v>205</v>
-      </c>
-      <c r="L145" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5828,26 +5399,23 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J146" t="n">
-        <v>203</v>
-      </c>
-      <c r="K146" t="n">
-        <v>205</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5872,26 +5440,21 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>203</v>
-      </c>
-      <c r="K147" t="n">
-        <v>205</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5916,26 +5479,21 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>203</v>
-      </c>
-      <c r="K148" t="n">
-        <v>205</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5960,26 +5518,23 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J149" t="n">
-        <v>201</v>
-      </c>
-      <c r="K149" t="n">
-        <v>205</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6004,26 +5559,23 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J150" t="n">
-        <v>201</v>
-      </c>
-      <c r="K150" t="n">
-        <v>205</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6048,26 +5600,23 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J151" t="n">
-        <v>201</v>
-      </c>
-      <c r="K151" t="n">
-        <v>205</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6092,26 +5641,23 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J152" t="n">
-        <v>201</v>
-      </c>
-      <c r="K152" t="n">
-        <v>205</v>
-      </c>
-      <c r="L152" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6136,26 +5682,23 @@
         <v>316233.8743501829</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J153" t="n">
-        <v>201</v>
-      </c>
-      <c r="K153" t="n">
-        <v>205</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6180,26 +5723,23 @@
         <v>316233.8743501829</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J154" t="n">
-        <v>202</v>
-      </c>
-      <c r="K154" t="n">
-        <v>205</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6224,26 +5764,23 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J155" t="n">
-        <v>202</v>
-      </c>
-      <c r="K155" t="n">
-        <v>205</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6268,26 +5805,23 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J156" t="n">
-        <v>204</v>
-      </c>
-      <c r="K156" t="n">
-        <v>205</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6312,26 +5846,23 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J157" t="n">
-        <v>204</v>
-      </c>
-      <c r="K157" t="n">
-        <v>205</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6356,26 +5887,23 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J158" t="n">
-        <v>204</v>
-      </c>
-      <c r="K158" t="n">
-        <v>205</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6400,26 +5928,23 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J159" t="n">
-        <v>205</v>
-      </c>
-      <c r="K159" t="n">
-        <v>205</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6444,26 +5969,21 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>205</v>
-      </c>
-      <c r="K160" t="n">
-        <v>205</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6488,26 +6008,21 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>205</v>
-      </c>
-      <c r="K161" t="n">
-        <v>205</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6534,22 +6049,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>205</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>200</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6576,22 +6088,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>205</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>200</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6618,22 +6127,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>205</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>200</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6660,22 +6166,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>205</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>200</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6702,22 +6205,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>205</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>200</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6744,22 +6244,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>205</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>200</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6786,22 +6283,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>205</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>200</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6828,22 +6322,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>205</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>200</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6868,26 +6359,21 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>205</v>
-      </c>
-      <c r="K170" t="n">
-        <v>205</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6914,22 +6400,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>205</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>200</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6954,26 +6437,21 @@
         <v>327845.6819854486</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>206</v>
-      </c>
-      <c r="K172" t="n">
-        <v>205</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6998,24 +6476,23 @@
         <v>331855.6819854486</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>205</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>208</v>
+      </c>
+      <c r="J173" t="n">
+        <v>200</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7042,22 +6519,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>205</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>200</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7084,22 +6558,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>205</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>200</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7126,22 +6597,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>205</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>200</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7168,22 +6636,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>205</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>200</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7210,22 +6675,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>205</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>200</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7250,24 +6712,23 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>205</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>200</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.055</v>
       </c>
       <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1.145</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7294,22 +6755,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>205</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7334,24 +6786,15 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>205</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7378,22 +6821,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>205</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7418,24 +6852,15 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>205</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7460,24 +6885,15 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>205</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7502,24 +6918,15 @@
         <v>340612.8495854486</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>205</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1.048658536585366</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7544,18 +6951,15 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7580,18 +6984,15 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7616,18 +7017,15 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7652,18 +7050,15 @@
         <v>337045.1383854485</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7688,18 +7083,15 @@
         <v>334833.8668854486</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7724,24 +7116,17 @@
         <v>335417.3340854486</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="n">
-        <v>213</v>
-      </c>
-      <c r="K191" t="n">
-        <v>213</v>
-      </c>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>266639.5913741788</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>263599.4746741788</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>261390.8633741788</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>261390.8633741788</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>272392.7973741788</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>287256.6693727963</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>286555.0411727963</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>284471.1465727963</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>284471.1465727963</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>284480.2233727963</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>284151.0617727963</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>276692.0138727963</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>276692.0138727963</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>282451.1698727963</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>282451.1698727963</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>360942.2441512975</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>361132.9497512975</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>361080.3881512975</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>361030.3881512975</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>358528.0825512975</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>371483.7875681925</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>368206.6486681925</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>368910.4396681925</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>367955.1875681925</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>366391.3438681925</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>358990.3727681925</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>339443.6905681925</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>339444.9936681925</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>338950.0762681926</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>336674.9577681926</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>347488.9677681926</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>347488.9677681926</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>347488.9677681926</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>353668.2547501831</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>353650.8779501831</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>353650.8779501831</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>353650.8779501831</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>357322.976650183</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4279,14 +4279,10 @@
         <v>321999.875950183</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>200</v>
-      </c>
-      <c r="J118" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4319,935 +4315,773 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>200</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="C120" t="n">
+        <v>200</v>
+      </c>
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>200</v>
+      </c>
+      <c r="F120" t="n">
+        <v>677.866</v>
+      </c>
+      <c r="G120" t="n">
+        <v>322242.4453501829</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>201</v>
+      </c>
+      <c r="C121" t="n">
+        <v>206</v>
+      </c>
+      <c r="D121" t="n">
+        <v>206</v>
+      </c>
+      <c r="E121" t="n">
+        <v>201</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2126</v>
+      </c>
+      <c r="G121" t="n">
+        <v>324368.4453501829</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>205</v>
+      </c>
+      <c r="C122" t="n">
+        <v>205</v>
+      </c>
+      <c r="D122" t="n">
+        <v>205</v>
+      </c>
+      <c r="E122" t="n">
+        <v>205</v>
+      </c>
+      <c r="F122" t="n">
+        <v>127</v>
+      </c>
+      <c r="G122" t="n">
+        <v>324241.4453501829</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>205</v>
+      </c>
+      <c r="C123" t="n">
+        <v>205</v>
+      </c>
+      <c r="D123" t="n">
+        <v>205</v>
+      </c>
+      <c r="E123" t="n">
+        <v>205</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" t="n">
+        <v>324241.4453501829</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>205</v>
+      </c>
+      <c r="C124" t="n">
+        <v>202</v>
+      </c>
+      <c r="D124" t="n">
+        <v>205</v>
+      </c>
+      <c r="E124" t="n">
+        <v>202</v>
+      </c>
+      <c r="F124" t="n">
+        <v>114</v>
+      </c>
+      <c r="G124" t="n">
+        <v>324127.4453501829</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>204</v>
+      </c>
+      <c r="C125" t="n">
+        <v>206</v>
+      </c>
+      <c r="D125" t="n">
+        <v>206</v>
+      </c>
+      <c r="E125" t="n">
+        <v>204</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17</v>
+      </c>
+      <c r="G125" t="n">
+        <v>324144.4453501829</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>205</v>
+      </c>
+      <c r="C126" t="n">
+        <v>202</v>
+      </c>
+      <c r="D126" t="n">
+        <v>205</v>
+      </c>
+      <c r="E126" t="n">
+        <v>202</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2042</v>
+      </c>
+      <c r="G126" t="n">
+        <v>322102.4453501829</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>202</v>
+      </c>
+      <c r="C127" t="n">
+        <v>202</v>
+      </c>
+      <c r="D127" t="n">
+        <v>202</v>
+      </c>
+      <c r="E127" t="n">
+        <v>202</v>
+      </c>
+      <c r="F127" t="n">
+        <v>388.7981</v>
+      </c>
+      <c r="G127" t="n">
+        <v>322102.4453501829</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>203</v>
+      </c>
+      <c r="C128" t="n">
+        <v>203</v>
+      </c>
+      <c r="D128" t="n">
+        <v>203</v>
+      </c>
+      <c r="E128" t="n">
+        <v>203</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25.9935</v>
+      </c>
+      <c r="G128" t="n">
+        <v>322128.4388501829</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>203</v>
+      </c>
+      <c r="C129" t="n">
+        <v>203</v>
+      </c>
+      <c r="D129" t="n">
+        <v>203</v>
+      </c>
+      <c r="E129" t="n">
+        <v>203</v>
+      </c>
+      <c r="F129" t="n">
+        <v>154.2534</v>
+      </c>
+      <c r="G129" t="n">
+        <v>322128.4388501829</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>202</v>
+      </c>
+      <c r="C130" t="n">
+        <v>202</v>
+      </c>
+      <c r="D130" t="n">
+        <v>202</v>
+      </c>
+      <c r="E130" t="n">
+        <v>202</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1990.3823</v>
+      </c>
+      <c r="G130" t="n">
+        <v>320138.0565501829</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>202</v>
+      </c>
+      <c r="C131" t="n">
+        <v>202</v>
+      </c>
+      <c r="D131" t="n">
+        <v>202</v>
+      </c>
+      <c r="E131" t="n">
+        <v>202</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>320138.0565501829</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>202</v>
+      </c>
+      <c r="C132" t="n">
+        <v>202</v>
+      </c>
+      <c r="D132" t="n">
+        <v>202</v>
+      </c>
+      <c r="E132" t="n">
+        <v>202</v>
+      </c>
+      <c r="F132" t="n">
+        <v>612.9063</v>
+      </c>
+      <c r="G132" t="n">
+        <v>320138.0565501829</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>203</v>
+      </c>
+      <c r="C133" t="n">
+        <v>203</v>
+      </c>
+      <c r="D133" t="n">
+        <v>203</v>
+      </c>
+      <c r="E133" t="n">
+        <v>203</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0628</v>
+      </c>
+      <c r="G133" t="n">
+        <v>320139.1193501829</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>202</v>
+      </c>
+      <c r="C134" t="n">
+        <v>199</v>
+      </c>
+      <c r="D134" t="n">
+        <v>202</v>
+      </c>
+      <c r="E134" t="n">
+        <v>199</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3409.6398</v>
+      </c>
+      <c r="G134" t="n">
+        <v>316729.4795501829</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>199</v>
+      </c>
+      <c r="C135" t="n">
+        <v>199</v>
+      </c>
+      <c r="D135" t="n">
+        <v>199</v>
+      </c>
+      <c r="E135" t="n">
+        <v>199</v>
+      </c>
+      <c r="F135" t="n">
+        <v>264.9141</v>
+      </c>
+      <c r="G135" t="n">
+        <v>316729.4795501829</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>199</v>
+      </c>
+      <c r="C136" t="n">
+        <v>199</v>
+      </c>
+      <c r="D136" t="n">
+        <v>199</v>
+      </c>
+      <c r="E136" t="n">
+        <v>199</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.5642</v>
+      </c>
+      <c r="G136" t="n">
+        <v>316729.4795501829</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>203</v>
+      </c>
+      <c r="C137" t="n">
+        <v>203</v>
+      </c>
+      <c r="D137" t="n">
+        <v>203</v>
+      </c>
+      <c r="E137" t="n">
+        <v>203</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.7167</v>
+      </c>
+      <c r="G137" t="n">
+        <v>316731.1962501829</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>200</v>
+      </c>
+      <c r="C138" t="n">
+        <v>200</v>
+      </c>
+      <c r="D138" t="n">
+        <v>200</v>
+      </c>
+      <c r="E138" t="n">
+        <v>200</v>
+      </c>
+      <c r="F138" t="n">
+        <v>158.7047</v>
+      </c>
+      <c r="G138" t="n">
+        <v>316572.4915501829</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>200</v>
+      </c>
+      <c r="C139" t="n">
+        <v>203</v>
+      </c>
+      <c r="D139" t="n">
+        <v>203</v>
+      </c>
+      <c r="E139" t="n">
+        <v>200</v>
+      </c>
+      <c r="F139" t="n">
+        <v>21.6361</v>
+      </c>
+      <c r="G139" t="n">
+        <v>316594.1276501829</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>200</v>
+      </c>
+      <c r="C140" t="n">
+        <v>200</v>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>200</v>
+      </c>
+      <c r="F140" t="n">
+        <v>356.8301</v>
+      </c>
+      <c r="G140" t="n">
+        <v>316237.2975501829</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>203</v>
+      </c>
+      <c r="C141" t="n">
+        <v>203</v>
+      </c>
+      <c r="D141" t="n">
+        <v>203</v>
+      </c>
+      <c r="E141" t="n">
+        <v>203</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.8334</v>
+      </c>
+      <c r="G141" t="n">
+        <v>316239.1309501829</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>200</v>
+      </c>
+      <c r="C142" t="n">
+        <v>203</v>
+      </c>
+      <c r="D142" t="n">
+        <v>203</v>
+      </c>
+      <c r="E142" t="n">
+        <v>199</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6492.7262</v>
+      </c>
+      <c r="G142" t="n">
+        <v>316239.1309501829</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>203</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>200</v>
-      </c>
-      <c r="C120" t="n">
-        <v>200</v>
-      </c>
-      <c r="D120" t="n">
-        <v>200</v>
-      </c>
-      <c r="E120" t="n">
-        <v>200</v>
-      </c>
-      <c r="F120" t="n">
-        <v>677.866</v>
-      </c>
-      <c r="G120" t="n">
-        <v>322242.4453501829</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>199</v>
-      </c>
-      <c r="J120" t="n">
-        <v>200</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>201</v>
-      </c>
-      <c r="C121" t="n">
-        <v>206</v>
-      </c>
-      <c r="D121" t="n">
-        <v>206</v>
-      </c>
-      <c r="E121" t="n">
-        <v>201</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2126</v>
-      </c>
-      <c r="G121" t="n">
-        <v>324368.4453501829</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>200</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>205</v>
-      </c>
-      <c r="C122" t="n">
-        <v>205</v>
-      </c>
-      <c r="D122" t="n">
-        <v>205</v>
-      </c>
-      <c r="E122" t="n">
-        <v>205</v>
-      </c>
-      <c r="F122" t="n">
-        <v>127</v>
-      </c>
-      <c r="G122" t="n">
-        <v>324241.4453501829</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>200</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>205</v>
-      </c>
-      <c r="C123" t="n">
-        <v>205</v>
-      </c>
-      <c r="D123" t="n">
-        <v>205</v>
-      </c>
-      <c r="E123" t="n">
-        <v>205</v>
-      </c>
-      <c r="F123" t="n">
-        <v>100</v>
-      </c>
-      <c r="G123" t="n">
-        <v>324241.4453501829</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>200</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>205</v>
-      </c>
-      <c r="C124" t="n">
-        <v>202</v>
-      </c>
-      <c r="D124" t="n">
-        <v>205</v>
-      </c>
-      <c r="E124" t="n">
-        <v>202</v>
-      </c>
-      <c r="F124" t="n">
-        <v>114</v>
-      </c>
-      <c r="G124" t="n">
-        <v>324127.4453501829</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>205</v>
-      </c>
-      <c r="J124" t="n">
-        <v>200</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>204</v>
-      </c>
-      <c r="C125" t="n">
-        <v>206</v>
-      </c>
-      <c r="D125" t="n">
-        <v>206</v>
-      </c>
-      <c r="E125" t="n">
-        <v>204</v>
-      </c>
-      <c r="F125" t="n">
-        <v>17</v>
-      </c>
-      <c r="G125" t="n">
-        <v>324144.4453501829</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>200</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>205</v>
-      </c>
-      <c r="C126" t="n">
-        <v>202</v>
-      </c>
-      <c r="D126" t="n">
-        <v>205</v>
-      </c>
-      <c r="E126" t="n">
-        <v>202</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2042</v>
-      </c>
-      <c r="G126" t="n">
-        <v>322102.4453501829</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>200</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>202</v>
-      </c>
-      <c r="C127" t="n">
-        <v>202</v>
-      </c>
-      <c r="D127" t="n">
-        <v>202</v>
-      </c>
-      <c r="E127" t="n">
-        <v>202</v>
-      </c>
-      <c r="F127" t="n">
-        <v>388.7981</v>
-      </c>
-      <c r="G127" t="n">
-        <v>322102.4453501829</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>200</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>203</v>
-      </c>
-      <c r="C128" t="n">
-        <v>203</v>
-      </c>
-      <c r="D128" t="n">
-        <v>203</v>
-      </c>
-      <c r="E128" t="n">
-        <v>203</v>
-      </c>
-      <c r="F128" t="n">
-        <v>25.9935</v>
-      </c>
-      <c r="G128" t="n">
-        <v>322128.4388501829</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>200</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>203</v>
-      </c>
-      <c r="C129" t="n">
-        <v>203</v>
-      </c>
-      <c r="D129" t="n">
-        <v>203</v>
-      </c>
-      <c r="E129" t="n">
-        <v>203</v>
-      </c>
-      <c r="F129" t="n">
-        <v>154.2534</v>
-      </c>
-      <c r="G129" t="n">
-        <v>322128.4388501829</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>200</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>202</v>
-      </c>
-      <c r="C130" t="n">
-        <v>202</v>
-      </c>
-      <c r="D130" t="n">
-        <v>202</v>
-      </c>
-      <c r="E130" t="n">
-        <v>202</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1990.3823</v>
-      </c>
-      <c r="G130" t="n">
-        <v>320138.0565501829</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>203</v>
-      </c>
-      <c r="J130" t="n">
-        <v>200</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>202</v>
-      </c>
-      <c r="C131" t="n">
-        <v>202</v>
-      </c>
-      <c r="D131" t="n">
-        <v>202</v>
-      </c>
-      <c r="E131" t="n">
-        <v>202</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5</v>
-      </c>
-      <c r="G131" t="n">
-        <v>320138.0565501829</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>202</v>
-      </c>
-      <c r="J131" t="n">
-        <v>200</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>202</v>
-      </c>
-      <c r="C132" t="n">
-        <v>202</v>
-      </c>
-      <c r="D132" t="n">
-        <v>202</v>
-      </c>
-      <c r="E132" t="n">
-        <v>202</v>
-      </c>
-      <c r="F132" t="n">
-        <v>612.9063</v>
-      </c>
-      <c r="G132" t="n">
-        <v>320138.0565501829</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>202</v>
-      </c>
-      <c r="J132" t="n">
-        <v>200</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>203</v>
-      </c>
-      <c r="C133" t="n">
-        <v>203</v>
-      </c>
-      <c r="D133" t="n">
-        <v>203</v>
-      </c>
-      <c r="E133" t="n">
-        <v>203</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.0628</v>
-      </c>
-      <c r="G133" t="n">
-        <v>320139.1193501829</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>202</v>
-      </c>
-      <c r="J133" t="n">
-        <v>200</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>202</v>
-      </c>
-      <c r="C134" t="n">
-        <v>199</v>
-      </c>
-      <c r="D134" t="n">
-        <v>202</v>
-      </c>
-      <c r="E134" t="n">
-        <v>199</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3409.6398</v>
-      </c>
-      <c r="G134" t="n">
-        <v>316729.4795501829</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>203</v>
-      </c>
-      <c r="J134" t="n">
-        <v>200</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>199</v>
-      </c>
-      <c r="C135" t="n">
-        <v>199</v>
-      </c>
-      <c r="D135" t="n">
-        <v>199</v>
-      </c>
-      <c r="E135" t="n">
-        <v>199</v>
-      </c>
-      <c r="F135" t="n">
-        <v>264.9141</v>
-      </c>
-      <c r="G135" t="n">
-        <v>316729.4795501829</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>199</v>
-      </c>
-      <c r="J135" t="n">
-        <v>200</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>199</v>
-      </c>
-      <c r="C136" t="n">
-        <v>199</v>
-      </c>
-      <c r="D136" t="n">
-        <v>199</v>
-      </c>
-      <c r="E136" t="n">
-        <v>199</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4.5642</v>
-      </c>
-      <c r="G136" t="n">
-        <v>316729.4795501829</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>199</v>
-      </c>
-      <c r="J136" t="n">
-        <v>200</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>203</v>
-      </c>
-      <c r="C137" t="n">
-        <v>203</v>
-      </c>
-      <c r="D137" t="n">
-        <v>203</v>
-      </c>
-      <c r="E137" t="n">
-        <v>203</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1.7167</v>
-      </c>
-      <c r="G137" t="n">
-        <v>316731.1962501829</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>199</v>
-      </c>
-      <c r="J137" t="n">
-        <v>200</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>200</v>
-      </c>
-      <c r="C138" t="n">
-        <v>200</v>
-      </c>
-      <c r="D138" t="n">
-        <v>200</v>
-      </c>
-      <c r="E138" t="n">
-        <v>200</v>
-      </c>
-      <c r="F138" t="n">
-        <v>158.7047</v>
-      </c>
-      <c r="G138" t="n">
-        <v>316572.4915501829</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>200</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>200</v>
-      </c>
-      <c r="C139" t="n">
-        <v>203</v>
-      </c>
-      <c r="D139" t="n">
-        <v>203</v>
-      </c>
-      <c r="E139" t="n">
-        <v>200</v>
-      </c>
-      <c r="F139" t="n">
-        <v>21.6361</v>
-      </c>
-      <c r="G139" t="n">
-        <v>316594.1276501829</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>200</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>200</v>
-      </c>
-      <c r="C140" t="n">
-        <v>200</v>
-      </c>
-      <c r="D140" t="n">
-        <v>200</v>
-      </c>
-      <c r="E140" t="n">
-        <v>200</v>
-      </c>
-      <c r="F140" t="n">
-        <v>356.8301</v>
-      </c>
-      <c r="G140" t="n">
-        <v>316237.2975501829</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>203</v>
-      </c>
-      <c r="J140" t="n">
-        <v>200</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>203</v>
-      </c>
-      <c r="C141" t="n">
-        <v>203</v>
-      </c>
-      <c r="D141" t="n">
-        <v>203</v>
-      </c>
-      <c r="E141" t="n">
-        <v>203</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1.8334</v>
-      </c>
-      <c r="G141" t="n">
-        <v>316239.1309501829</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>200</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>200</v>
-      </c>
-      <c r="C142" t="n">
-        <v>203</v>
-      </c>
-      <c r="D142" t="n">
-        <v>203</v>
-      </c>
-      <c r="E142" t="n">
-        <v>199</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6492.7262</v>
-      </c>
-      <c r="G142" t="n">
-        <v>316239.1309501829</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>203</v>
-      </c>
-      <c r="J142" t="n">
-        <v>200</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +5110,12 @@
         <v>316237.0461501829</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>203</v>
       </c>
-      <c r="J143" t="n">
-        <v>200</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,14 +5149,12 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>199</v>
       </c>
-      <c r="J144" t="n">
-        <v>200</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5358,14 +5188,12 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>203</v>
       </c>
-      <c r="J145" t="n">
-        <v>200</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5399,14 +5227,10 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>203</v>
-      </c>
-      <c r="J146" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5440,12 +5264,12 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>203</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,12 +5303,12 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>203</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5518,14 +5342,12 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>201</v>
       </c>
-      <c r="J149" t="n">
-        <v>200</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5559,14 +5381,12 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>201</v>
       </c>
-      <c r="J150" t="n">
-        <v>200</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,14 +5420,12 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>201</v>
       </c>
-      <c r="J151" t="n">
-        <v>200</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5641,14 +5459,12 @@
         <v>316232.5313501829</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>201</v>
       </c>
-      <c r="J152" t="n">
-        <v>200</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5682,14 +5498,12 @@
         <v>316233.8743501829</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>201</v>
       </c>
-      <c r="J153" t="n">
-        <v>200</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5723,14 +5537,12 @@
         <v>316233.8743501829</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>202</v>
       </c>
-      <c r="J154" t="n">
-        <v>200</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5764,14 +5576,12 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>202</v>
       </c>
-      <c r="J155" t="n">
-        <v>200</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5805,14 +5615,12 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>204</v>
       </c>
-      <c r="J156" t="n">
-        <v>200</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5846,14 +5654,12 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>204</v>
       </c>
-      <c r="J157" t="n">
-        <v>200</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,14 +5693,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>204</v>
       </c>
-      <c r="J158" t="n">
-        <v>200</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,14 +5732,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>205</v>
       </c>
-      <c r="J159" t="n">
-        <v>200</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5969,12 +5771,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>205</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,12 +5810,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>205</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,9 +5852,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>200</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,12 +5886,12 @@
         <v>319506.3016854486</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>205</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,9 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>200</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6164,12 +5962,12 @@
         <v>319540.6146854486</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>202</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,9 +6004,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>200</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,12 +6038,12 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>206</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6284,9 +6080,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>200</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,12 +6114,12 @@
         <v>319490.3641854486</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>206</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,12 +6153,12 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>205</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,12 +6192,12 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>206</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,12 +6231,12 @@
         <v>327845.6819854486</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>206</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,14 +6270,12 @@
         <v>331855.6819854486</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>208</v>
       </c>
-      <c r="J173" t="n">
-        <v>200</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,12 +6309,12 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>209</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6559,9 +6351,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>200</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,9 +6388,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>200</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,9 +6425,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>200</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,12 +6459,12 @@
         <v>332908.5971854486</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>210</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,23 +6498,21 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>211</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.055</v>
-      </c>
-      <c r="M179" t="n">
-        <v>1.145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6757,7 +6541,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +6574,15 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6823,7 +6615,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6852,11 +6648,15 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6685,15 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6722,15 @@
         <v>340612.8495854486</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6759,15 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6796,15 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6833,15 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6870,15 @@
         <v>337045.1383854485</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6907,15 @@
         <v>334833.8668854486</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7116,17 +6944,21 @@
         <v>335417.3340854486</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>266639.5913741788</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>262299.4444741788</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>263599.4746741788</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>261390.8633741788</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>261390.8633741788</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>272392.7973741788</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>287256.6693727963</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>286555.0411727963</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>284471.1465727963</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>284471.1465727963</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>284480.2233727963</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>284151.0617727963</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>276692.0138727963</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>276692.0138727963</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>282451.1698727963</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>282451.1698727963</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,11 +1078,17 @@
         <v>287217.240253839</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>206</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1121,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1158,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1195,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1232,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1269,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1306,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1343,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1380,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1417,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1454,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1491,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1528,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1565,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1602,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1639,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1676,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1713,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1750,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1787,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1824,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1861,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1898,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1935,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1972,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2009,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2042,15 @@
         <v>361030.3881512975</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2079,15 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2116,15 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2153,15 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2190,15 @@
         <v>358528.0825512975</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2231,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2268,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2305,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2342,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2379,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2416,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2449,15 @@
         <v>371483.7875681925</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2486,15 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2523,15 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2560,15 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2597,15 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2634,15 @@
         <v>368206.6486681925</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2671,15 @@
         <v>368910.4396681925</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2708,15 @@
         <v>367955.1875681925</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,10 +2749,12 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2629,7 +2813,7 @@
         <v>361459.0477681925</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2846,7 @@
         <v>357845.1242681925</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2879,7 @@
         <v>338986.0787681925</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2945,7 @@
         <v>339443.6905681925</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2978,7 @@
         <v>339444.9936681925</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3011,7 @@
         <v>338950.0762681926</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3044,7 @@
         <v>336674.9577681926</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3077,7 @@
         <v>347488.9677681926</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3110,7 @@
         <v>347488.9677681926</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3143,7 @@
         <v>347488.9677681926</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3176,7 @@
         <v>353668.2547501831</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3209,7 @@
         <v>353650.8779501831</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3242,7 @@
         <v>353650.8779501831</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3275,7 @@
         <v>353650.8779501831</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3374,7 @@
         <v>357322.976650183</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4741,10 +4925,14 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>202</v>
+      </c>
+      <c r="J132" t="n">
+        <v>202</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4777,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>202</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5001,19 @@
         <v>316729.4795501829</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>203</v>
+      </c>
+      <c r="J134" t="n">
+        <v>202</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5042,19 @@
         <v>316729.4795501829</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>199</v>
+      </c>
+      <c r="J135" t="n">
+        <v>202</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5083,19 @@
         <v>316729.4795501829</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>199</v>
+      </c>
+      <c r="J136" t="n">
+        <v>202</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5124,19 @@
         <v>316731.1962501829</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>199</v>
+      </c>
+      <c r="J137" t="n">
+        <v>202</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5165,19 @@
         <v>316572.4915501829</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>203</v>
+      </c>
+      <c r="J138" t="n">
+        <v>202</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5206,19 @@
         <v>316594.1276501829</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>200</v>
+      </c>
+      <c r="J139" t="n">
+        <v>202</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5247,19 @@
         <v>316237.2975501829</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>203</v>
+      </c>
+      <c r="J140" t="n">
+        <v>202</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5288,19 @@
         <v>316239.1309501829</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>200</v>
+      </c>
+      <c r="J141" t="n">
+        <v>202</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5076,10 +5334,12 @@
       <c r="I142" t="n">
         <v>203</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>202</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5115,7 +5375,9 @@
       <c r="I143" t="n">
         <v>203</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>202</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5416,9 @@
       <c r="I144" t="n">
         <v>199</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>202</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,7 +5457,9 @@
       <c r="I145" t="n">
         <v>203</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>202</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,7 +5496,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>202</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,12 +5532,12 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>203</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>202</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,7 +5576,9 @@
       <c r="I148" t="n">
         <v>203</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>202</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,7 +5617,9 @@
       <c r="I149" t="n">
         <v>201</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>202</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,7 +5658,9 @@
       <c r="I150" t="n">
         <v>201</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>202</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,7 +5699,9 @@
       <c r="I151" t="n">
         <v>201</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>202</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,7 +5740,9 @@
       <c r="I152" t="n">
         <v>201</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>202</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +5781,9 @@
       <c r="I153" t="n">
         <v>201</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>202</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,7 +5822,9 @@
       <c r="I154" t="n">
         <v>202</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>202</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,12 +5858,12 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>202</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>202</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,12 +5897,12 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>204</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>202</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,12 +5936,12 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>204</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>202</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,12 +5975,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>204</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>202</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,12 +6014,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>205</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>202</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,12 +6053,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>205</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>202</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,12 +6092,12 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>205</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>202</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,7 +6134,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>202</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,12 +6170,12 @@
         <v>319506.3016854486</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>205</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>202</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,7 +6212,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>202</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,12 +6248,12 @@
         <v>319540.6146854486</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>202</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>202</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,7 +6290,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>202</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,12 +6326,12 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>206</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>202</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6080,7 +6368,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>202</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,12 +6404,12 @@
         <v>319490.3641854486</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>206</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>202</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,12 +6443,12 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>205</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>202</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,12 +6482,12 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>206</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>202</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,12 +6521,12 @@
         <v>327845.6819854486</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>206</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>202</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,12 +6560,12 @@
         <v>331855.6819854486</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>208</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>202</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,12 +6599,12 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>209</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>202</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,7 +6641,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>202</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6388,7 +6680,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>202</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,7 +6719,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>202</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6459,12 +6755,12 @@
         <v>332908.5971854486</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>210</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>202</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6498,12 +6794,12 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>211</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>202</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6540,7 +6836,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>202</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,7 +6875,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>202</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6614,7 +6914,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>202</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,7 +6953,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>202</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,7 +6992,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>202</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6725,7 +7031,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>202</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6762,7 +7070,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>202</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,7 +7109,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>202</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,19 +7145,23 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>202</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>1.059356435643565</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1.150753768844221</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6874,11 +7190,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7223,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6948,17 +7256,13 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -484,7 +484,7 @@
         <v>277890.7806741789</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>284471.1465727963</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1078,17 +1078,11 @@
         <v>287217.240253839</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1158,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1228,15 +1210,11 @@
         <v>287217.240253839</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1306,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1417,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1454,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1528,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1602,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1635,13 +1573,15 @@
         <v>369082.1307630093</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>206</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1709,7 +1649,7 @@
         <v>356000.4665512976</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1746,7 +1686,7 @@
         <v>356000.4665512976</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1894,7 +1834,7 @@
         <v>362148.1804512976</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2042,18 +1982,16 @@
         <v>361030.3881512975</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2083,11 +2021,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +2054,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2153,15 +2083,11 @@
         <v>361031.6853512975</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2190,15 +2116,11 @@
         <v>358528.0825512975</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2231,11 +2153,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2268,11 +2186,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2305,11 +2219,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2252,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2379,11 +2285,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2318,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2449,15 +2347,11 @@
         <v>371483.7875681925</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2486,15 +2380,11 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2523,15 +2413,11 @@
         <v>371383.7875681925</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2560,15 +2446,11 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2597,15 +2479,11 @@
         <v>371380.7875681925</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2634,15 +2512,11 @@
         <v>368206.6486681925</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2549,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2708,15 +2578,11 @@
         <v>367955.1875681925</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2745,16 +2611,14 @@
         <v>366391.3438681925</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2780,7 +2644,7 @@
         <v>358990.3727681925</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2813,7 +2677,7 @@
         <v>361459.0477681925</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2846,7 +2710,7 @@
         <v>357845.1242681925</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2879,7 +2743,7 @@
         <v>338986.0787681925</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -4463,10 +4327,14 @@
         <v>321999.875950183</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>200</v>
+      </c>
+      <c r="J118" t="n">
+        <v>200</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4499,8 +4367,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>200</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4529,11 +4403,19 @@
         <v>322242.4453501829</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>199</v>
+      </c>
+      <c r="J120" t="n">
+        <v>200</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4444,19 @@
         <v>324368.4453501829</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>200</v>
+      </c>
+      <c r="J121" t="n">
+        <v>200</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4485,19 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>206</v>
+      </c>
+      <c r="J122" t="n">
+        <v>200</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4526,19 @@
         <v>324241.4453501829</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>205</v>
+      </c>
+      <c r="J123" t="n">
+        <v>200</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4567,19 @@
         <v>324127.4453501829</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>205</v>
+      </c>
+      <c r="J124" t="n">
+        <v>200</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4694,11 +4608,19 @@
         <v>324144.4453501829</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>202</v>
+      </c>
+      <c r="J125" t="n">
+        <v>200</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4727,11 +4649,19 @@
         <v>322102.4453501829</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>206</v>
+      </c>
+      <c r="J126" t="n">
+        <v>200</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4760,11 +4690,19 @@
         <v>322102.4453501829</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>202</v>
+      </c>
+      <c r="J127" t="n">
+        <v>200</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4793,11 +4731,19 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>202</v>
+      </c>
+      <c r="J128" t="n">
+        <v>200</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4772,19 @@
         <v>322128.4388501829</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>203</v>
+      </c>
+      <c r="J129" t="n">
+        <v>200</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4859,11 +4813,19 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>203</v>
+      </c>
+      <c r="J130" t="n">
+        <v>200</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4892,11 +4854,19 @@
         <v>320138.0565501829</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>202</v>
+      </c>
+      <c r="J131" t="n">
+        <v>200</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4931,9 +4901,13 @@
         <v>202</v>
       </c>
       <c r="J132" t="n">
-        <v>202</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4962,15 +4936,17 @@
         <v>320139.1193501829</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>202</v>
+      </c>
       <c r="J133" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -5007,11 +4983,11 @@
         <v>203</v>
       </c>
       <c r="J134" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -5048,7 +5024,7 @@
         <v>199</v>
       </c>
       <c r="J135" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5089,7 +5065,7 @@
         <v>199</v>
       </c>
       <c r="J136" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5130,7 +5106,7 @@
         <v>199</v>
       </c>
       <c r="J137" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5171,7 +5147,7 @@
         <v>203</v>
       </c>
       <c r="J138" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5212,7 +5188,7 @@
         <v>200</v>
       </c>
       <c r="J139" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5253,7 +5229,7 @@
         <v>203</v>
       </c>
       <c r="J140" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5294,7 +5270,7 @@
         <v>200</v>
       </c>
       <c r="J141" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5335,7 +5311,7 @@
         <v>203</v>
       </c>
       <c r="J142" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5376,7 +5352,7 @@
         <v>203</v>
       </c>
       <c r="J143" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5417,7 +5393,7 @@
         <v>199</v>
       </c>
       <c r="J144" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5458,7 +5434,7 @@
         <v>203</v>
       </c>
       <c r="J145" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5493,11 +5469,13 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>203</v>
+      </c>
       <c r="J146" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5532,11 +5510,13 @@
         <v>316238.5313501829</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>203</v>
+      </c>
       <c r="J147" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5577,7 +5557,7 @@
         <v>203</v>
       </c>
       <c r="J148" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5618,7 +5598,7 @@
         <v>201</v>
       </c>
       <c r="J149" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5659,7 +5639,7 @@
         <v>201</v>
       </c>
       <c r="J150" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5700,7 +5680,7 @@
         <v>201</v>
       </c>
       <c r="J151" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5741,7 +5721,7 @@
         <v>201</v>
       </c>
       <c r="J152" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5782,7 +5762,7 @@
         <v>201</v>
       </c>
       <c r="J153" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5823,7 +5803,7 @@
         <v>202</v>
       </c>
       <c r="J154" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5858,11 +5838,13 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>202</v>
+      </c>
       <c r="J155" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5897,11 +5879,13 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>204</v>
+      </c>
       <c r="J156" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5936,11 +5920,13 @@
         <v>316234.9007501829</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>204</v>
+      </c>
       <c r="J157" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5975,11 +5961,13 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>204</v>
+      </c>
       <c r="J158" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6014,11 +6002,13 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>205</v>
+      </c>
       <c r="J159" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6053,11 +6043,13 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>205</v>
+      </c>
       <c r="J160" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6092,11 +6084,13 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>205</v>
+      </c>
       <c r="J161" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6131,11 +6125,13 @@
         <v>316236.4592501828</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>205</v>
+      </c>
       <c r="J162" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6170,11 +6166,13 @@
         <v>319506.3016854486</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>205</v>
+      </c>
       <c r="J163" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6209,11 +6207,13 @@
         <v>319491.1097854486</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>207</v>
+      </c>
       <c r="J164" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6248,11 +6248,13 @@
         <v>319540.6146854486</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>202</v>
+      </c>
       <c r="J165" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6287,11 +6289,13 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>207</v>
+      </c>
       <c r="J166" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6326,11 +6330,13 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>206</v>
+      </c>
       <c r="J167" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6365,11 +6371,13 @@
         <v>319492.3055854486</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>206</v>
+      </c>
       <c r="J168" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6404,11 +6412,13 @@
         <v>319490.3641854486</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>206</v>
+      </c>
       <c r="J169" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6443,11 +6453,13 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>205</v>
+      </c>
       <c r="J170" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6482,11 +6494,13 @@
         <v>319493.4633854486</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>206</v>
+      </c>
       <c r="J171" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6521,11 +6535,13 @@
         <v>327845.6819854486</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>206</v>
+      </c>
       <c r="J172" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6560,11 +6576,13 @@
         <v>331855.6819854486</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>208</v>
+      </c>
       <c r="J173" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6599,11 +6617,13 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>209</v>
+      </c>
       <c r="J174" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6638,11 +6658,13 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>210</v>
+      </c>
       <c r="J175" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6677,11 +6699,13 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>210</v>
+      </c>
       <c r="J176" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6716,11 +6740,13 @@
         <v>331876.6819854486</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>210</v>
+      </c>
       <c r="J177" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6755,11 +6781,13 @@
         <v>332908.5971854486</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>210</v>
+      </c>
       <c r="J178" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6794,11 +6822,13 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>211</v>
+      </c>
       <c r="J179" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6833,11 +6863,13 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>212</v>
+      </c>
       <c r="J180" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6872,11 +6904,13 @@
         <v>333226.8370854486</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>212</v>
+      </c>
       <c r="J181" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6911,11 +6945,13 @@
         <v>333236.8370854486</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>212</v>
+      </c>
       <c r="J182" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6950,11 +6986,13 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>213</v>
+      </c>
       <c r="J183" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6989,21 +7027,23 @@
         <v>334755.3327854486</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.065</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.145</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7028,17 +7068,11 @@
         <v>340612.8495854486</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>202</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7067,17 +7101,11 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>202</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7106,17 +7134,11 @@
         <v>337109.9513854486</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>202</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7148,20 +7170,12 @@
         <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>202</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>1.059356435643565</v>
-      </c>
-      <c r="M188" t="n">
-        <v>1.150753768844221</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7186,7 +7200,7 @@
         <v>337045.1383854485</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7219,7 +7233,7 @@
         <v>334833.8668854486</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7252,7 +7266,7 @@
         <v>335417.3340854486</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest ICX.xlsx
+++ b/BackTest/2019-11-01 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5315.0603</v>
       </c>
       <c r="G2" t="n">
-        <v>276549.8941741788</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1340.8865</v>
       </c>
       <c r="G3" t="n">
-        <v>277890.7806741789</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>11251.1893</v>
       </c>
       <c r="G4" t="n">
-        <v>266639.5913741788</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4340.1469</v>
       </c>
       <c r="G5" t="n">
-        <v>262299.4444741788</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>582.4016</v>
       </c>
       <c r="G6" t="n">
-        <v>262299.4444741788</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1300.0302</v>
       </c>
       <c r="G7" t="n">
-        <v>263599.4746741788</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2208.6113</v>
       </c>
       <c r="G8" t="n">
-        <v>261390.8633741788</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6718.1625</v>
       </c>
       <c r="G9" t="n">
-        <v>261390.8633741788</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>11001.934</v>
       </c>
       <c r="G10" t="n">
-        <v>272392.7973741788</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>14863.87199861751</v>
       </c>
       <c r="G11" t="n">
-        <v>287256.6693727963</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>701.6282</v>
       </c>
       <c r="G12" t="n">
-        <v>286555.0411727963</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2083.8946</v>
       </c>
       <c r="G13" t="n">
-        <v>284471.1465727963</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>16696.5112</v>
       </c>
       <c r="G14" t="n">
-        <v>284471.1465727963</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>9.0768</v>
       </c>
       <c r="G15" t="n">
-        <v>284480.2233727963</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>329.1616</v>
       </c>
       <c r="G16" t="n">
-        <v>284151.0617727963</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>7459.0479</v>
       </c>
       <c r="G17" t="n">
-        <v>276692.0138727963</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2004.6674</v>
       </c>
       <c r="G18" t="n">
-        <v>276692.0138727963</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>5759.156</v>
       </c>
       <c r="G19" t="n">
-        <v>282451.1698727963</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3908.084</v>
       </c>
       <c r="G20" t="n">
-        <v>282451.1698727963</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4766.070381042654</v>
       </c>
       <c r="G21" t="n">
-        <v>287217.240253839</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1749.7488</v>
       </c>
       <c r="G22" t="n">
-        <v>287217.240253839</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>25.40561895734597</v>
       </c>
       <c r="G23" t="n">
-        <v>287217.240253839</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4000.4758</v>
       </c>
       <c r="G24" t="n">
-        <v>287217.240253839</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1600.545</v>
       </c>
       <c r="G25" t="n">
-        <v>287217.240253839</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2935.557081042654</v>
       </c>
       <c r="G26" t="n">
-        <v>287217.240253839</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2446.3847</v>
       </c>
       <c r="G27" t="n">
-        <v>289663.624953839</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9473.1464</v>
       </c>
       <c r="G28" t="n">
-        <v>289663.624953839</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>344</v>
       </c>
       <c r="G29" t="n">
-        <v>289319.624953839</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>289320.624953839</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>289319.624953839</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1461.5283</v>
       </c>
       <c r="G32" t="n">
-        <v>287858.096653839</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>668.2041</v>
       </c>
       <c r="G33" t="n">
-        <v>287189.892553839</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>3060.5856</v>
       </c>
       <c r="G34" t="n">
-        <v>290250.478153839</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>950.861</v>
       </c>
       <c r="G35" t="n">
-        <v>290250.478153839</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,24 +1463,15 @@
         <v>78831.65260917031</v>
       </c>
       <c r="G36" t="n">
-        <v>369082.1307630093</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1609,22 +1493,15 @@
         <v>2885.523072072072</v>
       </c>
       <c r="G37" t="n">
-        <v>371967.6538350814</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1646,22 +1523,15 @@
         <v>15967.18728378378</v>
       </c>
       <c r="G38" t="n">
-        <v>356000.4665512976</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1683,22 +1553,15 @@
         <v>927.8652</v>
       </c>
       <c r="G39" t="n">
-        <v>356000.4665512976</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,22 +1583,15 @@
         <v>4803.4839</v>
       </c>
       <c r="G40" t="n">
-        <v>360803.9504512976</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1757,22 +1613,15 @@
         <v>1727.6254</v>
       </c>
       <c r="G41" t="n">
-        <v>359076.3250512976</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1794,22 +1643,15 @@
         <v>669.792</v>
       </c>
       <c r="G42" t="n">
-        <v>359746.1170512976</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1831,22 +1673,15 @@
         <v>2402.0634</v>
       </c>
       <c r="G43" t="n">
-        <v>362148.1804512976</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1868,22 +1703,15 @@
         <v>1205.9363</v>
       </c>
       <c r="G44" t="n">
-        <v>360942.2441512975</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1905,22 +1733,15 @@
         <v>190.7056</v>
       </c>
       <c r="G45" t="n">
-        <v>361132.9497512975</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1942,22 +1763,15 @@
         <v>52.5616</v>
       </c>
       <c r="G46" t="n">
-        <v>361080.3881512975</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1979,20 +1793,15 @@
         <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>361030.3881512975</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K47" t="n">
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2014,18 +1823,15 @@
         <v>1.2972</v>
       </c>
       <c r="G48" t="n">
-        <v>361031.6853512975</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2047,18 +1853,15 @@
         <v>2.0848</v>
       </c>
       <c r="G49" t="n">
-        <v>361031.6853512975</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2080,18 +1883,15 @@
         <v>7.682</v>
       </c>
       <c r="G50" t="n">
-        <v>361031.6853512975</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2113,18 +1913,15 @@
         <v>2503.6028</v>
       </c>
       <c r="G51" t="n">
-        <v>358528.0825512975</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2146,18 +1943,15 @@
         <v>234.4872</v>
       </c>
       <c r="G52" t="n">
-        <v>358528.0825512975</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2179,18 +1973,15 @@
         <v>218.2505</v>
       </c>
       <c r="G53" t="n">
-        <v>358746.3330512975</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2212,18 +2003,15 @@
         <v>12741.63851689498</v>
       </c>
       <c r="G54" t="n">
-        <v>371487.9715681925</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2245,18 +2033,15 @@
         <v>457.6118721461187</v>
       </c>
       <c r="G55" t="n">
-        <v>371487.9715681925</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2278,18 +2063,15 @@
         <v>1500</v>
       </c>
       <c r="G56" t="n">
-        <v>371487.9715681925</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2311,18 +2093,15 @@
         <v>6.3072</v>
       </c>
       <c r="G57" t="n">
-        <v>371481.6643681925</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2344,18 +2123,15 @@
         <v>2.1232</v>
       </c>
       <c r="G58" t="n">
-        <v>371483.7875681925</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2377,18 +2153,15 @@
         <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>371383.7875681925</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2410,18 +2183,15 @@
         <v>388.7981</v>
       </c>
       <c r="G60" t="n">
-        <v>371383.7875681925</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2443,18 +2213,15 @@
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>371380.7875681925</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2476,18 +2243,15 @@
         <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>371380.7875681925</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2509,18 +2273,15 @@
         <v>3174.1389</v>
       </c>
       <c r="G63" t="n">
-        <v>368206.6486681925</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2542,18 +2303,15 @@
         <v>703.7910000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>368910.4396681925</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2575,18 +2333,15 @@
         <v>955.2521</v>
       </c>
       <c r="G65" t="n">
-        <v>367955.1875681925</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2608,18 +2363,15 @@
         <v>1563.8437</v>
       </c>
       <c r="G66" t="n">
-        <v>366391.3438681925</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2641,18 +2393,15 @@
         <v>7400.9711</v>
       </c>
       <c r="G67" t="n">
-        <v>358990.3727681925</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2674,18 +2423,15 @@
         <v>2468.675</v>
       </c>
       <c r="G68" t="n">
-        <v>361459.0477681925</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2707,18 +2453,15 @@
         <v>3613.9235</v>
       </c>
       <c r="G69" t="n">
-        <v>357845.1242681925</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2740,18 +2483,15 @@
         <v>18859.0455</v>
       </c>
       <c r="G70" t="n">
-        <v>338986.0787681925</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2773,18 +2513,15 @@
         <v>479.1129</v>
       </c>
       <c r="G71" t="n">
-        <v>338986.0787681925</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2806,18 +2543,15 @@
         <v>457.6118</v>
       </c>
       <c r="G72" t="n">
-        <v>339443.6905681925</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2839,18 +2573,15 @@
         <v>1.3031</v>
       </c>
       <c r="G73" t="n">
-        <v>339444.9936681925</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2872,18 +2603,15 @@
         <v>494.9174</v>
       </c>
       <c r="G74" t="n">
-        <v>338950.0762681926</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2905,18 +2633,15 @@
         <v>2275.1185</v>
       </c>
       <c r="G75" t="n">
-        <v>336674.9577681926</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2938,18 +2663,15 @@
         <v>10814.01</v>
       </c>
       <c r="G76" t="n">
-        <v>347488.9677681926</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2971,18 +2693,15 @@
         <v>7.6915</v>
       </c>
       <c r="G77" t="n">
-        <v>347488.9677681926</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3004,18 +2723,15 @@
         <v>120</v>
       </c>
       <c r="G78" t="n">
-        <v>347488.9677681926</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3037,18 +2753,15 @@
         <v>6179.286981990522</v>
       </c>
       <c r="G79" t="n">
-        <v>353668.2547501831</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3070,18 +2783,15 @@
         <v>17.3768</v>
       </c>
       <c r="G80" t="n">
-        <v>353650.8779501831</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3103,18 +2813,15 @@
         <v>685.521</v>
       </c>
       <c r="G81" t="n">
-        <v>353650.8779501831</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3136,18 +2843,15 @@
         <v>157.1316</v>
       </c>
       <c r="G82" t="n">
-        <v>353650.8779501831</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3169,18 +2873,15 @@
         <v>458.732</v>
       </c>
       <c r="G83" t="n">
-        <v>353192.145950183</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3202,18 +2903,15 @@
         <v>1926.51</v>
       </c>
       <c r="G84" t="n">
-        <v>355118.655950183</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3235,18 +2933,15 @@
         <v>2204.3207</v>
       </c>
       <c r="G85" t="n">
-        <v>357322.976650183</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3268,18 +2963,15 @@
         <v>366</v>
       </c>
       <c r="G86" t="n">
-        <v>356956.976650183</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3301,18 +2993,15 @@
         <v>1.3047</v>
       </c>
       <c r="G87" t="n">
-        <v>356958.281350183</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3334,18 +3023,15 @@
         <v>2868.7612</v>
       </c>
       <c r="G88" t="n">
-        <v>354089.520150183</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3367,18 +3053,15 @@
         <v>491.042</v>
       </c>
       <c r="G89" t="n">
-        <v>354580.562150183</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3400,18 +3083,15 @@
         <v>2275.7198</v>
       </c>
       <c r="G90" t="n">
-        <v>356856.281950183</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3433,18 +3113,15 @@
         <v>968.2791</v>
       </c>
       <c r="G91" t="n">
-        <v>357824.561050183</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3466,18 +3143,15 @@
         <v>39.1427</v>
       </c>
       <c r="G92" t="n">
-        <v>357824.561050183</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3499,18 +3173,15 @@
         <v>7514.1153</v>
       </c>
       <c r="G93" t="n">
-        <v>350310.445750183</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3532,18 +3203,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>350310.445750183</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3565,18 +3233,15 @@
         <v>758.1639</v>
       </c>
       <c r="G95" t="n">
-        <v>350310.445750183</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3598,18 +3263,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>350311.445750183</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3631,18 +3293,15 @@
         <v>1290.8212</v>
       </c>
       <c r="G97" t="n">
-        <v>350311.445750183</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3664,18 +3323,15 @@
         <v>3224.2028</v>
       </c>
       <c r="G98" t="n">
-        <v>350311.445750183</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3697,18 +3353,15 @@
         <v>260.9299</v>
       </c>
       <c r="G99" t="n">
-        <v>350050.515850183</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3730,18 +3383,15 @@
         <v>519.5312</v>
       </c>
       <c r="G100" t="n">
-        <v>350050.515850183</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3763,18 +3413,15 @@
         <v>239.679</v>
       </c>
       <c r="G101" t="n">
-        <v>350050.515850183</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3796,18 +3443,15 @@
         <v>351.6975</v>
       </c>
       <c r="G102" t="n">
-        <v>349698.818350183</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3829,18 +3473,15 @@
         <v>2203.0898</v>
       </c>
       <c r="G103" t="n">
-        <v>347495.728550183</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3862,18 +3503,15 @@
         <v>1797.9102</v>
       </c>
       <c r="G104" t="n">
-        <v>347495.728550183</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3895,18 +3533,15 @@
         <v>1297.446</v>
       </c>
       <c r="G105" t="n">
-        <v>347495.728550183</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3928,18 +3563,19 @@
         <v>11486.5753</v>
       </c>
       <c r="G106" t="n">
-        <v>347495.728550183</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="I106" t="n">
+        <v>204</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3961,18 +3597,23 @@
         <v>831.7679000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>348327.496450183</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="I107" t="n">
+        <v>204</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3994,18 +3635,21 @@
         <v>186.0636</v>
       </c>
       <c r="G108" t="n">
-        <v>348327.496450183</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>204</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4027,18 +3671,15 @@
         <v>248.3378</v>
       </c>
       <c r="G109" t="n">
-        <v>348327.496450183</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4060,18 +3701,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>348327.496450183</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4093,18 +3731,15 @@
         <v>1.235</v>
       </c>
       <c r="G111" t="n">
-        <v>348328.731450183</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4126,18 +3761,15 @@
         <v>14</v>
       </c>
       <c r="G112" t="n">
-        <v>348314.731450183</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4159,18 +3791,15 @@
         <v>641.3925</v>
       </c>
       <c r="G113" t="n">
-        <v>347673.338950183</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4192,18 +3821,15 @@
         <v>1.148</v>
       </c>
       <c r="G114" t="n">
-        <v>347674.4869501829</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4225,18 +3851,15 @@
         <v>3214.3736</v>
       </c>
       <c r="G115" t="n">
-        <v>344460.1133501829</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4258,18 +3881,15 @@
         <v>4015.8168</v>
       </c>
       <c r="G116" t="n">
-        <v>340444.296550183</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4291,18 +3911,15 @@
         <v>18445.4693</v>
       </c>
       <c r="G117" t="n">
-        <v>321998.827250183</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4324,22 +3941,15 @@
         <v>1.0487</v>
       </c>
       <c r="G118" t="n">
-        <v>321999.875950183</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>200</v>
-      </c>
-      <c r="J118" t="n">
-        <v>200</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4361,24 +3971,15 @@
         <v>435.2966</v>
       </c>
       <c r="G119" t="n">
-        <v>321564.579350183</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>200</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4400,26 +4001,15 @@
         <v>677.866</v>
       </c>
       <c r="G120" t="n">
-        <v>322242.4453501829</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>199</v>
-      </c>
-      <c r="J120" t="n">
-        <v>200</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4441,26 +4031,15 @@
         <v>2126</v>
       </c>
       <c r="G121" t="n">
-        <v>324368.4453501829</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>200</v>
-      </c>
-      <c r="J121" t="n">
-        <v>200</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4482,26 +4061,15 @@
         <v>127</v>
       </c>
       <c r="G122" t="n">
-        <v>324241.4453501829</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>206</v>
-      </c>
-      <c r="J122" t="n">
-        <v>200</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4523,26 +4091,15 @@
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>324241.4453501829</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>205</v>
-      </c>
-      <c r="J123" t="n">
-        <v>200</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4564,26 +4121,15 @@
         <v>114</v>
       </c>
       <c r="G124" t="n">
-        <v>324127.4453501829</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>205</v>
-      </c>
-      <c r="J124" t="n">
-        <v>200</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4605,26 +4151,15 @@
         <v>17</v>
       </c>
       <c r="G125" t="n">
-        <v>324144.4453501829</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>202</v>
-      </c>
-      <c r="J125" t="n">
-        <v>200</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4646,26 +4181,15 @@
         <v>2042</v>
       </c>
       <c r="G126" t="n">
-        <v>322102.4453501829</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>206</v>
-      </c>
-      <c r="J126" t="n">
-        <v>200</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4687,26 +4211,15 @@
         <v>388.7981</v>
       </c>
       <c r="G127" t="n">
-        <v>322102.4453501829</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>202</v>
-      </c>
-      <c r="J127" t="n">
-        <v>200</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4728,26 +4241,15 @@
         <v>25.9935</v>
       </c>
       <c r="G128" t="n">
-        <v>322128.4388501829</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>202</v>
-      </c>
-      <c r="J128" t="n">
-        <v>200</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4769,26 +4271,19 @@
         <v>154.2534</v>
       </c>
       <c r="G129" t="n">
-        <v>322128.4388501829</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I129" t="n">
         <v>203</v>
       </c>
-      <c r="J129" t="n">
-        <v>200</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4810,26 +4305,21 @@
         <v>1990.3823</v>
       </c>
       <c r="G130" t="n">
-        <v>320138.0565501829</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
         <v>203</v>
       </c>
-      <c r="J130" t="n">
-        <v>200</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4851,26 +4341,23 @@
         <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>320138.0565501829</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="I131" t="n">
-        <v>202</v>
-      </c>
-      <c r="J131" t="n">
-        <v>200</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>203</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4892,26 +4379,19 @@
         <v>612.9063</v>
       </c>
       <c r="G132" t="n">
-        <v>320138.0565501829</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="I132" t="n">
         <v>202</v>
       </c>
-      <c r="J132" t="n">
-        <v>200</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4933,26 +4413,21 @@
         <v>1.0628</v>
       </c>
       <c r="G133" t="n">
-        <v>320139.1193501829</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
         <v>202</v>
       </c>
-      <c r="J133" t="n">
-        <v>200</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4974,26 +4449,21 @@
         <v>3409.6398</v>
       </c>
       <c r="G134" t="n">
-        <v>316729.4795501829</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>203</v>
-      </c>
-      <c r="J134" t="n">
-        <v>200</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>202</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5015,26 +4485,23 @@
         <v>264.9141</v>
       </c>
       <c r="G135" t="n">
-        <v>316729.4795501829</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="I135" t="n">
-        <v>199</v>
-      </c>
-      <c r="J135" t="n">
-        <v>200</v>
-      </c>
-      <c r="K135" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5056,26 +4523,23 @@
         <v>4.5642</v>
       </c>
       <c r="G136" t="n">
-        <v>316729.4795501829</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="I136" t="n">
-        <v>199</v>
-      </c>
-      <c r="J136" t="n">
-        <v>200</v>
-      </c>
-      <c r="K136" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5097,26 +4561,23 @@
         <v>1.7167</v>
       </c>
       <c r="G137" t="n">
-        <v>316731.1962501829</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="I137" t="n">
-        <v>199</v>
-      </c>
-      <c r="J137" t="n">
-        <v>200</v>
-      </c>
-      <c r="K137" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5138,26 +4599,23 @@
         <v>158.7047</v>
       </c>
       <c r="G138" t="n">
-        <v>316572.4915501829</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I138" t="n">
-        <v>203</v>
-      </c>
-      <c r="J138" t="n">
-        <v>200</v>
-      </c>
-      <c r="K138" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5179,26 +4637,23 @@
         <v>21.6361</v>
       </c>
       <c r="G139" t="n">
-        <v>316594.1276501829</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I139" t="n">
-        <v>200</v>
-      </c>
-      <c r="J139" t="n">
-        <v>200</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5220,26 +4675,21 @@
         <v>356.8301</v>
       </c>
       <c r="G140" t="n">
-        <v>316237.2975501829</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>203</v>
-      </c>
-      <c r="J140" t="n">
-        <v>200</v>
-      </c>
-      <c r="K140" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5261,26 +4711,21 @@
         <v>1.8334</v>
       </c>
       <c r="G141" t="n">
-        <v>316239.1309501829</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>200</v>
-      </c>
-      <c r="J141" t="n">
-        <v>200</v>
-      </c>
-      <c r="K141" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5302,26 +4747,21 @@
         <v>6492.7262</v>
       </c>
       <c r="G142" t="n">
-        <v>316239.1309501829</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>203</v>
-      </c>
-      <c r="J142" t="n">
-        <v>200</v>
-      </c>
-      <c r="K142" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5343,26 +4783,21 @@
         <v>2.0848</v>
       </c>
       <c r="G143" t="n">
-        <v>316237.0461501829</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>203</v>
-      </c>
-      <c r="J143" t="n">
-        <v>200</v>
-      </c>
-      <c r="K143" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5384,26 +4819,23 @@
         <v>1.4852</v>
       </c>
       <c r="G144" t="n">
-        <v>316238.5313501829</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="I144" t="n">
-        <v>199</v>
-      </c>
-      <c r="J144" t="n">
-        <v>200</v>
-      </c>
-      <c r="K144" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5425,26 +4857,21 @@
         <v>20</v>
       </c>
       <c r="G145" t="n">
-        <v>316238.5313501829</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>203</v>
-      </c>
-      <c r="J145" t="n">
-        <v>200</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5466,26 +4893,21 @@
         <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>316238.5313501829</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>203</v>
-      </c>
-      <c r="J146" t="n">
-        <v>200</v>
-      </c>
-      <c r="K146" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5507,26 +4929,21 @@
         <v>6</v>
       </c>
       <c r="G147" t="n">
-        <v>316238.5313501829</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>203</v>
-      </c>
-      <c r="J147" t="n">
-        <v>200</v>
-      </c>
-      <c r="K147" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5548,26 +4965,21 @@
         <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>203</v>
-      </c>
-      <c r="J148" t="n">
-        <v>200</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5589,26 +5001,21 @@
         <v>5</v>
       </c>
       <c r="G149" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>201</v>
-      </c>
-      <c r="J149" t="n">
-        <v>200</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5630,26 +5037,21 @@
         <v>4.3034</v>
       </c>
       <c r="G150" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>201</v>
-      </c>
-      <c r="J150" t="n">
-        <v>200</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5671,26 +5073,21 @@
         <v>796</v>
       </c>
       <c r="G151" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>201</v>
-      </c>
-      <c r="J151" t="n">
-        <v>200</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5712,26 +5109,21 @@
         <v>0.9083</v>
       </c>
       <c r="G152" t="n">
-        <v>316232.5313501829</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>201</v>
-      </c>
-      <c r="J152" t="n">
-        <v>200</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5753,26 +5145,21 @@
         <v>1.343</v>
       </c>
       <c r="G153" t="n">
-        <v>316233.8743501829</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>201</v>
-      </c>
-      <c r="J153" t="n">
-        <v>200</v>
-      </c>
-      <c r="K153" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5794,26 +5181,21 @@
         <v>1494.907</v>
       </c>
       <c r="G154" t="n">
-        <v>316233.8743501829</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>202</v>
       </c>
-      <c r="J154" t="n">
-        <v>200</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5835,26 +5217,21 @@
         <v>1.0264</v>
       </c>
       <c r="G155" t="n">
-        <v>316234.9007501829</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
         <v>202</v>
       </c>
-      <c r="J155" t="n">
-        <v>200</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5876,26 +5253,21 @@
         <v>1.098</v>
       </c>
       <c r="G156" t="n">
-        <v>316234.9007501829</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>204</v>
-      </c>
-      <c r="J156" t="n">
-        <v>200</v>
-      </c>
-      <c r="K156" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5917,26 +5289,21 @@
         <v>2140.3857</v>
       </c>
       <c r="G157" t="n">
-        <v>316234.9007501829</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>204</v>
-      </c>
-      <c r="J157" t="n">
-        <v>200</v>
-      </c>
-      <c r="K157" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5958,26 +5325,21 @@
         <v>1.5585</v>
       </c>
       <c r="G158" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>204</v>
-      </c>
-      <c r="J158" t="n">
-        <v>200</v>
-      </c>
-      <c r="K158" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5999,26 +5361,21 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>205</v>
-      </c>
-      <c r="J159" t="n">
-        <v>200</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6040,26 +5397,21 @@
         <v>8.824299999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>205</v>
-      </c>
-      <c r="J160" t="n">
-        <v>200</v>
-      </c>
-      <c r="K160" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6081,26 +5433,21 @@
         <v>48.7804</v>
       </c>
       <c r="G161" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>205</v>
-      </c>
-      <c r="J161" t="n">
-        <v>200</v>
-      </c>
-      <c r="K161" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6122,26 +5469,21 @@
         <v>319.1257</v>
       </c>
       <c r="G162" t="n">
-        <v>316236.4592501828</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>205</v>
-      </c>
-      <c r="J162" t="n">
-        <v>200</v>
-      </c>
-      <c r="K162" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6163,26 +5505,21 @@
         <v>3269.8424352657</v>
       </c>
       <c r="G163" t="n">
-        <v>319506.3016854486</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>205</v>
-      </c>
-      <c r="J163" t="n">
-        <v>200</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6204,26 +5541,21 @@
         <v>15.1919</v>
       </c>
       <c r="G164" t="n">
-        <v>319491.1097854486</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>207</v>
-      </c>
-      <c r="J164" t="n">
-        <v>200</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6245,26 +5577,21 @@
         <v>49.5049</v>
       </c>
       <c r="G165" t="n">
-        <v>319540.6146854486</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
         <v>202</v>
       </c>
-      <c r="J165" t="n">
-        <v>200</v>
-      </c>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6286,26 +5613,21 @@
         <v>48.3091</v>
       </c>
       <c r="G166" t="n">
-        <v>319492.3055854486</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>207</v>
-      </c>
-      <c r="J166" t="n">
-        <v>200</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6327,26 +5649,21 @@
         <v>2.1</v>
       </c>
       <c r="G167" t="n">
-        <v>319492.3055854486</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>206</v>
-      </c>
-      <c r="J167" t="n">
-        <v>200</v>
-      </c>
-      <c r="K167" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6368,26 +5685,21 @@
         <v>22.0339</v>
       </c>
       <c r="G168" t="n">
-        <v>319492.3055854486</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>206</v>
-      </c>
-      <c r="J168" t="n">
-        <v>200</v>
-      </c>
-      <c r="K168" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6409,26 +5721,21 @@
         <v>1.9414</v>
       </c>
       <c r="G169" t="n">
-        <v>319490.3641854486</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>206</v>
-      </c>
-      <c r="J169" t="n">
-        <v>200</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6450,26 +5757,21 @@
         <v>3.0992</v>
       </c>
       <c r="G170" t="n">
-        <v>319493.4633854486</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>205</v>
-      </c>
-      <c r="J170" t="n">
-        <v>200</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6491,26 +5793,21 @@
         <v>2130.7165</v>
       </c>
       <c r="G171" t="n">
-        <v>319493.4633854486</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>206</v>
-      </c>
-      <c r="J171" t="n">
-        <v>200</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6532,26 +5829,21 @@
         <v>8352.2186</v>
       </c>
       <c r="G172" t="n">
-        <v>327845.6819854486</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>206</v>
-      </c>
-      <c r="J172" t="n">
-        <v>200</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6573,26 +5865,21 @@
         <v>4010</v>
       </c>
       <c r="G173" t="n">
-        <v>331855.6819854486</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>208</v>
-      </c>
-      <c r="J173" t="n">
-        <v>200</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6614,26 +5901,21 @@
         <v>21</v>
       </c>
       <c r="G174" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>209</v>
-      </c>
-      <c r="J174" t="n">
-        <v>200</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6655,26 +5937,21 @@
         <v>4010</v>
       </c>
       <c r="G175" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>210</v>
-      </c>
-      <c r="J175" t="n">
-        <v>200</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6696,26 +5973,21 @@
         <v>4716.9811</v>
       </c>
       <c r="G176" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>210</v>
-      </c>
-      <c r="J176" t="n">
-        <v>200</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6737,26 +6009,21 @@
         <v>2856.2295</v>
       </c>
       <c r="G177" t="n">
-        <v>331876.6819854486</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>210</v>
-      </c>
-      <c r="J177" t="n">
-        <v>200</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6778,26 +6045,21 @@
         <v>1031.9152</v>
       </c>
       <c r="G178" t="n">
-        <v>332908.5971854486</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>210</v>
-      </c>
-      <c r="J178" t="n">
-        <v>200</v>
-      </c>
-      <c r="K178" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6819,26 +6081,21 @@
         <v>318.2399</v>
       </c>
       <c r="G179" t="n">
-        <v>333226.8370854486</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>211</v>
-      </c>
-      <c r="J179" t="n">
-        <v>200</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6860,26 +6117,21 @@
         <v>9124.5383</v>
       </c>
       <c r="G180" t="n">
-        <v>333226.8370854486</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>212</v>
-      </c>
-      <c r="J180" t="n">
-        <v>200</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6901,26 +6153,21 @@
         <v>3681.6715</v>
       </c>
       <c r="G181" t="n">
-        <v>333226.8370854486</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>212</v>
-      </c>
-      <c r="J181" t="n">
-        <v>200</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6942,26 +6189,21 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>333236.8370854486</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>212</v>
-      </c>
-      <c r="J182" t="n">
-        <v>200</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6983,26 +6225,21 @@
         <v>1518.4957</v>
       </c>
       <c r="G183" t="n">
-        <v>334755.3327854486</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>213</v>
-      </c>
-      <c r="J183" t="n">
-        <v>200</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>202</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7024,26 +6261,21 @@
         <v>900.5802</v>
       </c>
       <c r="G184" t="n">
-        <v>334755.3327854486</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>200</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1.065</v>
-      </c>
-      <c r="M184" t="n">
-        <v>1.145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>202</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7065,18 +6297,21 @@
         <v>5857.5168</v>
       </c>
       <c r="G185" t="n">
-        <v>340612.8495854486</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>202</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7098,18 +6333,21 @@
         <v>3502.8982</v>
       </c>
       <c r="G186" t="n">
-        <v>337109.9513854486</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>202</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7131,18 +6369,23 @@
         <v>851.9963</v>
       </c>
       <c r="G187" t="n">
-        <v>337109.9513854486</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>202</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1.059356435643565</v>
+      </c>
       <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>1.150753768844221</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7164,18 +6407,15 @@
         <v>32.2255</v>
       </c>
       <c r="G188" t="n">
-        <v>337109.9513854486</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7197,18 +6437,15 @@
         <v>64.813</v>
       </c>
       <c r="G189" t="n">
-        <v>337045.1383854485</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7230,18 +6467,15 @@
         <v>2211.2715</v>
       </c>
       <c r="G190" t="n">
-        <v>334833.8668854486</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7263,18 +6497,15 @@
         <v>583.4672</v>
       </c>
       <c r="G191" t="n">
-        <v>335417.3340854486</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
